--- a/Project/IAG Solar Flux Atlas/Visible range/Data/valores_VIS.xlsx
+++ b/Project/IAG Solar Flux Atlas/Visible range/Data/valores_VIS.xlsx
@@ -438,7 +438,7 @@
         <v>8513115009.474039</v>
       </c>
       <c r="F2">
-        <v>-4.25604192873819E-08</v>
+        <v>-11573895.30721731</v>
       </c>
       <c r="G2">
         <v>265.769522269104</v>
@@ -461,7 +461,7 @@
         <v>5054975071.030436</v>
       </c>
       <c r="F3">
-        <v>1.096983653152846E-07</v>
+        <v>30054231.46038604</v>
       </c>
       <c r="G3">
         <v>420.0198343706457</v>
@@ -484,7 +484,7 @@
         <v>6868795611.740364</v>
       </c>
       <c r="F4">
-        <v>7.822464152090374E-08</v>
+        <v>21697387.69736276</v>
       </c>
       <c r="G4">
         <v>308.5350256500976</v>
@@ -507,7 +507,7 @@
         <v>5299875652.331942</v>
       </c>
       <c r="F5">
-        <v>9.983765722958715E-08</v>
+        <v>27832825.66218594</v>
       </c>
       <c r="G5">
         <v>447.5437090595067</v>
@@ -530,7 +530,7 @@
         <v>7801943797.116862</v>
       </c>
       <c r="F6">
-        <v>-1.366807111207536E-08</v>
+        <v>-3818189.124365438</v>
       </c>
       <c r="G6">
         <v>249.3230491164425</v>
@@ -553,7 +553,7 @@
         <v>10467443779.30044</v>
       </c>
       <c r="F7">
-        <v>-1.561420754896595E-08</v>
+        <v>-4370910.759622676</v>
       </c>
       <c r="G7">
         <v>190.5598178486818</v>
@@ -576,7 +576,7 @@
         <v>6202907181.98884</v>
       </c>
       <c r="F8">
-        <v>1.210622725569127E-07</v>
+        <v>34733324.40846985</v>
       </c>
       <c r="G8">
         <v>415.2042378173197</v>
@@ -599,7 +599,7 @@
         <v>7752113335.055563</v>
       </c>
       <c r="F9">
-        <v>8.468661394128215E-08</v>
+        <v>24488157.55717949</v>
       </c>
       <c r="G9">
         <v>370.7712752136843</v>
@@ -622,7 +622,7 @@
         <v>8730451908.116615</v>
       </c>
       <c r="F10">
-        <v>-2.741297301628224E-09</v>
+        <v>-795268.7623365922</v>
       </c>
       <c r="G10">
         <v>217.9228786601797</v>
@@ -645,7 +645,7 @@
         <v>5740956707.395782</v>
       </c>
       <c r="F11">
-        <v>4.721220691243032E-08</v>
+        <v>13700630.34312478</v>
       </c>
       <c r="G11">
         <v>428.5502705727201</v>
@@ -668,7 +668,7 @@
         <v>3628523016.621874</v>
       </c>
       <c r="F12">
-        <v>5.199661539545413E-07</v>
+        <v>152137049.7971042</v>
       </c>
       <c r="G12">
         <v>587.1398987317552</v>
@@ -691,7 +691,7 @@
         <v>6080955901.39956</v>
       </c>
       <c r="F13">
-        <v>1.299743384313791E-07</v>
+        <v>38114587.25513511</v>
       </c>
       <c r="G13">
         <v>449.163690687972</v>
@@ -714,7 +714,7 @@
         <v>8424243964.032984</v>
       </c>
       <c r="F14">
-        <v>-6.895638965316036E-09</v>
+        <v>-2031650.931251714</v>
       </c>
       <c r="G14">
         <v>289.442612441809</v>
@@ -737,7 +737,7 @@
         <v>4211927371.133892</v>
       </c>
       <c r="F15">
-        <v>3.91514544051508E-07</v>
+        <v>115999845.235221</v>
       </c>
       <c r="G15">
         <v>578.0749494276197</v>
@@ -760,7 +760,7 @@
         <v>5211469743.666418</v>
       </c>
       <c r="F16">
-        <v>1.257659102364892E-07</v>
+        <v>37323427.60010536</v>
       </c>
       <c r="G16">
         <v>382.8181160130652</v>
@@ -783,7 +783,7 @@
         <v>7465357388.78757</v>
       </c>
       <c r="F17">
-        <v>1.330556129800102E-08</v>
+        <v>3952037.95304416</v>
       </c>
       <c r="G17">
         <v>252.7505660014645</v>
@@ -806,7 +806,7 @@
         <v>4103248704.420975</v>
       </c>
       <c r="F18">
-        <v>4.358482945610281E-07</v>
+        <v>129987956.570257</v>
       </c>
       <c r="G18">
         <v>605.9808855251404</v>
@@ -829,7 +829,7 @@
         <v>6626440983.401295</v>
       </c>
       <c r="F19">
-        <v>-8.368872778986328E-09</v>
+        <v>-2501155.482150698</v>
       </c>
       <c r="G19">
         <v>209.0983340903004</v>
@@ -852,7 +852,7 @@
         <v>4142493737.121168</v>
       </c>
       <c r="F20">
-        <v>2.609548053996162E-07</v>
+        <v>77999892.72934353</v>
       </c>
       <c r="G20">
         <v>511.9147185462162</v>
@@ -875,7 +875,7 @@
         <v>5667997271.588822</v>
       </c>
       <c r="F21">
-        <v>1.742409768569014E-07</v>
+        <v>52180873.22016494</v>
       </c>
       <c r="G21">
         <v>403.5701657879833</v>
@@ -898,7 +898,7 @@
         <v>7698161983.743793</v>
       </c>
       <c r="F22">
-        <v>-2.775980692231559E-08</v>
+        <v>-8416974.820487227</v>
       </c>
       <c r="G22">
         <v>265.8201602123155</v>
@@ -921,7 +921,7 @@
         <v>4617141196.921964</v>
       </c>
       <c r="F23">
-        <v>2.703231227852597E-07</v>
+        <v>82274725.6438259</v>
       </c>
       <c r="G23">
         <v>538.3155613815759</v>
@@ -944,7 +944,7 @@
         <v>3052921932.699667</v>
       </c>
       <c r="F24">
-        <v>1.580237680811854E-07</v>
+        <v>48378194.90004342</v>
       </c>
       <c r="G24">
         <v>609.1983235401069</v>
@@ -967,7 +967,7 @@
         <v>1923649678.254641</v>
       </c>
       <c r="F25">
-        <v>9.343805367815314E-07</v>
+        <v>287505588.8575524</v>
       </c>
       <c r="G25">
         <v>866.1172752231712</v>
@@ -990,7 +990,7 @@
         <v>1885026327.803795</v>
       </c>
       <c r="F26">
-        <v>5.473801553565817E-08</v>
+        <v>16854859.64237009</v>
       </c>
       <c r="G26">
         <v>823.0206132480077</v>
@@ -1013,7 +1013,7 @@
         <v>2209752561.101969</v>
       </c>
       <c r="F27">
-        <v>6.726927510858473E-07</v>
+        <v>207854572.7379637</v>
       </c>
       <c r="G27">
         <v>729.350394880863</v>
@@ -1036,7 +1036,7 @@
         <v>5474084639.977631</v>
       </c>
       <c r="F28">
-        <v>1.305993821329573E-07</v>
+        <v>40537859.83970852</v>
       </c>
       <c r="G28">
         <v>364.259999895956</v>
@@ -1059,7 +1059,7 @@
         <v>6910893045.112644</v>
       </c>
       <c r="F29">
-        <v>5.136243307844485E-08</v>
+        <v>16014608.67101695</v>
       </c>
       <c r="G29">
         <v>342.4480920311532</v>
@@ -1082,7 +1082,7 @@
         <v>9153231700.333128</v>
       </c>
       <c r="F30">
-        <v>2.921185875954238E-09</v>
+        <v>912399.2905629959</v>
       </c>
       <c r="G30">
         <v>164.0183127212145</v>
@@ -1105,7 +1105,7 @@
         <v>7672608747.676697</v>
       </c>
       <c r="F31">
-        <v>4.60224819679535E-08</v>
+        <v>14412762.42977231</v>
       </c>
       <c r="G31">
         <v>242.3012603376983</v>
@@ -1128,7 +1128,7 @@
         <v>7985592614.321687</v>
       </c>
       <c r="F32">
-        <v>4.216958564195048E-08</v>
+        <v>13226138.87002582</v>
       </c>
       <c r="G32">
         <v>327.6955721519653</v>
@@ -1151,7 +1151,7 @@
         <v>6814179768.728006</v>
       </c>
       <c r="F33">
-        <v>9.027616380229647E-08</v>
+        <v>28354153.19008851</v>
       </c>
       <c r="G33">
         <v>348.9445278339981</v>
@@ -1174,7 +1174,7 @@
         <v>7442194011.402136</v>
       </c>
       <c r="F34">
-        <v>7.616666379855237E-08</v>
+        <v>24037489.03557032</v>
       </c>
       <c r="G34">
         <v>369.8652593414868</v>
@@ -1197,7 +1197,7 @@
         <v>2855513237.506526</v>
       </c>
       <c r="F35">
-        <v>6.48391343672602E-07</v>
+        <v>205120142.5142395</v>
       </c>
       <c r="G35">
         <v>639.7663061169517</v>
@@ -1220,7 +1220,7 @@
         <v>7975273420.572824</v>
       </c>
       <c r="F36">
-        <v>3.422004687241553E-08</v>
+        <v>10868307.81959631</v>
       </c>
       <c r="G36">
         <v>284.0604516309946</v>
@@ -1243,7 +1243,7 @@
         <v>3060204986.030128</v>
       </c>
       <c r="F37">
-        <v>2.654792016568382E-07</v>
+        <v>84466389.54774256</v>
       </c>
       <c r="G37">
         <v>624.6560103101266</v>
@@ -1266,7 +1266,7 @@
         <v>10829221539.18615</v>
       </c>
       <c r="F38">
-        <v>-7.248344164370321E-09</v>
+        <v>-2329218.210248536</v>
       </c>
       <c r="G38">
         <v>261.9871339873538</v>
@@ -1289,7 +1289,7 @@
         <v>2488163472.521124</v>
       </c>
       <c r="F39">
-        <v>3.27693172303506E-07</v>
+        <v>105390461.7995613</v>
       </c>
       <c r="G39">
         <v>750.4023346596774</v>
@@ -1312,7 +1312,7 @@
         <v>4994540461.570053</v>
       </c>
       <c r="F40">
-        <v>1.893147735408452E-07</v>
+        <v>61140580.44543339</v>
       </c>
       <c r="G40">
         <v>410.1691831947993</v>
@@ -1335,7 +1335,7 @@
         <v>3612088828.926477</v>
       </c>
       <c r="F41">
-        <v>3.743453039141956E-07</v>
+        <v>120987472.5963817</v>
       </c>
       <c r="G41">
         <v>544.4339672244564</v>
@@ -1358,7 +1358,7 @@
         <v>5365425857.863743</v>
       </c>
       <c r="F42">
-        <v>-6.103597413981656E-08</v>
+        <v>-19745941.83262222</v>
       </c>
       <c r="G42">
         <v>325.1666616663467</v>
@@ -1381,7 +1381,7 @@
         <v>8239019377.949534</v>
       </c>
       <c r="F43">
-        <v>3.127438611892656E-08</v>
+        <v>10295118.72157818</v>
       </c>
       <c r="G43">
         <v>373.0237394995142</v>
@@ -1404,7 +1404,7 @@
         <v>9219793943.143404</v>
       </c>
       <c r="F44">
-        <v>-2.354879517427752E-08</v>
+        <v>-7756567.951259904</v>
       </c>
       <c r="G44">
         <v>197.0397248583244</v>
@@ -1427,7 +1427,7 @@
         <v>2630966137.548139</v>
       </c>
       <c r="F45">
-        <v>3.893170237978869E-07</v>
+        <v>131082902.7832438</v>
       </c>
       <c r="G45">
         <v>657.868126838672</v>
@@ -1450,7 +1450,7 @@
         <v>9300708597.362427</v>
       </c>
       <c r="F46">
-        <v>1.127227393948151E-08</v>
+        <v>3815751.705304828</v>
       </c>
       <c r="G46">
         <v>293.5474252888413</v>
@@ -1473,7 +1473,7 @@
         <v>6456928199.292809</v>
       </c>
       <c r="F47">
-        <v>1.274031328084461E-07</v>
+        <v>43260673.55140181</v>
       </c>
       <c r="G47">
         <v>474.8998268352669</v>
@@ -1496,7 +1496,7 @@
         <v>8572067487.761184</v>
       </c>
       <c r="F48">
-        <v>-3.949175812002159E-09</v>
+        <v>-1385622.351274043</v>
       </c>
       <c r="G48">
         <v>256.2938560653144</v>
@@ -1519,7 +1519,7 @@
         <v>2961734358.443184</v>
       </c>
       <c r="F49">
-        <v>3.864494550842826E-07</v>
+        <v>136886623.7270248</v>
       </c>
       <c r="G49">
         <v>642.6692259643091</v>
@@ -1542,7 +1542,7 @@
         <v>7358131769.537534</v>
       </c>
       <c r="F50">
-        <v>1.471938694265076E-08</v>
+        <v>5245870.191722603</v>
       </c>
       <c r="G50">
         <v>213.8950588812401</v>
@@ -1565,7 +1565,7 @@
         <v>8308856849.361751</v>
       </c>
       <c r="F51">
-        <v>-2.204029735309534E-08</v>
+        <v>-7875663.85912021</v>
       </c>
       <c r="G51">
         <v>289.6029504961268</v>
@@ -1588,7 +1588,7 @@
         <v>8499267342.643806</v>
       </c>
       <c r="F52">
-        <v>3.795066723075539E-08</v>
+        <v>13829350.6563353</v>
       </c>
       <c r="G52">
         <v>356.8033886013742</v>
@@ -1611,7 +1611,7 @@
         <v>9228225103.419891</v>
       </c>
       <c r="F53">
-        <v>-2.277935746227538E-08</v>
+        <v>-8343952.471045222</v>
       </c>
       <c r="G53">
         <v>287.8146011330351</v>
@@ -1634,7 +1634,7 @@
         <v>8819150179.863041</v>
       </c>
       <c r="F54">
-        <v>1.910971834336206E-08</v>
+        <v>7091982.049117844</v>
       </c>
       <c r="G54">
         <v>341.5174244912277</v>
@@ -1657,7 +1657,7 @@
         <v>6030560649.310904</v>
       </c>
       <c r="F55">
-        <v>6.773880431539129E-08</v>
+        <v>25151006.02552977</v>
       </c>
       <c r="G55">
         <v>402.9432078835075</v>
@@ -1680,7 +1680,7 @@
         <v>8597694983.107504</v>
       </c>
       <c r="F56">
-        <v>-3.664483327782529E-09</v>
+        <v>-1413159.6382393</v>
       </c>
       <c r="G56">
         <v>297.6659728998812</v>
@@ -1703,7 +1703,7 @@
         <v>4994485009.176723</v>
       </c>
       <c r="F57">
-        <v>1.260016066579128E-07</v>
+        <v>48609618.56409647</v>
       </c>
       <c r="G57">
         <v>480.2785765380352</v>
@@ -1726,7 +1726,7 @@
         <v>9395271235.566008</v>
       </c>
       <c r="F58">
-        <v>-8.425088880908894E-09</v>
+        <v>-3256004.816706941</v>
       </c>
       <c r="G58">
         <v>223.1296731169361</v>
@@ -1749,7 +1749,7 @@
         <v>7919975446.882012</v>
       </c>
       <c r="F59">
-        <v>8.358231739981196E-09</v>
+        <v>3233707.209720594</v>
       </c>
       <c r="G59">
         <v>196.0299427505224</v>
@@ -1772,7 +1772,7 @@
         <v>8817267053.29163</v>
       </c>
       <c r="F60">
-        <v>3.947262981746925E-09</v>
+        <v>1533444.38065557</v>
       </c>
       <c r="G60">
         <v>135.0541403128878</v>
@@ -1795,7 +1795,7 @@
         <v>3017847429.220926</v>
       </c>
       <c r="F61">
-        <v>1.169147796802092E-07</v>
+        <v>45583497.57867873</v>
       </c>
       <c r="G61">
         <v>661.1700599896367</v>
@@ -1818,7 +1818,7 @@
         <v>9582606108.393427</v>
       </c>
       <c r="F62">
-        <v>8.408792639035296E-09</v>
+        <v>3279907.123206076</v>
       </c>
       <c r="G62">
         <v>155.1553616828429</v>
@@ -1841,7 +1841,7 @@
         <v>10603877253.87878</v>
       </c>
       <c r="F63">
-        <v>-3.832361091492567E-09</v>
+        <v>-1498395.62017069</v>
       </c>
       <c r="G63">
         <v>202.2563811936968</v>
@@ -1864,7 +1864,7 @@
         <v>9174774100.351553</v>
       </c>
       <c r="F64">
-        <v>6.443183218454362E-09</v>
+        <v>2522949.884826656</v>
       </c>
       <c r="G64">
         <v>188.702203614514</v>
@@ -1887,7 +1887,7 @@
         <v>9469874480.391474</v>
       </c>
       <c r="F65">
-        <v>5.867048280356043E-09</v>
+        <v>2303942.060813365</v>
       </c>
       <c r="G65">
         <v>188.567148885014</v>
@@ -1910,7 +1910,7 @@
         <v>9094687380.389021</v>
       </c>
       <c r="F66">
-        <v>-2.815042045806884E-08</v>
+        <v>-11114282.50745423</v>
       </c>
       <c r="G66">
         <v>228.665589275114</v>
@@ -1933,7 +1933,7 @@
         <v>8707408390.606295</v>
       </c>
       <c r="F67">
-        <v>1.956555173193593E-09</v>
+        <v>773699.6121183068</v>
       </c>
       <c r="G67">
         <v>215.1299731215746</v>
@@ -1956,7 +1956,7 @@
         <v>2899858647.40656</v>
       </c>
       <c r="F68">
-        <v>4.483924500310657E-07</v>
+        <v>177882259.0718518</v>
       </c>
       <c r="G68">
         <v>651.590576692827</v>
@@ -1979,7 +1979,7 @@
         <v>5258662643.977183</v>
       </c>
       <c r="F69">
-        <v>9.317197568329361E-08</v>
+        <v>37218845.56420687</v>
       </c>
       <c r="G69">
         <v>476.1133324334923</v>
@@ -2002,7 +2002,7 @@
         <v>9130057372.349829</v>
       </c>
       <c r="F70">
-        <v>-9.462592047706117E-09</v>
+        <v>-3816490.46024054</v>
       </c>
       <c r="G70">
         <v>294.3474581678471</v>
@@ -2025,7 +2025,7 @@
         <v>8683348596.665701</v>
       </c>
       <c r="F71">
-        <v>-2.564436801554972E-09</v>
+        <v>-1035657.590347825</v>
       </c>
       <c r="G71">
         <v>147.1253635152767</v>
@@ -2048,7 +2048,7 @@
         <v>6791091601.523203</v>
       </c>
       <c r="F72">
-        <v>6.553808767413125E-08</v>
+        <v>26529623.69891926</v>
       </c>
       <c r="G72">
         <v>414.3846518596338</v>
@@ -2071,7 +2071,7 @@
         <v>8026579241.215408</v>
       </c>
       <c r="F73">
-        <v>1.893182946245688E-08</v>
+        <v>7673494.855912904</v>
       </c>
       <c r="G73">
         <v>320.7098134557457</v>
@@ -2094,7 +2094,7 @@
         <v>6572136613.867614</v>
       </c>
       <c r="F74">
-        <v>5.861742247416729E-08</v>
+        <v>23845209.52091658</v>
       </c>
       <c r="G74">
         <v>467.2785155310381</v>
@@ -2117,7 +2117,7 @@
         <v>2966595577.269544</v>
       </c>
       <c r="F75">
-        <v>2.713004203555718E-07</v>
+        <v>110838738.6343116</v>
       </c>
       <c r="G75">
         <v>666.8242603116864</v>
@@ -2140,7 +2140,7 @@
         <v>6334105822.629521</v>
       </c>
       <c r="F76">
-        <v>-1.341161381035996E-08</v>
+        <v>-5518474.314874459</v>
       </c>
       <c r="G76">
         <v>139.7834334295682</v>
@@ -2163,7 +2163,7 @@
         <v>8657748369.62961</v>
       </c>
       <c r="F77">
-        <v>-4.190424174583387E-08</v>
+        <v>-17472252.23534295</v>
       </c>
       <c r="G77">
         <v>298.5457706426967</v>
@@ -2186,7 +2186,7 @@
         <v>5842921473.920419</v>
       </c>
       <c r="F78">
-        <v>4.697669741066251E-08</v>
+        <v>19719642.51420306</v>
       </c>
       <c r="G78">
         <v>450.3769224949012</v>
@@ -2209,7 +2209,7 @@
         <v>4490545017.845113</v>
       </c>
       <c r="F79">
-        <v>1.687909749945505E-07</v>
+        <v>71231572.54798979</v>
       </c>
       <c r="G79">
         <v>555.6098881618403</v>
@@ -2232,7 +2232,7 @@
         <v>9805563871.915167</v>
       </c>
       <c r="F80">
-        <v>-2.588615718832064E-09</v>
+        <v>-1135044.728020503</v>
       </c>
       <c r="G80">
         <v>229.2993013639036</v>
@@ -2255,7 +2255,7 @@
         <v>9198906051.923067</v>
       </c>
       <c r="F81">
-        <v>2.469161693702147E-10</v>
+        <v>109446.2058584875</v>
       </c>
       <c r="G81">
         <v>209.0779288170725</v>
@@ -2278,7 +2278,7 @@
         <v>7922498349.735444</v>
       </c>
       <c r="F82">
-        <v>7.606807715868489E-09</v>
+        <v>3404168.23076716</v>
       </c>
       <c r="G82">
         <v>312.8673542714655</v>
@@ -2301,7 +2301,7 @@
         <v>4582655800.989157</v>
       </c>
       <c r="F83">
-        <v>1.479067862548195E-07</v>
+        <v>66469054.29833221</v>
       </c>
       <c r="G83">
         <v>546.9440870266576</v>
@@ -2324,7 +2324,7 @@
         <v>8112613170.536446</v>
       </c>
       <c r="F84">
-        <v>1.720705501306728E-08</v>
+        <v>7843234.363747384</v>
       </c>
       <c r="G84">
         <v>343.874450491872</v>
@@ -2347,7 +2347,7 @@
         <v>7140719623.565403</v>
       </c>
       <c r="F85">
-        <v>2.70350404985605E-08</v>
+        <v>12384534.58400191</v>
       </c>
       <c r="G85">
         <v>388.8072460332779</v>
@@ -2370,7 +2370,7 @@
         <v>9128381425.714878</v>
       </c>
       <c r="F86">
-        <v>4.379688026205039E-09</v>
+        <v>2015118.165764271</v>
       </c>
       <c r="G86">
         <v>310.7048660066733</v>
@@ -2393,7 +2393,7 @@
         <v>9788095069.23304</v>
       </c>
       <c r="F87">
-        <v>-1.519623361482115E-09</v>
+        <v>-702651.0144022697</v>
       </c>
       <c r="G87">
         <v>213.3457633124699</v>
@@ -2416,7 +2416,7 @@
         <v>7092464638.942607</v>
       </c>
       <c r="F88">
-        <v>4.13439140438286E-08</v>
+        <v>19144196.41890567</v>
       </c>
       <c r="G88">
         <v>381.3000645609939</v>
@@ -2439,7 +2439,7 @@
         <v>8214724175.41889</v>
       </c>
       <c r="F89">
-        <v>1.215910687873133E-08</v>
+        <v>5659236.668975987</v>
       </c>
       <c r="G89">
         <v>296.9032281587631</v>
@@ -2462,7 +2462,7 @@
         <v>7321066426.929013</v>
       </c>
       <c r="F90">
-        <v>3.097344284629525E-08</v>
+        <v>14465424.5091014</v>
       </c>
       <c r="G90">
         <v>406.2809091746796</v>
@@ -2485,7 +2485,7 @@
         <v>6219316198.263794</v>
       </c>
       <c r="F91">
-        <v>2.261490737483787E-08</v>
+        <v>10744926.93314834</v>
       </c>
       <c r="G91">
         <v>443.0658447541525</v>
@@ -2508,7 +2508,7 @@
         <v>6593664195.697258</v>
       </c>
       <c r="F92">
-        <v>3.914524369013441E-08</v>
+        <v>18781167.34896897</v>
       </c>
       <c r="G92">
         <v>429.1758065331456</v>
@@ -2531,7 +2531,7 @@
         <v>9914167445.691708</v>
       </c>
       <c r="F93">
-        <v>7.628692616355404E-10</v>
+        <v>366463.0807450726</v>
       </c>
       <c r="G93">
         <v>192.1087772959738</v>
@@ -2554,7 +2554,7 @@
         <v>9198393114.721077</v>
       </c>
       <c r="F94">
-        <v>-8.638533917628601E-10</v>
+        <v>-416132.5643928206</v>
       </c>
       <c r="G94">
         <v>223.9706739074899</v>
@@ -2577,7 +2577,7 @@
         <v>5473204591.125056</v>
       </c>
       <c r="F95">
-        <v>5.361513809640255E-08</v>
+        <v>26354472.43593361</v>
       </c>
       <c r="G95">
         <v>483.8862391094023</v>
@@ -2600,7 +2600,7 @@
         <v>8196212138.658576</v>
       </c>
       <c r="F96">
-        <v>2.454438556329065E-08</v>
+        <v>12284294.81754175</v>
       </c>
       <c r="G96">
         <v>310.5758742266656</v>
@@ -2623,7 +2623,7 @@
         <v>7282510963.175148</v>
       </c>
       <c r="F97">
-        <v>-5.434803627825414E-09</v>
+        <v>-2721164.700996182</v>
       </c>
       <c r="G97">
         <v>133.0906197710555</v>
@@ -2646,7 +2646,7 @@
         <v>8350332709.930167</v>
       </c>
       <c r="F98">
-        <v>1.582131534811149E-08</v>
+        <v>8034665.833067148</v>
       </c>
       <c r="G98">
         <v>290.501010511149</v>
@@ -2669,7 +2669,7 @@
         <v>8217451480.066837</v>
       </c>
       <c r="F99">
-        <v>-2.522064667982299E-09</v>
+        <v>-1317499.706734375</v>
       </c>
       <c r="G99">
         <v>150.4989900454793</v>
@@ -2692,7 +2692,7 @@
         <v>8494105193.164482</v>
       </c>
       <c r="F100">
-        <v>1.753040548299624E-08</v>
+        <v>9214318.172782814</v>
       </c>
       <c r="G100">
         <v>344.3626812155902</v>
@@ -2715,7 +2715,7 @@
         <v>7452632307.585189</v>
       </c>
       <c r="F101">
-        <v>-8.684294033051784E-09</v>
+        <v>-4568511.248400491</v>
       </c>
       <c r="G101">
         <v>143.9755355749279</v>
@@ -2738,7 +2738,7 @@
         <v>8306501370.155609</v>
       </c>
       <c r="F102">
-        <v>2.298938290034809E-08</v>
+        <v>12112404.48947935</v>
       </c>
       <c r="G102">
         <v>362.930493525311</v>
@@ -2761,7 +2761,7 @@
         <v>7812264686.029471</v>
       </c>
       <c r="F103">
-        <v>-3.005682511075851E-09</v>
+        <v>-1595020.565741603</v>
       </c>
       <c r="G103">
         <v>137.4161532692214</v>
@@ -2784,7 +2784,7 @@
         <v>7850248889.832441</v>
       </c>
       <c r="F104">
-        <v>7.351464410271868E-09</v>
+        <v>3908955.020731911</v>
       </c>
       <c r="G104">
         <v>255.9665571096439</v>
@@ -2807,7 +2807,7 @@
         <v>8136017706.525627</v>
       </c>
       <c r="F105">
-        <v>-1.17950362011548E-10</v>
+        <v>-63086.80119041666</v>
       </c>
       <c r="G105">
         <v>199.4854216284294</v>
@@ -2830,7 +2830,7 @@
         <v>8231014311.072506</v>
       </c>
       <c r="F106">
-        <v>-5.80377477999388E-09</v>
+        <v>-3177566.619021956</v>
       </c>
       <c r="G106">
         <v>185.928599729905</v>
@@ -2853,7 +2853,7 @@
         <v>9451137313.184113</v>
       </c>
       <c r="F107">
-        <v>5.025653583214539E-10</v>
+        <v>275992.6606908662</v>
       </c>
       <c r="G107">
         <v>297.2597614746506</v>
@@ -2876,7 +2876,7 @@
         <v>7907380828.788053</v>
       </c>
       <c r="F108">
-        <v>1.021820415342719E-08</v>
+        <v>5686687.984759445</v>
       </c>
       <c r="G108">
         <v>308.6170731065522</v>
@@ -2899,7 +2899,7 @@
         <v>4262850732.7276</v>
       </c>
       <c r="F109">
-        <v>4.776422594219268E-08</v>
+        <v>26671291.03137524</v>
       </c>
       <c r="G109">
         <v>592.0487520753957</v>
@@ -2922,7 +2922,7 @@
         <v>3225032273.635579</v>
       </c>
       <c r="F110">
-        <v>8.44581879308302E-08</v>
+        <v>47612035.27322379</v>
       </c>
       <c r="G110">
         <v>658.3194514542251</v>
@@ -2945,7 +2945,7 @@
         <v>3830664697.817988</v>
       </c>
       <c r="F111">
-        <v>6.0216710778718E-08</v>
+        <v>33969092.19805989</v>
       </c>
       <c r="G111">
         <v>608.9968578792935</v>
@@ -2968,7 +2968,7 @@
         <v>8476014270.796512</v>
       </c>
       <c r="F112">
-        <v>4.361536192686882E-09</v>
+        <v>2467954.586475586</v>
       </c>
       <c r="G112">
         <v>239.7238458567368</v>
@@ -2991,7 +2991,7 @@
         <v>9208463695.932909</v>
       </c>
       <c r="F113">
-        <v>1.18657243855347E-08</v>
+        <v>6746390.871100548</v>
       </c>
       <c r="G113">
         <v>251.7158792702025</v>
@@ -3014,7 +3014,7 @@
         <v>8435545828.346103</v>
       </c>
       <c r="F114">
-        <v>4.101740466024424E-09</v>
+        <v>2332906.625362355</v>
       </c>
       <c r="G114">
         <v>337.6382080836308</v>
@@ -3037,7 +3037,7 @@
         <v>8586970583.481787</v>
       </c>
       <c r="F115">
-        <v>8.799049461627749E-09</v>
+        <v>5018038.033996414</v>
       </c>
       <c r="G115">
         <v>294.4678052522808</v>
@@ -3060,7 +3060,7 @@
         <v>8061790610.742906</v>
       </c>
       <c r="F116">
-        <v>1.532916292963985E-08</v>
+        <v>8748569.242123554</v>
       </c>
       <c r="G116">
         <v>294.4134988518495</v>
@@ -3083,7 +3083,7 @@
         <v>3272796835.66243</v>
       </c>
       <c r="F117">
-        <v>2.181305872421385E-09</v>
+        <v>1249421.533915826</v>
       </c>
       <c r="G117">
         <v>637.3189924937482</v>
@@ -3106,7 +3106,7 @@
         <v>2778752165.574976</v>
       </c>
       <c r="F118">
-        <v>2.344021234514481E-09</v>
+        <v>1343432.417253122</v>
       </c>
       <c r="G118">
         <v>637.2229294924234</v>
@@ -3129,7 +3129,7 @@
         <v>7939518885.130783</v>
       </c>
       <c r="F119">
-        <v>3.275273354902239E-09</v>
+        <v>1879249.212210597</v>
       </c>
       <c r="G119">
         <v>171.5121047806323</v>
@@ -3152,7 +3152,7 @@
         <v>8528465195.352036</v>
       </c>
       <c r="F120">
-        <v>3.388943008168508E-09</v>
+        <v>1968221.676088884</v>
       </c>
       <c r="G120">
         <v>256.4885182820136</v>
@@ -3175,7 +3175,7 @@
         <v>8429232147.963057</v>
       </c>
       <c r="F121">
-        <v>1.595743773136642E-09</v>
+        <v>928019.9768063367</v>
       </c>
       <c r="G121">
         <v>238.0877841652245</v>
@@ -3198,7 +3198,7 @@
         <v>7630815579.322088</v>
       </c>
       <c r="F122">
-        <v>1.479937746303127E-08</v>
+        <v>8611174.83694669</v>
       </c>
       <c r="G122">
         <v>354.0335903691859</v>
@@ -3221,7 +3221,7 @@
         <v>8013143103.363203</v>
       </c>
       <c r="F123">
-        <v>9.054618585263589E-09</v>
+        <v>5269849.772128452</v>
       </c>
       <c r="G123">
         <v>323.4931006854778</v>
@@ -3244,7 +3244,7 @@
         <v>8084508330.688377</v>
       </c>
       <c r="F124">
-        <v>1.480383697322684E-08</v>
+        <v>8617611.189290451</v>
       </c>
       <c r="G124">
         <v>317.3740075352466</v>
@@ -3267,7 +3267,7 @@
         <v>8330629027.811917</v>
       </c>
       <c r="F125">
-        <v>2.706801249087307E-09</v>
+        <v>1584253.667029174</v>
       </c>
       <c r="G125">
         <v>231.6127946815793</v>
@@ -3290,7 +3290,7 @@
         <v>8009215788.24072</v>
       </c>
       <c r="F126">
-        <v>-3.73675824867435E-12</v>
+        <v>-2188.464053136919</v>
       </c>
       <c r="G126">
         <v>170.6349059582614</v>
@@ -3313,7 +3313,7 @@
         <v>2367472509.082283</v>
       </c>
       <c r="F127">
-        <v>7.256213343364044E-09</v>
+        <v>4258305.09597506</v>
       </c>
       <c r="G127">
         <v>651.7390481277853</v>
@@ -3336,7 +3336,7 @@
         <v>7171225138.672638</v>
       </c>
       <c r="F128">
-        <v>2.63168301895616E-08</v>
+        <v>15497609.19743942</v>
       </c>
       <c r="G128">
         <v>450.3449460945492</v>
@@ -3359,7 +3359,7 @@
         <v>7908307022.720664</v>
       </c>
       <c r="F129">
-        <v>7.750243562403768E-10</v>
+        <v>461389.0902461839</v>
       </c>
       <c r="G129">
         <v>285.2534997672307</v>
@@ -3382,7 +3382,7 @@
         <v>5225859776.884244</v>
       </c>
       <c r="F130">
-        <v>5.653115002305587E-08</v>
+        <v>33671791.77994493</v>
       </c>
       <c r="G130">
         <v>515.8171460386473</v>
@@ -3405,7 +3405,7 @@
         <v>6649453930.79479</v>
       </c>
       <c r="F131">
-        <v>3.805800361805412E-08</v>
+        <v>22684590.48044019</v>
       </c>
       <c r="G131">
         <v>436.8502585778521</v>
@@ -3428,7 +3428,7 @@
         <v>7005327949.795592</v>
       </c>
       <c r="F132">
-        <v>-5.517162652177904E-09</v>
+        <v>-3304382.487070105</v>
       </c>
       <c r="G132">
         <v>115.1412233835772</v>
@@ -3451,7 +3451,7 @@
         <v>6584596485.24254</v>
       </c>
       <c r="F133">
-        <v>1.870201235574318E-08</v>
+        <v>11208005.9501408</v>
       </c>
       <c r="G133">
         <v>430.1992724144051</v>
@@ -3474,7 +3474,7 @@
         <v>8052112680.088124</v>
       </c>
       <c r="F134">
-        <v>5.115878987828035E-09</v>
+        <v>3075138.602911436</v>
       </c>
       <c r="G134">
         <v>284.5659055113994</v>
@@ -3497,7 +3497,7 @@
         <v>5521903584.24358</v>
       </c>
       <c r="F135">
-        <v>5.079875521275953E-08</v>
+        <v>30931334.9124423</v>
       </c>
       <c r="G135">
         <v>506.9490635269828</v>
@@ -3520,7 +3520,7 @@
         <v>7754764544.085368</v>
       </c>
       <c r="F136">
-        <v>1.44467236247076E-08</v>
+        <v>8809404.637807075</v>
       </c>
       <c r="G136">
         <v>355.9417502842903</v>
@@ -3543,7 +3543,7 @@
         <v>8283985370.333877</v>
       </c>
       <c r="F137">
-        <v>9.95774962871879E-09</v>
+        <v>6081968.97776911</v>
       </c>
       <c r="G137">
         <v>271.3706408958692</v>
@@ -3566,7 +3566,7 @@
         <v>8713537681.85074</v>
       </c>
       <c r="F138">
-        <v>2.603448515378541E-09</v>
+        <v>1590866.66655998</v>
       </c>
       <c r="G138">
         <v>217.0712569241121</v>
@@ -3589,7 +3589,7 @@
         <v>5591101782.831304</v>
       </c>
       <c r="F139">
-        <v>3.371774830308212E-08</v>
+        <v>20803437.93749539</v>
       </c>
       <c r="G139">
         <v>469.1879486788494</v>
@@ -3612,7 +3612,7 @@
         <v>6511253214.598454</v>
       </c>
       <c r="F140">
-        <v>1.82057614699079E-08</v>
+        <v>11239493.99409494</v>
       </c>
       <c r="G140">
         <v>402.9596972688693</v>
@@ -3635,7 +3635,7 @@
         <v>5712229602.114035</v>
       </c>
       <c r="F141">
-        <v>5.658093139039341E-08</v>
+        <v>34947679.86176818</v>
       </c>
       <c r="G141">
         <v>481.087776799038</v>
@@ -3658,7 +3658,7 @@
         <v>6991408654.561224</v>
       </c>
       <c r="F142">
-        <v>2.297238818983667E-08</v>
+        <v>14205019.5223027</v>
       </c>
       <c r="G142">
         <v>396.7859550963246</v>
@@ -3681,7 +3681,7 @@
         <v>6383687908.100035</v>
       </c>
       <c r="F143">
-        <v>3.719283618081937E-08</v>
+        <v>23003704.77954296</v>
       </c>
       <c r="G143">
         <v>438.8434056278534</v>
@@ -3704,7 +3704,7 @@
         <v>7658285202.732605</v>
       </c>
       <c r="F144">
-        <v>-1.331843269174263E-09</v>
+        <v>-824186.5185513715</v>
       </c>
       <c r="G144">
         <v>192.3436545480818</v>
@@ -3727,7 +3727,7 @@
         <v>7934416373.395692</v>
       </c>
       <c r="F145">
-        <v>1.406903059557104E-08</v>
+        <v>8725438.434950355</v>
       </c>
       <c r="G145">
         <v>324.4024769414405</v>
@@ -3750,7 +3750,7 @@
         <v>7465741812.111776</v>
       </c>
       <c r="F146">
-        <v>1.570300789476126E-08</v>
+        <v>9756925.919495462</v>
       </c>
       <c r="G146">
         <v>330.2564674919828</v>
@@ -3773,7 +3773,7 @@
         <v>5796759331.682949</v>
       </c>
       <c r="F147">
-        <v>4.617306181667352E-08</v>
+        <v>28755121.26397126</v>
       </c>
       <c r="G147">
         <v>474.0966087110568</v>
@@ -3796,7 +3796,7 @@
         <v>5725880458.958944</v>
       </c>
       <c r="F148">
-        <v>-1.682572113804856E-08</v>
+        <v>-10520353.4619809</v>
       </c>
       <c r="G148">
         <v>77.93813460503492</v>
@@ -3819,7 +3819,7 @@
         <v>5131884809.858296</v>
       </c>
       <c r="F149">
-        <v>4.279616408075155E-08</v>
+        <v>26817591.49475504</v>
       </c>
       <c r="G149">
         <v>521.2991046090349</v>
@@ -3842,7 +3842,7 @@
         <v>7933804273.315886</v>
       </c>
       <c r="F150">
-        <v>1.028562115658541E-08</v>
+        <v>6450108.292507347</v>
       </c>
       <c r="G150">
         <v>329.4956984682663</v>
@@ -3865,7 +3865,7 @@
         <v>7370457937.446983</v>
       </c>
       <c r="F151">
-        <v>-1.187876896608514E-09</v>
+        <v>-745661.2692130859</v>
       </c>
       <c r="G151">
         <v>179.679975804255</v>
@@ -3888,7 +3888,7 @@
         <v>5601302701.850947</v>
       </c>
       <c r="F152">
-        <v>3.29372609786651E-08</v>
+        <v>20703239.22597631</v>
       </c>
       <c r="G152">
         <v>478.9869474924316</v>
@@ -3911,7 +3911,7 @@
         <v>5936792435.622589</v>
       </c>
       <c r="F153">
-        <v>3.822939847020148E-08</v>
+        <v>24207418.28511898</v>
       </c>
       <c r="G153">
         <v>472.1290525933568</v>
@@ -3934,7 +3934,7 @@
         <v>6910873049.456336</v>
       </c>
       <c r="F154">
-        <v>2.744245908136032E-08</v>
+        <v>17478256.23317005</v>
       </c>
       <c r="G154">
         <v>405.7994315701984</v>
@@ -3957,7 +3957,7 @@
         <v>6621111424.32496</v>
       </c>
       <c r="F155">
-        <v>-5.704176432162514E-09</v>
+        <v>-3635759.872233637</v>
       </c>
       <c r="G155">
         <v>95.46413974590695</v>
@@ -3980,7 +3980,7 @@
         <v>7327442458.537248</v>
       </c>
       <c r="F156">
-        <v>2.573704436549687E-09</v>
+        <v>1646422.70072783</v>
       </c>
       <c r="G156">
         <v>220.5601649670804</v>
@@ -4003,7 +4003,7 @@
         <v>8178048625.814939</v>
       </c>
       <c r="F157">
-        <v>1.022142243677222E-08</v>
+        <v>6540675.039812405</v>
       </c>
       <c r="G157">
         <v>363.5994820882458</v>
@@ -4026,7 +4026,7 @@
         <v>8633408714.798695</v>
       </c>
       <c r="F158">
-        <v>1.858655454932874E-09</v>
+        <v>1190760.195972655</v>
       </c>
       <c r="G158">
         <v>196.6430370832692</v>
@@ -4049,7 +4049,7 @@
         <v>4534972892.310439</v>
       </c>
       <c r="F159">
-        <v>-3.590186132470209E-09</v>
+        <v>-2302197.988121669</v>
       </c>
       <c r="G159">
         <v>83.40506653986466</v>
@@ -4072,7 +4072,7 @@
         <v>4169034550.629319</v>
       </c>
       <c r="F160">
-        <v>3.965866722103443E-08</v>
+        <v>25653870.11874078</v>
       </c>
       <c r="G160">
         <v>540.9525654431335</v>
@@ -4095,7 +4095,7 @@
         <v>8420903839.870934</v>
       </c>
       <c r="F161">
-        <v>2.872596829226041E-10</v>
+        <v>186180.4050349157</v>
       </c>
       <c r="G161">
         <v>320.8485670637207</v>
@@ -4118,7 +4118,7 @@
         <v>6847723821.666286</v>
       </c>
       <c r="F162">
-        <v>-2.802581098494186E-09</v>
+        <v>-1831492.339301012</v>
       </c>
       <c r="G162">
         <v>142.3050857498608</v>
@@ -4141,7 +4141,7 @@
         <v>5298221778.229635</v>
       </c>
       <c r="F163">
-        <v>5.472424203857574E-08</v>
+        <v>36163950.84052872</v>
       </c>
       <c r="G163">
         <v>514.4186105117282</v>
@@ -4164,7 +4164,7 @@
         <v>8104766631.677096</v>
       </c>
       <c r="F164">
-        <v>4.931581878577781E-10</v>
+        <v>326903.2109596014</v>
       </c>
       <c r="G164">
         <v>271.7820022335343</v>
@@ -4187,7 +4187,7 @@
         <v>6830507729.173145</v>
       </c>
       <c r="F165">
-        <v>1.964580669976853E-08</v>
+        <v>13087619.95844625</v>
       </c>
       <c r="G165">
         <v>413.0680830430368</v>
@@ -4210,7 +4210,7 @@
         <v>5432533835.636112</v>
       </c>
       <c r="F166">
-        <v>5.527141993510387E-08</v>
+        <v>36947389.2913988</v>
       </c>
       <c r="G166">
         <v>489.3602850913582</v>
@@ -4233,7 +4233,7 @@
         <v>7114607754.698859</v>
       </c>
       <c r="F167">
-        <v>5.564821866550489E-09</v>
+        <v>3741733.673951411</v>
       </c>
       <c r="G167">
         <v>382.6742260723846</v>
@@ -4256,7 +4256,7 @@
         <v>5459126112.744236</v>
       </c>
       <c r="F168">
-        <v>1.033114071425014E-07</v>
+        <v>69899200.08470657</v>
       </c>
       <c r="G168">
         <v>452.6172499647096</v>
@@ -4279,7 +4279,7 @@
         <v>7021123431.25175</v>
       </c>
       <c r="F169">
-        <v>2.951306034163613E-09</v>
+        <v>1997402.522345052</v>
       </c>
       <c r="G169">
         <v>152.8204362913692</v>
@@ -4302,7 +4302,7 @@
         <v>5781442600.751664</v>
       </c>
       <c r="F170">
-        <v>4.442851022149445E-08</v>
+        <v>30266645.22672408</v>
       </c>
       <c r="G170">
         <v>492.9184444256738</v>
@@ -4325,7 +4325,7 @@
         <v>4419016461.221698</v>
       </c>
       <c r="F171">
-        <v>-2.281547881673518E-08</v>
+        <v>-15644475.9333463</v>
       </c>
       <c r="G171">
         <v>105.4533796425313</v>
@@ -4348,7 +4348,7 @@
         <v>6785855378.651</v>
       </c>
       <c r="F172">
-        <v>2.959972631095165E-08</v>
+        <v>20480908.94410258</v>
       </c>
       <c r="G172">
         <v>438.3966416710136</v>
@@ -4371,7 +4371,7 @@
         <v>8294756526.038636</v>
       </c>
       <c r="F173">
-        <v>3.549979170612857E-09</v>
+        <v>2464214.300269221</v>
       </c>
       <c r="G173">
         <v>344.5958529469589</v>
@@ -4394,7 +4394,7 @@
         <v>6693705250.73392</v>
       </c>
       <c r="F174">
-        <v>2.30592282678298E-08</v>
+        <v>16080472.1776876</v>
       </c>
       <c r="G174">
         <v>449.2091270625259</v>
@@ -4417,7 +4417,7 @@
         <v>7788381789.490275</v>
       </c>
       <c r="F175">
-        <v>1.823098472889616E-08</v>
+        <v>12756648.35077541</v>
       </c>
       <c r="G175">
         <v>419.6837880060606</v>
@@ -4440,7 +4440,7 @@
         <v>7831097759.009555</v>
       </c>
       <c r="F176">
-        <v>4.061808844275443E-09</v>
+        <v>2856102.305140938</v>
       </c>
       <c r="G176">
         <v>308.5556120529431</v>
@@ -4463,7 +4463,7 @@
         <v>7430273329.223908</v>
       </c>
       <c r="F177">
-        <v>1.39936876412232E-08</v>
+        <v>9841233.533192718</v>
       </c>
       <c r="G177">
         <v>343.4740029958317</v>
@@ -4486,7 +4486,7 @@
         <v>8104169655.710958</v>
       </c>
       <c r="F178">
-        <v>6.120316148149595E-09</v>
+        <v>4340513.256703794</v>
       </c>
       <c r="G178">
         <v>325.3249663559829</v>
@@ -4509,7 +4509,7 @@
         <v>4949087501.692162</v>
       </c>
       <c r="F179">
-        <v>5.811044429985961E-09</v>
+        <v>4131471.87628389</v>
       </c>
       <c r="G179">
         <v>510.9065423744759</v>
@@ -4532,7 +4532,7 @@
         <v>7536695039.110599</v>
       </c>
       <c r="F180">
-        <v>1.295180722064403E-08</v>
+        <v>9230721.943003997</v>
       </c>
       <c r="G180">
         <v>353.9359901292509</v>
@@ -4555,7 +4555,7 @@
         <v>4369753361.925367</v>
       </c>
       <c r="F181">
-        <v>8.386824398890949E-08</v>
+        <v>61151504.21179928</v>
       </c>
       <c r="G181">
         <v>548.0784213416688</v>
@@ -4578,7 +4578,7 @@
         <v>6861254045.394743</v>
       </c>
       <c r="F182">
-        <v>2.36495218343388E-08</v>
+        <v>17250781.05222846</v>
       </c>
       <c r="G182">
         <v>444.1866194437167</v>
@@ -4601,7 +4601,7 @@
         <v>8202483700.086025</v>
       </c>
       <c r="F183">
-        <v>8.474165798884137E-09</v>
+        <v>6184130.687259474</v>
       </c>
       <c r="G183">
         <v>265.3282505137445</v>
@@ -4624,7 +4624,7 @@
         <v>7048844606.201157</v>
       </c>
       <c r="F184">
-        <v>2.192498190427909E-08</v>
+        <v>16032748.24507423</v>
       </c>
       <c r="G184">
         <v>397.7893828895714</v>
@@ -4647,7 +4647,7 @@
         <v>5779174925.057575</v>
       </c>
       <c r="F185">
-        <v>2.337823443024107E-08</v>
+        <v>17313126.84040336</v>
       </c>
       <c r="G185">
         <v>476.9891890594358</v>
@@ -4670,7 +4670,7 @@
         <v>4913485846.127955</v>
       </c>
       <c r="F186">
-        <v>6.097094175822675E-08</v>
+        <v>45190905.42268083</v>
       </c>
       <c r="G186">
         <v>511.3631345934462</v>
@@ -4693,7 +4693,7 @@
         <v>6332461334.284135</v>
       </c>
       <c r="F187">
-        <v>2.677650063376427E-08</v>
+        <v>19863375.11717956</v>
       </c>
       <c r="G187">
         <v>453.8095651284285</v>
@@ -4716,7 +4716,7 @@
         <v>5929619297.989858</v>
       </c>
       <c r="F188">
-        <v>-6.052958682795101E-09</v>
+        <v>-4510174.653620318</v>
       </c>
       <c r="G188">
         <v>45.90440303461416</v>
@@ -4739,7 +4739,7 @@
         <v>10030881254.00994</v>
       </c>
       <c r="F189">
-        <v>5.082136243335521E-09</v>
+        <v>3793604.193138759</v>
       </c>
       <c r="G189">
         <v>355.5997765012312</v>
@@ -4762,7 +4762,7 @@
         <v>7983151062.389997</v>
       </c>
       <c r="F190">
-        <v>1.075859445042321E-09</v>
+        <v>804836.6009272352</v>
       </c>
       <c r="G190">
         <v>194.9000080013638</v>
@@ -4785,7 +4785,7 @@
         <v>3035400614.740738</v>
       </c>
       <c r="F191">
-        <v>2.244821101608024E-08</v>
+        <v>16852031.12649709</v>
       </c>
       <c r="G191">
         <v>664.3730779968311</v>
@@ -4808,7 +4808,7 @@
         <v>7913138495.061765</v>
       </c>
       <c r="F192">
-        <v>1.327340141072084E-08</v>
+        <v>10037350.27901958</v>
       </c>
       <c r="G192">
         <v>440.2028529040152</v>
@@ -4831,7 +4831,7 @@
         <v>8183575896.339798</v>
       </c>
       <c r="F193">
-        <v>5.679814533149268E-09</v>
+        <v>4299282.111137878</v>
       </c>
       <c r="G193">
         <v>251.4828053927618</v>
@@ -4854,7 +4854,7 @@
         <v>10640329314.35814</v>
       </c>
       <c r="F194">
-        <v>3.567260209038286E-09</v>
+        <v>2706955.335620509</v>
       </c>
       <c r="G194">
         <v>319.8693428737197</v>
@@ -4877,7 +4877,7 @@
         <v>10474287018.79365</v>
       </c>
       <c r="F195">
-        <v>2.678919169744939E-09</v>
+        <v>2037751.752828524</v>
       </c>
       <c r="G195">
         <v>319.6769159203166</v>
@@ -4900,7 +4900,7 @@
         <v>6499841006.859241</v>
       </c>
       <c r="F196">
-        <v>2.541046997616748E-08</v>
+        <v>19335237.25818834</v>
       </c>
       <c r="G196">
         <v>410.9789637229379</v>
@@ -4923,7 +4923,7 @@
         <v>8423872470.155222</v>
       </c>
       <c r="F197">
-        <v>7.943495311788011E-09</v>
+        <v>6057302.815278304</v>
       </c>
       <c r="G197">
         <v>325.1839627733391</v>
@@ -4946,7 +4946,7 @@
         <v>1456428242.217321</v>
       </c>
       <c r="F198">
-        <v>9.308432347994391E-08</v>
+        <v>71854540.14181592</v>
       </c>
       <c r="G198">
         <v>745.0727175472458</v>
@@ -4969,7 +4969,7 @@
         <v>5068993299.00054</v>
       </c>
       <c r="F199">
-        <v>4.93112050738033E-08</v>
+        <v>38419939.31944118</v>
       </c>
       <c r="G199">
         <v>533.3920821375108</v>
@@ -4992,7 +4992,7 @@
         <v>9221850719.815279</v>
       </c>
       <c r="F200">
-        <v>-1.959738916270083E-10</v>
+        <v>-157396.8589335321</v>
       </c>
       <c r="G200">
         <v>320.9937396896644</v>
@@ -5015,7 +5015,7 @@
         <v>3405008727.343734</v>
       </c>
       <c r="F201">
-        <v>2.038961266405575E-08</v>
+        <v>16402361.38668721</v>
       </c>
       <c r="G201">
         <v>624.8420329569337</v>
@@ -5038,7 +5038,7 @@
         <v>6564317824.289026</v>
       </c>
       <c r="F202">
-        <v>-9.307496933995244E-09</v>
+        <v>-7498393.793433506</v>
       </c>
       <c r="G202">
         <v>163.1868283250007</v>
@@ -5061,7 +5061,7 @@
         <v>1741353198.384378</v>
       </c>
       <c r="F203">
-        <v>5.729243129268358E-08</v>
+        <v>46222564.61630395</v>
       </c>
       <c r="G203">
         <v>714.3914733091553</v>
@@ -5084,7 +5084,7 @@
         <v>3545537820.011448</v>
       </c>
       <c r="F204">
-        <v>1.284418088944888E-07</v>
+        <v>103662886.9927392</v>
       </c>
       <c r="G204">
         <v>607.4578053766782</v>
@@ -5107,7 +5107,7 @@
         <v>8393724937.737963</v>
       </c>
       <c r="F205">
-        <v>3.931594265117277E-09</v>
+        <v>3176570.709718565</v>
       </c>
       <c r="G205">
         <v>241.7920683041129</v>
@@ -5130,7 +5130,7 @@
         <v>7605109318.116067</v>
       </c>
       <c r="F206">
-        <v>1.711465130656472E-08</v>
+        <v>13858212.26149773</v>
       </c>
       <c r="G206">
         <v>404.640172461836</v>
@@ -5153,7 +5153,7 @@
         <v>4923119395.525725</v>
       </c>
       <c r="F207">
-        <v>3.052185872433204E-08</v>
+        <v>24845016.4818917</v>
       </c>
       <c r="G207">
         <v>538.8099891878917</v>
@@ -5176,7 +5176,7 @@
         <v>8752557233.623289</v>
       </c>
       <c r="F208">
-        <v>7.963377669195936E-09</v>
+        <v>6606789.721514538</v>
       </c>
       <c r="G208">
         <v>351.9155597399666</v>
@@ -5199,7 +5199,7 @@
         <v>4790114958.360487</v>
       </c>
       <c r="F209">
-        <v>2.581915462259295E-08</v>
+        <v>21493803.69547046</v>
       </c>
       <c r="G209">
         <v>591.608779447422</v>
@@ -5222,7 +5222,7 @@
         <v>1926438842.042177</v>
       </c>
       <c r="F210">
-        <v>1.624577648491191E-07</v>
+        <v>135396271.3075394</v>
       </c>
       <c r="G210">
         <v>730.9311991915263</v>
@@ -5245,7 +5245,7 @@
         <v>7997932949.015792</v>
       </c>
       <c r="F211">
-        <v>5.423764864336557E-09</v>
+        <v>4527743.563708776</v>
       </c>
       <c r="G211">
         <v>262.1342075090563</v>
@@ -5268,7 +5268,7 @@
         <v>8587274001.318745</v>
       </c>
       <c r="F212">
-        <v>2.412921233121114E-09</v>
+        <v>2023109.654806462</v>
       </c>
       <c r="G212">
         <v>300.8470997851913</v>
@@ -5291,7 +5291,7 @@
         <v>4440623995.053247</v>
       </c>
       <c r="F213">
-        <v>2.906685243245464E-08</v>
+        <v>24439997.46931456</v>
       </c>
       <c r="G213">
         <v>606.8373347882188</v>
@@ -5314,7 +5314,7 @@
         <v>7689749703.565627</v>
       </c>
       <c r="F214">
-        <v>1.11397866034231E-08</v>
+        <v>9409124.262045901</v>
       </c>
       <c r="G214">
         <v>378.1482372052855</v>
@@ -5337,7 +5337,7 @@
         <v>5064157781.634568</v>
       </c>
       <c r="F215">
-        <v>3.127989461130358E-08</v>
+        <v>26492741.86048947</v>
       </c>
       <c r="G215">
         <v>522.3768312255593</v>
@@ -5360,7 +5360,7 @@
         <v>4793026472.926543</v>
       </c>
       <c r="F216">
-        <v>3.148409938611072E-09</v>
+        <v>2675368.129205623</v>
       </c>
       <c r="G216">
         <v>144.3680835962942</v>
@@ -5383,7 +5383,7 @@
         <v>7925323643.813634</v>
       </c>
       <c r="F217">
-        <v>7.100253575307332E-09</v>
+        <v>6036427.501686208</v>
       </c>
       <c r="G217">
         <v>305.3565936087082</v>
@@ -5406,7 +5406,7 @@
         <v>7944210780.544513</v>
       </c>
       <c r="F218">
-        <v>-1.585359083184332E-09</v>
+        <v>-1353369.451398862</v>
       </c>
       <c r="G218">
         <v>316.1359137744954</v>
@@ -5429,7 +5429,7 @@
         <v>2294321374.284393</v>
       </c>
       <c r="F219">
-        <v>1.29606043260216E-07</v>
+        <v>110801138.1356985</v>
       </c>
       <c r="G219">
         <v>715.2069186477776</v>
@@ -5452,7 +5452,7 @@
         <v>7404177041.871378</v>
       </c>
       <c r="F220">
-        <v>-1.790364567860374E-09</v>
+        <v>-1534392.883764434</v>
       </c>
       <c r="G220">
         <v>243.7950914115646</v>
@@ -5475,7 +5475,7 @@
         <v>5459760961.882714</v>
       </c>
       <c r="F221">
-        <v>2.388935283080766E-08</v>
+        <v>20500832.67203267</v>
       </c>
       <c r="G221">
         <v>531.7419541102801</v>
@@ -5498,7 +5498,7 @@
         <v>4498296141.958042</v>
       </c>
       <c r="F222">
-        <v>2.557302196128445E-08</v>
+        <v>22015383.31381927</v>
       </c>
       <c r="G222">
         <v>614.3396157091662</v>
@@ -5521,7 +5521,7 @@
         <v>4239527482.999036</v>
       </c>
       <c r="F223">
-        <v>1.572543610899392E-08</v>
+        <v>13626673.49225159</v>
       </c>
       <c r="G223">
         <v>652.0139188127673</v>
@@ -5544,7 +5544,7 @@
         <v>7257296072.805779</v>
       </c>
       <c r="F224">
-        <v>6.038254362198632E-09</v>
+        <v>5266692.721596733</v>
       </c>
       <c r="G224">
         <v>281.3420466145797</v>
@@ -5567,7 +5567,7 @@
         <v>2811604541.385234</v>
       </c>
       <c r="F225">
-        <v>1.325750565758273E-07</v>
+        <v>115769584.1449433</v>
       </c>
       <c r="G225">
         <v>667.3042286358224</v>
@@ -5590,7 +5590,7 @@
         <v>6220309912.34803</v>
       </c>
       <c r="F226">
-        <v>2.014666183290199E-08</v>
+        <v>17729392.73475955</v>
       </c>
       <c r="G226">
         <v>506.3916931452759</v>
@@ -5613,7 +5613,7 @@
         <v>7196354021.587925</v>
       </c>
       <c r="F227">
-        <v>1.350340168566001E-08</v>
+        <v>12040381.14087588</v>
       </c>
       <c r="G227">
         <v>422.4378057280423</v>
@@ -5636,7 +5636,7 @@
         <v>6648848800.686422</v>
       </c>
       <c r="F228">
-        <v>1.590013701822131E-08</v>
+        <v>14180737.38806641</v>
       </c>
       <c r="G228">
         <v>455.3286399195703</v>
@@ -5659,7 +5659,7 @@
         <v>6574682233.828505</v>
       </c>
       <c r="F229">
-        <v>-2.382320168452422E-09</v>
+        <v>-2126254.741775646</v>
       </c>
       <c r="G229">
         <v>148.0917583230887</v>
@@ -5682,7 +5682,7 @@
         <v>7825080859.946804</v>
       </c>
       <c r="F230">
-        <v>7.435289351519514E-09</v>
+        <v>6646405.452450246</v>
       </c>
       <c r="G230">
         <v>323.4826140062038</v>
@@ -5705,7 +5705,7 @@
         <v>6074412052.513837</v>
       </c>
       <c r="F231">
-        <v>6.198008448628773E-09</v>
+        <v>5542783.969576272</v>
       </c>
       <c r="G231">
         <v>120.6075822405393</v>
@@ -5728,7 +5728,7 @@
         <v>7913307063.925436</v>
       </c>
       <c r="F232">
-        <v>1.106247372517069E-08</v>
+        <v>9943157.53319213</v>
       </c>
       <c r="G232">
         <v>317.5639092582041</v>
@@ -5751,7 +5751,7 @@
         <v>6714628215.147551</v>
       </c>
       <c r="F233">
-        <v>1.370206460791345E-08</v>
+        <v>12339679.16732398</v>
       </c>
       <c r="G233">
         <v>426.860982535185</v>
@@ -5774,7 +5774,7 @@
         <v>7336427749.728271</v>
       </c>
       <c r="F234">
-        <v>-8.329138035993684E-10</v>
+        <v>-753681.5407739484</v>
       </c>
       <c r="G234">
         <v>158.5155878831425</v>
@@ -5797,7 +5797,7 @@
         <v>6214564846.327023</v>
       </c>
       <c r="F235">
-        <v>-8.992996806148103E-10</v>
+        <v>-819943.187560088</v>
       </c>
       <c r="G235">
         <v>103.6584291999111</v>
@@ -5820,7 +5820,7 @@
         <v>4776578229.129834</v>
       </c>
       <c r="F236">
-        <v>7.258974050124468E-08</v>
+        <v>66378422.76499023</v>
       </c>
       <c r="G236">
         <v>534.2685763450336</v>
@@ -5843,7 +5843,7 @@
         <v>5333799955.056727</v>
       </c>
       <c r="F237">
-        <v>3.094779312954688E-08</v>
+        <v>28381064.67967589</v>
       </c>
       <c r="G237">
         <v>506.6460205630216</v>
@@ -5866,7 +5866,7 @@
         <v>4660129718.74849</v>
       </c>
       <c r="F238">
-        <v>5.444404321278136E-08</v>
+        <v>50121794.18330783</v>
       </c>
       <c r="G238">
         <v>527.927326221082</v>
@@ -5889,7 +5889,7 @@
         <v>7011655450.69423</v>
       </c>
       <c r="F239">
-        <v>-3.519916441597363E-10</v>
+        <v>-327749.2593409777</v>
       </c>
       <c r="G239">
         <v>141.1048411561838</v>
@@ -5912,7 +5912,7 @@
         <v>7746450781.431169</v>
       </c>
       <c r="F240">
-        <v>1.21276517357706E-09</v>
+        <v>1131776.065987297</v>
       </c>
       <c r="G240">
         <v>184.4182684867745</v>
@@ -5935,7 +5935,7 @@
         <v>7677762901.768285</v>
       </c>
       <c r="F241">
-        <v>3.364977235681318E-09</v>
+        <v>3180570.047507319</v>
       </c>
       <c r="G241">
         <v>254.1196335835183</v>
@@ -5958,7 +5958,7 @@
         <v>7829705689.829754</v>
       </c>
       <c r="F242">
-        <v>1.275589591845285E-09</v>
+        <v>1206334.008940684</v>
       </c>
       <c r="G242">
         <v>254.0854391608004</v>
@@ -5981,7 +5981,7 @@
         <v>7661127341.434035</v>
       </c>
       <c r="F243">
-        <v>8.643177240359772E-10</v>
+        <v>827031.7405827175</v>
       </c>
       <c r="G243">
         <v>194.0489490917999</v>
@@ -6004,7 +6004,7 @@
         <v>7660338694.487817</v>
       </c>
       <c r="F244">
-        <v>2.009562541096676E-09</v>
+        <v>1926327.502490942</v>
       </c>
       <c r="G244">
         <v>290.9428807065166</v>
@@ -6027,7 +6027,7 @@
         <v>7114021865.724549</v>
       </c>
       <c r="F245">
-        <v>1.142282251285547E-08</v>
+        <v>10973328.58800617</v>
       </c>
       <c r="G245">
         <v>376.9450548636177</v>
@@ -6050,7 +6050,7 @@
         <v>6248038116.09261</v>
       </c>
       <c r="F246">
-        <v>1.445162537340604E-08</v>
+        <v>13986870.240535</v>
       </c>
       <c r="G246">
         <v>489.1159677310337</v>
@@ -6073,7 +6073,7 @@
         <v>3771955349.634173</v>
       </c>
       <c r="F247">
-        <v>1.706113308574033E-08</v>
+        <v>16639199.95506347</v>
       </c>
       <c r="G247">
         <v>606.2041177604236</v>
@@ -6096,7 +6096,7 @@
         <v>5986811585.13619</v>
       </c>
       <c r="F248">
-        <v>-3.680955936074901E-09</v>
+        <v>-3592003.220629061</v>
       </c>
       <c r="G248">
         <v>118.0047610855571</v>
@@ -6119,7 +6119,7 @@
         <v>3527003942.994256</v>
       </c>
       <c r="F249">
-        <v>1.287002927898672E-08</v>
+        <v>12813375.9253359</v>
       </c>
       <c r="G249">
         <v>624.4338834913922</v>
@@ -6142,7 +6142,7 @@
         <v>7543009442.360688</v>
       </c>
       <c r="F250">
-        <v>7.842295961639025E-10</v>
+        <v>782436.4505130885</v>
       </c>
       <c r="G250">
         <v>186.6970932228694</v>
@@ -6165,7 +6165,7 @@
         <v>7213992828.474048</v>
       </c>
       <c r="F251">
-        <v>-1.723337722716363E-09</v>
+        <v>-1726004.650996356</v>
       </c>
       <c r="G251">
         <v>239.8091072489011</v>
@@ -6188,7 +6188,7 @@
         <v>5833489082.798122</v>
       </c>
       <c r="F252">
-        <v>-1.153827110655761E-09</v>
+        <v>-1165340.516922617</v>
       </c>
       <c r="G252">
         <v>127.6303918287968</v>
@@ -6211,7 +6211,7 @@
         <v>4131457832.65098</v>
       </c>
       <c r="F253">
-        <v>-5.061822474488368E-09</v>
+        <v>-5115504.194557372</v>
       </c>
       <c r="G253">
         <v>159.5132651937932</v>
@@ -6234,7 +6234,7 @@
         <v>1817720430.529189</v>
       </c>
       <c r="F254">
-        <v>1.475723731761288E-08</v>
+        <v>14977913.77704001</v>
       </c>
       <c r="G254">
         <v>90.29385372427789</v>
@@ -6257,7 +6257,7 @@
         <v>5547304623.087725</v>
       </c>
       <c r="F255">
-        <v>-3.729447779038123E-09</v>
+        <v>-3804669.060120984</v>
       </c>
       <c r="G255">
         <v>68.95981152237249</v>
@@ -6280,7 +6280,7 @@
         <v>3536098956.631897</v>
       </c>
       <c r="F256">
-        <v>-6.291804386548026E-09</v>
+        <v>-6425450.753569125</v>
       </c>
       <c r="G256">
         <v>159.0963042150291</v>
@@ -6303,7 +6303,7 @@
         <v>4749500486.561259</v>
       </c>
       <c r="F257">
-        <v>-2.429771168634892E-09</v>
+        <v>-2482872.185829991</v>
       </c>
       <c r="G257">
         <v>100.7458586254065</v>
@@ -6326,7 +6326,7 @@
         <v>6422176059.604105</v>
       </c>
       <c r="F258">
-        <v>2.428866507283394E-09</v>
+        <v>2486973.504252432</v>
       </c>
       <c r="G258">
         <v>143.0928047438325</v>
@@ -6349,7 +6349,7 @@
         <v>3133325517.434569</v>
       </c>
       <c r="F259">
-        <v>-1.477643285909977E-09</v>
+        <v>-1517702.852078026</v>
       </c>
       <c r="G259">
         <v>-15.88684467507535</v>
@@ -6372,7 +6372,7 @@
         <v>4048379996.832248</v>
       </c>
       <c r="F260">
-        <v>-6.889604528463291E-09</v>
+        <v>-7085256.878942337</v>
       </c>
       <c r="G260">
         <v>111.1731297813289</v>
@@ -6395,7 +6395,7 @@
         <v>7398871451.715026</v>
       </c>
       <c r="F261">
-        <v>1.186678008355465E-08</v>
+        <v>12213914.81841264</v>
       </c>
       <c r="G261">
         <v>365.207615070522</v>
@@ -6418,7 +6418,7 @@
         <v>1375202513.291912</v>
       </c>
       <c r="F262">
-        <v>-4.433669356703033E-08</v>
+        <v>-46124449.40107913</v>
       </c>
       <c r="G262">
         <v>137.2468155159299</v>
@@ -6441,7 +6441,7 @@
         <v>898288756.9387399</v>
       </c>
       <c r="F263">
-        <v>-2.699148745846507E-08</v>
+        <v>-28093604.80616033</v>
       </c>
       <c r="G263">
         <v>216.4012228551966</v>
@@ -6464,7 +6464,7 @@
         <v>7319020994.0821</v>
       </c>
       <c r="F264">
-        <v>3.771922852438428E-09</v>
+        <v>3927722.543714446</v>
       </c>
       <c r="G264">
         <v>263.8739933656408</v>
@@ -6487,7 +6487,7 @@
         <v>2087247059.544945</v>
       </c>
       <c r="F265">
-        <v>-1.708833409380016E-08</v>
+        <v>-17809409.47022976</v>
       </c>
       <c r="G265">
         <v>163.5668106372451</v>
@@ -6510,7 +6510,7 @@
         <v>7819193678.711793</v>
       </c>
       <c r="F266">
-        <v>7.999517817201946E-09</v>
+        <v>8374082.830238993</v>
       </c>
       <c r="G266">
         <v>358.3948613866022</v>
@@ -6533,7 +6533,7 @@
         <v>6563984681.186651</v>
       </c>
       <c r="F267">
-        <v>-2.148294866794104E-10</v>
+        <v>-225674.6580723154</v>
       </c>
       <c r="G267">
         <v>157.9773996005647</v>
@@ -6556,7 +6556,7 @@
         <v>2491308173.188575</v>
       </c>
       <c r="F268">
-        <v>-1.267773169758645E-08</v>
+        <v>-13360779.34118566</v>
       </c>
       <c r="G268">
         <v>184.1583669897722</v>
@@ -6579,7 +6579,7 @@
         <v>2833698921.65056</v>
       </c>
       <c r="F269">
-        <v>-2.211088786294057E-08</v>
+        <v>-23333783.08153114</v>
       </c>
       <c r="G269">
         <v>205.135518542535</v>
@@ -6602,7 +6602,7 @@
         <v>7597643919.800689</v>
       </c>
       <c r="F270">
-        <v>7.66023528802202E-09</v>
+        <v>8103946.495166835</v>
       </c>
       <c r="G270">
         <v>420.5306798027762</v>
@@ -6625,7 +6625,7 @@
         <v>3340350857.214579</v>
       </c>
       <c r="F271">
-        <v>-8.813095570828369E-09</v>
+        <v>-9344415.637841219</v>
       </c>
       <c r="G271">
         <v>47.2832548112473</v>
@@ -6648,7 +6648,7 @@
         <v>6299727700.866754</v>
       </c>
       <c r="F272">
-        <v>-2.568563105685634E-09</v>
+        <v>-2724815.888802882</v>
       </c>
       <c r="G272">
         <v>168.0967024781545</v>
@@ -6671,7 +6671,7 @@
         <v>6277327903.344253</v>
       </c>
       <c r="F273">
-        <v>6.240409444565344E-10</v>
+        <v>663823.9776230498</v>
       </c>
       <c r="G273">
         <v>461.9490537201126</v>
@@ -6694,7 +6694,7 @@
         <v>1927252967.941761</v>
       </c>
       <c r="F274">
-        <v>-1.500659671794383E-08</v>
+        <v>-15969385.24779424</v>
       </c>
       <c r="G274">
         <v>47.24020613910167</v>
@@ -6717,7 +6717,7 @@
         <v>7779033772.824491</v>
       </c>
       <c r="F275">
-        <v>1.830656179183886E-09</v>
+        <v>1951114.079212764</v>
       </c>
       <c r="G275">
         <v>204.628743301267</v>
@@ -6740,7 +6740,7 @@
         <v>1118664683.100968</v>
       </c>
       <c r="F276">
-        <v>-2.742695812758016E-08</v>
+        <v>-29281117.21867272</v>
       </c>
       <c r="G276">
         <v>41.95736932840124</v>
@@ -6763,7 +6763,7 @@
         <v>1041848110.908693</v>
       </c>
       <c r="F277">
-        <v>-7.055734283990085E-08</v>
+        <v>-75850998.94333102</v>
       </c>
       <c r="G277">
         <v>125.6542998530549</v>
@@ -6786,7 +6786,7 @@
         <v>7683489015.377487</v>
       </c>
       <c r="F278">
-        <v>2.365393289247183E-09</v>
+        <v>2555872.105769505</v>
       </c>
       <c r="G278">
         <v>219.6146825421716</v>
@@ -6809,7 +6809,7 @@
         <v>2354326112.414607</v>
       </c>
       <c r="F279">
-        <v>-2.754543206853625E-08</v>
+        <v>-29774640.9206645</v>
       </c>
       <c r="G279">
         <v>120.2539850750274</v>
@@ -6832,7 +6832,7 @@
         <v>5455166643.389518</v>
       </c>
       <c r="F280">
-        <v>-3.532478570540343E-09</v>
+        <v>-3843872.54326492</v>
       </c>
       <c r="G280">
         <v>130.4933979243358</v>
@@ -6855,7 +6855,7 @@
         <v>2227218520.977518</v>
       </c>
       <c r="F281">
-        <v>-1.083552313005787E-08</v>
+        <v>-11799832.54311914</v>
       </c>
       <c r="G281">
         <v>177.436673508471</v>
@@ -6878,7 +6878,7 @@
         <v>7425735511.930361</v>
       </c>
       <c r="F282">
-        <v>2.617920098917792E-09</v>
+        <v>2868962.242864425</v>
       </c>
       <c r="G282">
         <v>260.5247413169378</v>
@@ -6901,7 +6901,7 @@
         <v>7832154195.637798</v>
       </c>
       <c r="F283">
-        <v>7.341728569489786E-09</v>
+        <v>8051865.899364006</v>
       </c>
       <c r="G283">
         <v>328.1989411446</v>
@@ -6924,7 +6924,7 @@
         <v>2654130920.920901</v>
       </c>
       <c r="F284">
-        <v>-4.777466045892822E-09</v>
+        <v>-5244222.899080645</v>
       </c>
       <c r="G284">
         <v>140.625405370431</v>
@@ -6947,7 +6947,7 @@
         <v>1461216815.043666</v>
       </c>
       <c r="F285">
-        <v>-1.425478993854608E-08</v>
+        <v>-15700372.47496557</v>
       </c>
       <c r="G285">
         <v>0</v>
@@ -6970,7 +6970,7 @@
         <v>4558311083.59533</v>
       </c>
       <c r="F286">
-        <v>-5.627274428825522E-09</v>
+        <v>-6202612.493692943</v>
       </c>
       <c r="G286">
         <v>166.4952254268603</v>
@@ -6993,7 +6993,7 @@
         <v>697274831.8674047</v>
       </c>
       <c r="F287">
-        <v>1.667989452323237E-07</v>
+        <v>183968946.6300457</v>
       </c>
       <c r="G287">
         <v>145.660279795276</v>
@@ -7016,7 +7016,7 @@
         <v>5081530744.386566</v>
       </c>
       <c r="F288">
-        <v>7.25090913871575E-09</v>
+        <v>8003733.160320986</v>
       </c>
       <c r="G288">
         <v>124.8265854957575</v>
@@ -7039,7 +7039,7 @@
         <v>1201412728.377183</v>
       </c>
       <c r="F289">
-        <v>-2.434225702134618E-07</v>
+        <v>-269987157.3027341</v>
       </c>
       <c r="G289">
         <v>202.6002784388285</v>
@@ -7062,7 +7062,7 @@
         <v>7763156695.969043</v>
       </c>
       <c r="F290">
-        <v>3.426546177163468E-09</v>
+        <v>3815677.268850883</v>
       </c>
       <c r="G290">
         <v>202.3982912232361</v>
@@ -7085,7 +7085,7 @@
         <v>6647060906.367926</v>
       </c>
       <c r="F291">
-        <v>-3.096891059506608E-09</v>
+        <v>-3461787.047319656</v>
       </c>
       <c r="G291">
         <v>181.466058018315</v>
@@ -7108,7 +7108,7 @@
         <v>4037291945.279685</v>
       </c>
       <c r="F292">
-        <v>-1.431195401026904E-08</v>
+        <v>-16000530.04533674</v>
       </c>
       <c r="G292">
         <v>119.244910577602</v>
@@ -7131,7 +7131,7 @@
         <v>4889542449.616261</v>
       </c>
       <c r="F293">
-        <v>-6.591725286638046E-09</v>
+        <v>-7389118.788092518</v>
       </c>
       <c r="G293">
         <v>176.1576418580231</v>
@@ -7154,7 +7154,7 @@
         <v>1591554822.86668</v>
       </c>
       <c r="F294">
-        <v>-3.966794650476769E-08</v>
+        <v>-44678020.77674775</v>
       </c>
       <c r="G294">
         <v>196.6486787283332</v>
@@ -7177,7 +7177,7 @@
         <v>5657133041.848681</v>
       </c>
       <c r="F295">
-        <v>-5.828823873496324E-10</v>
+        <v>-657584.8018812354</v>
       </c>
       <c r="G295">
         <v>134.4935748340165</v>
@@ -7200,7 +7200,7 @@
         <v>7070871427.132256</v>
       </c>
       <c r="F296">
-        <v>5.463080003772752E-09</v>
+        <v>6217925.341940736</v>
       </c>
       <c r="G296">
         <v>232.2638215902246</v>
@@ -7223,7 +7223,7 @@
         <v>1601654473.393732</v>
       </c>
       <c r="F297">
-        <v>-1.766197753327617E-08</v>
+        <v>-20117008.66280543</v>
       </c>
       <c r="G297">
         <v>123.8514527981544</v>
@@ -7246,7 +7246,7 @@
         <v>645844082.7946891</v>
       </c>
       <c r="F298">
-        <v>-7.733492849837558E-09</v>
+        <v>-8809630.922477258</v>
       </c>
       <c r="G298">
         <v>232.2138113766323</v>
@@ -7269,7 +7269,7 @@
         <v>2206058142.622067</v>
       </c>
       <c r="F299">
-        <v>-1.225023014046501E-08</v>
+        <v>-13992769.50721595</v>
       </c>
       <c r="G299">
         <v>170.174714711763</v>
@@ -7292,7 +7292,7 @@
         <v>4053494546.770977</v>
       </c>
       <c r="F300">
-        <v>-6.48172210528371E-09</v>
+        <v>-7418463.792959891</v>
       </c>
       <c r="G300">
         <v>108.2391220073444</v>
@@ -7315,7 +7315,7 @@
         <v>1945846552.24417</v>
       </c>
       <c r="F301">
-        <v>-1.474279711038444E-08</v>
+        <v>-16899751.60445618</v>
       </c>
       <c r="G301">
         <v>-41.21786779083853</v>
@@ -7338,7 +7338,7 @@
         <v>2317212360.241551</v>
       </c>
       <c r="F302">
-        <v>-8.835805977260926E-09</v>
+        <v>-10203991.45193353</v>
       </c>
       <c r="G302">
         <v>143.9951829794692</v>
@@ -7361,7 +7361,7 @@
         <v>2623111830.847411</v>
       </c>
       <c r="F303">
-        <v>-1.259658915020714E-08</v>
+        <v>-14619359.44565584</v>
       </c>
       <c r="G303">
         <v>71.90846163890403</v>
@@ -7384,7 +7384,7 @@
         <v>1840289966.643943</v>
       </c>
       <c r="F304">
-        <v>-2.517923377875245E-08</v>
+        <v>-29274737.58889642</v>
       </c>
       <c r="G304">
         <v>261.8355631790055</v>
@@ -7407,7 +7407,7 @@
         <v>3262337659.428679</v>
       </c>
       <c r="F305">
-        <v>-3.250955679185509E-10</v>
+        <v>-378146.78678893</v>
       </c>
       <c r="G305">
         <v>148.8697897116303</v>
@@ -7430,7 +7430,7 @@
         <v>604766059.818767</v>
       </c>
       <c r="F306">
-        <v>-2.133654362665888E-07</v>
+        <v>-249299463.6383203</v>
       </c>
       <c r="G306">
         <v>317.9168406841698</v>
@@ -7453,7 +7453,7 @@
         <v>1097527091.719456</v>
       </c>
       <c r="F307">
-        <v>-4.429207320890295E-08</v>
+        <v>-51764422.98178469</v>
       </c>
       <c r="G307">
         <v>92.29262524498033</v>
@@ -7476,7 +7476,7 @@
         <v>1588593881.013481</v>
       </c>
       <c r="F308">
-        <v>-2.645078309649041E-08</v>
+        <v>-31006311.30629279</v>
       </c>
       <c r="G308">
         <v>76.85270908110513</v>
@@ -7499,7 +7499,7 @@
         <v>1066081650.449188</v>
       </c>
       <c r="F309">
-        <v>7.746920518101907E-08</v>
+        <v>90906257.45704032</v>
       </c>
       <c r="G309">
         <v>327.8196499340423</v>
@@ -7522,7 +7522,7 @@
         <v>6192182353.406153</v>
       </c>
       <c r="F310">
-        <v>-2.575275175597274E-09</v>
+        <v>-3024046.242184936</v>
       </c>
       <c r="G310">
         <v>194.6092078285625</v>
@@ -7545,7 +7545,7 @@
         <v>1619167672.867753</v>
       </c>
       <c r="F311">
-        <v>-1.666716843237618E-08</v>
+        <v>-19584062.29073205</v>
       </c>
       <c r="G311">
         <v>235.5421508427302</v>
@@ -7568,7 +7568,7 @@
         <v>3909172605.726158</v>
       </c>
       <c r="F312">
-        <v>-8.820596481540792E-09</v>
+        <v>-10377936.19159881</v>
       </c>
       <c r="G312">
         <v>214.9893984320312</v>
@@ -7591,7 +7591,7 @@
         <v>5726229361.061069</v>
       </c>
       <c r="F313">
-        <v>-2.372623971984802E-09</v>
+        <v>-2793456.383968412</v>
       </c>
       <c r="G313">
         <v>194.4806225750431</v>
@@ -7614,7 +7614,7 @@
         <v>591206435.1989191</v>
       </c>
       <c r="F314">
-        <v>1.273710142973021E-09</v>
+        <v>1501859.246295921</v>
       </c>
       <c r="G314">
         <v>173.94430549706</v>
@@ -7637,7 +7637,7 @@
         <v>2330670082.087739</v>
       </c>
       <c r="F315">
-        <v>-1.053748731323008E-08</v>
+        <v>-12429342.30895965</v>
       </c>
       <c r="G315">
         <v>255.7780704743051</v>
@@ -7660,7 +7660,7 @@
         <v>8246753106.434393</v>
       </c>
       <c r="F316">
-        <v>-4.696304565944586E-10</v>
+        <v>-554252.1636485143</v>
       </c>
       <c r="G316">
         <v>301.7764643368278</v>
@@ -7683,7 +7683,7 @@
         <v>1726208223.096045</v>
       </c>
       <c r="F317">
-        <v>-2.312799390095177E-08</v>
+        <v>-27323652.55386813</v>
       </c>
       <c r="G317">
         <v>-5.113526350001163</v>
@@ -7706,7 +7706,7 @@
         <v>7416727044.798263</v>
       </c>
       <c r="F318">
-        <v>7.643829896036269E-09</v>
+        <v>9038240.594243364</v>
       </c>
       <c r="G318">
         <v>439.6697333883357</v>
@@ -7729,7 +7729,7 @@
         <v>2879641529.89591</v>
       </c>
       <c r="F319">
-        <v>-4.626971144893107E-09</v>
+        <v>-5511650.161340902</v>
       </c>
       <c r="G319">
         <v>81.64781948193625</v>
@@ -7752,7 +7752,7 @@
         <v>2579379631.457165</v>
       </c>
       <c r="F320">
-        <v>-4.950761265171279E-09</v>
+        <v>-5929817.983683887</v>
       </c>
       <c r="G320">
         <v>91.72780398561993</v>
@@ -7775,7 +7775,7 @@
         <v>2881907098.697601</v>
       </c>
       <c r="F321">
-        <v>-5.650074198758239E-08</v>
+        <v>-68654912.50498243</v>
       </c>
       <c r="G321">
         <v>-10.15538321842437</v>
@@ -7798,7 +7798,7 @@
         <v>7309671026.557167</v>
       </c>
       <c r="F322">
-        <v>2.50988842162683E-09</v>
+        <v>3056427.997294888</v>
       </c>
       <c r="G322">
         <v>197.9227233565246</v>
@@ -7821,7 +7821,7 @@
         <v>2535223614.917046</v>
       </c>
       <c r="F323">
-        <v>-1.070446456181167E-08</v>
+        <v>-13045710.41347289</v>
       </c>
       <c r="G323">
         <v>-45.66541931246624</v>
@@ -7844,7 +7844,7 @@
         <v>8327422220.806383</v>
       </c>
       <c r="F324">
-        <v>-1.501365974617538E-09</v>
+        <v>-1841429.354581937</v>
       </c>
       <c r="G324">
         <v>329.2815621217021</v>
@@ -7867,7 +7867,7 @@
         <v>6371123414.395715</v>
       </c>
       <c r="F325">
-        <v>-4.343530000361862E-10</v>
+        <v>-536903.2306463477</v>
       </c>
       <c r="G325">
         <v>161.7922138781969</v>
@@ -7890,7 +7890,7 @@
         <v>6178673547.91284</v>
       </c>
       <c r="F326">
-        <v>-4.010284301941514E-10</v>
+        <v>-496342.4307742354</v>
       </c>
       <c r="G326">
         <v>131.4143166169171</v>
@@ -7913,7 +7913,7 @@
         <v>7254667462.825458</v>
       </c>
       <c r="F327">
-        <v>8.548869481705679E-09</v>
+        <v>10584343.83669886</v>
       </c>
       <c r="G327">
         <v>439.6952553569163</v>
@@ -7936,7 +7936,7 @@
         <v>7464404692.534095</v>
       </c>
       <c r="F328">
-        <v>5.13564603473261E-09</v>
+        <v>6377642.511614856</v>
       </c>
       <c r="G328">
         <v>338.3605510680695</v>
@@ -7959,7 +7959,7 @@
         <v>7199203131.203711</v>
       </c>
       <c r="F329">
-        <v>8.431686527556276E-10</v>
+        <v>1059884.285016683</v>
       </c>
       <c r="G329">
         <v>251.7416484697276</v>
@@ -7982,7 +7982,7 @@
         <v>8944878863.523291</v>
       </c>
       <c r="F330">
-        <v>-1.088056997645959E-08</v>
+        <v>-13713737.56949137</v>
       </c>
       <c r="G330">
         <v>296.8568655668262</v>
@@ -8005,7 +8005,7 @@
         <v>790979640.4550368</v>
       </c>
       <c r="F331">
-        <v>-1.036198001043175E-07</v>
+        <v>-131175899.3041053</v>
       </c>
       <c r="G331">
         <v>241.2456353288541</v>
@@ -8028,7 +8028,7 @@
         <v>812513057.9201887</v>
       </c>
       <c r="F332">
-        <v>-1.485387980884893E-08</v>
+        <v>-18883891.50943616</v>
       </c>
       <c r="G332">
         <v>85.35065338567271</v>
@@ -8051,7 +8051,7 @@
         <v>373302646.9064412</v>
       </c>
       <c r="F333">
-        <v>-1.853021700443799E-07</v>
+        <v>-236620465.9129528</v>
       </c>
       <c r="G333">
         <v>290.8748469976151</v>
@@ -8074,7 +8074,7 @@
         <v>7268515665.208772</v>
       </c>
       <c r="F334">
-        <v>-1.441210343464792E-09</v>
+        <v>-1841104.848282482</v>
       </c>
       <c r="G334">
         <v>305.8885305563407</v>
@@ -8097,7 +8097,7 @@
         <v>7654190169.503528</v>
       </c>
       <c r="F335">
-        <v>4.620763382329221E-09</v>
+        <v>5930210.860311747</v>
       </c>
       <c r="G335">
         <v>270.4741428159249</v>
@@ -8120,7 +8120,7 @@
         <v>6921388280.636317</v>
       </c>
       <c r="F336">
-        <v>7.455134077896059E-09</v>
+        <v>9575064.722559089</v>
       </c>
       <c r="G336">
         <v>380.5951780516208</v>
@@ -8143,7 +8143,7 @@
         <v>7123384534.190903</v>
       </c>
       <c r="F337">
-        <v>6.130546463020815E-09</v>
+        <v>7970018.432667281</v>
       </c>
       <c r="G337">
         <v>369.4561698125643</v>
@@ -8166,7 +8166,7 @@
         <v>4535375629.336377</v>
       </c>
       <c r="F338">
-        <v>-1.717047756222451E-09</v>
+        <v>-2236008.837918771</v>
       </c>
       <c r="G338">
         <v>249.5274241010105</v>
@@ -8189,7 +8189,7 @@
         <v>7347375557.484648</v>
       </c>
       <c r="F339">
-        <v>2.738795201262035E-09</v>
+        <v>3572320.915549934</v>
       </c>
       <c r="G339">
         <v>289.335277466797</v>
@@ -8212,7 +8212,7 @@
         <v>7063510219.737571</v>
       </c>
       <c r="F340">
-        <v>6.570505656531722E-09</v>
+        <v>8573590.326969894</v>
       </c>
       <c r="G340">
         <v>389.0674384959393</v>
@@ -8235,7 +8235,7 @@
         <v>1339985471.659706</v>
       </c>
       <c r="F341">
-        <v>6.358472835121036E-08</v>
+        <v>83339035.48320864</v>
       </c>
       <c r="G341">
         <v>264.0724182988537</v>
@@ -8258,7 +8258,7 @@
         <v>1556316036.333195</v>
       </c>
       <c r="F342">
-        <v>-5.417870569511167E-08</v>
+        <v>-71154899.28566782</v>
       </c>
       <c r="G342">
         <v>-4.979969118434592</v>
@@ -8281,7 +8281,7 @@
         <v>958702913.6552515</v>
       </c>
       <c r="F343">
-        <v>1.027706230737282E-08</v>
+        <v>13506836.85725659</v>
       </c>
       <c r="G343">
         <v>114.5189978148761</v>
@@ -8304,7 +8304,7 @@
         <v>6500043295.803034</v>
       </c>
       <c r="F344">
-        <v>1.271529443211865E-08</v>
+        <v>16763581.98166469</v>
       </c>
       <c r="G344">
         <v>487.5704588661954</v>
@@ -8327,7 +8327,7 @@
         <v>8213215718.039594</v>
       </c>
       <c r="F345">
-        <v>3.649133711827097E-09</v>
+        <v>4820497.962233454</v>
       </c>
       <c r="G345">
         <v>288.4188113276374</v>
@@ -8350,7 +8350,7 @@
         <v>1588581501.657897</v>
       </c>
       <c r="F346">
-        <v>-2.09157741772325E-08</v>
+        <v>-27757906.7865686</v>
       </c>
       <c r="G346">
         <v>59.60378545831293</v>
@@ -8373,7 +8373,7 @@
         <v>1708164297.190975</v>
       </c>
       <c r="F347">
-        <v>-2.152387602898218E-08</v>
+        <v>-28946281.30990617</v>
       </c>
       <c r="G347">
         <v>74.2581278259584</v>
@@ -8396,7 +8396,7 @@
         <v>7281674522.870763</v>
       </c>
       <c r="F348">
-        <v>7.465305374320885E-09</v>
+        <v>10052522.83191637</v>
       </c>
       <c r="G348">
         <v>301.8867852545542</v>
@@ -8419,7 +8419,7 @@
         <v>4108435908.52734</v>
       </c>
       <c r="F349">
-        <v>-1.138127205488117E-08</v>
+        <v>-15395002.79740862</v>
       </c>
       <c r="G349">
         <v>207.6218479247084</v>
@@ -8442,7 +8442,7 @@
         <v>7094488920.258096</v>
       </c>
       <c r="F350">
-        <v>7.329959150621045E-09</v>
+        <v>10017685.9949648</v>
       </c>
       <c r="G350">
         <v>320.4926387114364</v>
@@ -8465,7 +8465,7 @@
         <v>6538486772.880018</v>
       </c>
       <c r="F351">
-        <v>2.234410184094864E-11</v>
+        <v>30547.50973587342</v>
       </c>
       <c r="G351">
         <v>142.976835457745</v>
@@ -8488,7 +8488,7 @@
         <v>6829494571.449549</v>
       </c>
       <c r="F352">
-        <v>-1.587102366182439E-09</v>
+        <v>-2175081.391856536</v>
       </c>
       <c r="G352">
         <v>187.2349535949378</v>
@@ -8511,7 +8511,7 @@
         <v>4975640359.199052</v>
       </c>
       <c r="F353">
-        <v>-4.556298245676436E-09</v>
+        <v>-6289293.933505542</v>
       </c>
       <c r="G353">
         <v>83.61271164294175</v>
@@ -8534,7 +8534,7 @@
         <v>3260807431.35934</v>
       </c>
       <c r="F354">
-        <v>-3.581429269116445E-09</v>
+        <v>-4946002.873923169</v>
       </c>
       <c r="G354">
         <v>147.5341893711322</v>
@@ -8557,7 +8557,7 @@
         <v>5651337887.981238</v>
       </c>
       <c r="F355">
-        <v>-1.720894398269143E-09</v>
+        <v>-2380155.250188527</v>
       </c>
       <c r="G355">
         <v>142.562775215554</v>
@@ -8580,7 +8580,7 @@
         <v>2681574354.035134</v>
       </c>
       <c r="F356">
-        <v>-2.204767333133021E-08</v>
+        <v>-30525562.81767817</v>
       </c>
       <c r="G356">
         <v>117.9524285386431</v>
@@ -8603,7 +8603,7 @@
         <v>1364174934.475779</v>
       </c>
       <c r="F357">
-        <v>-3.415408929810276E-08</v>
+        <v>-47350128.29487047</v>
       </c>
       <c r="G357">
         <v>162.1307027300764</v>
@@ -8626,7 +8626,7 @@
         <v>2004339395.051259</v>
       </c>
       <c r="F358">
-        <v>-2.640228141335049E-08</v>
+        <v>-36719959.09736025</v>
       </c>
       <c r="G358">
         <v>-24.54570377302966</v>
@@ -8649,7 +8649,7 @@
         <v>1119049615.060897</v>
       </c>
       <c r="F359">
-        <v>-5.941599323031246E-08</v>
+        <v>-83456719.77728653</v>
       </c>
       <c r="G359">
         <v>117.5283468560231</v>
@@ -8672,7 +8672,7 @@
         <v>7362321635.678608</v>
       </c>
       <c r="F360">
-        <v>-2.306031800763038E-10</v>
+        <v>-325533.5738495523</v>
       </c>
       <c r="G360">
         <v>205.4176077853009</v>
@@ -8695,7 +8695,7 @@
         <v>4140315090.858115</v>
       </c>
       <c r="F361">
-        <v>2.2631404909243E-08</v>
+        <v>32130066.51985366</v>
       </c>
       <c r="G361">
         <v>649.565959220505</v>
@@ -8718,7 +8718,7 @@
         <v>8687577577.238514</v>
       </c>
       <c r="F362">
-        <v>2.956908839148392E-09</v>
+        <v>4198974.753782619</v>
       </c>
       <c r="G362">
         <v>278.3682055686399</v>
@@ -8741,7 +8741,7 @@
         <v>4624695903.552722</v>
       </c>
       <c r="F363">
-        <v>1.745316010713828E-08</v>
+        <v>24795827.8640044</v>
       </c>
       <c r="G363">
         <v>610.3872666042163</v>
@@ -8764,7 +8764,7 @@
         <v>8419941132.405096</v>
       </c>
       <c r="F364">
-        <v>-5.917050278598662E-11</v>
+        <v>-84829.08050584586</v>
       </c>
       <c r="G364">
         <v>228.9860457782337</v>
@@ -8787,7 +8787,7 @@
         <v>7947204153.829128</v>
       </c>
       <c r="F365">
-        <v>2.563847136680137E-09</v>
+        <v>3690254.43423337</v>
       </c>
       <c r="G365">
         <v>238.493244977604</v>
@@ -8810,7 +8810,7 @@
         <v>7062638836.438035</v>
       </c>
       <c r="F366">
-        <v>2.258450771288555E-10</v>
+        <v>326682.7877296269</v>
       </c>
       <c r="G366">
         <v>194.4473683488407</v>
@@ -8833,7 +8833,7 @@
         <v>8767586970.063934</v>
       </c>
       <c r="F367">
-        <v>2.722655020596459E-09</v>
+        <v>3958717.678804272</v>
       </c>
       <c r="G367">
         <v>301.0040575521219</v>
@@ -8856,7 +8856,7 @@
         <v>8129440345.074512</v>
       </c>
       <c r="F368">
-        <v>-6.665094814881507E-10</v>
+        <v>-973418.6381722756</v>
       </c>
       <c r="G368">
         <v>242.4754238206834</v>
@@ -8879,7 +8879,7 @@
         <v>6440615290.17816</v>
       </c>
       <c r="F369">
-        <v>-2.020079090978649E-10</v>
+        <v>-296516.3182408307</v>
       </c>
       <c r="G369">
         <v>188.8928534873326</v>
@@ -8902,7 +8902,7 @@
         <v>7998440262.157125</v>
       </c>
       <c r="F370">
-        <v>1.639032518173854E-09</v>
+        <v>2425072.982413877</v>
       </c>
       <c r="G370">
         <v>381.8686770276714</v>
@@ -8925,7 +8925,7 @@
         <v>8041895623.405093</v>
       </c>
       <c r="F371">
-        <v>5.089169388106247E-09</v>
+        <v>7593731.990601098</v>
       </c>
       <c r="G371">
         <v>361.7682096654996</v>
@@ -8948,7 +8948,7 @@
         <v>6058968133.390992</v>
       </c>
       <c r="F372">
-        <v>-2.146599753666937E-09</v>
+        <v>-3206547.784352198</v>
       </c>
       <c r="G372">
         <v>236.2900667862998</v>
@@ -8971,7 +8971,7 @@
         <v>7621260367.683176</v>
       </c>
       <c r="F373">
-        <v>7.541523998516512E-09</v>
+        <v>11295425.70844989</v>
       </c>
       <c r="G373">
         <v>385.523074635007</v>
@@ -8994,7 +8994,7 @@
         <v>7393818089.019419</v>
       </c>
       <c r="F374">
-        <v>4.779048331502819E-09</v>
+        <v>7219587.974134744</v>
       </c>
       <c r="G374">
         <v>341.4183025228628</v>
@@ -9017,7 +9017,7 @@
         <v>8329150130.313756</v>
       </c>
       <c r="F375">
-        <v>9.014016863988295E-11</v>
+        <v>136873.2450728852</v>
       </c>
       <c r="G375">
         <v>249.7320941118427</v>
@@ -9040,7 +9040,7 @@
         <v>6005506522.205845</v>
       </c>
       <c r="F376">
-        <v>1.16784841353237E-08</v>
+        <v>17797792.06873742</v>
       </c>
       <c r="G376">
         <v>446.2306370896356</v>
@@ -9063,7 +9063,7 @@
         <v>4701316618.109314</v>
       </c>
       <c r="F377">
-        <v>1.70810112504963E-08</v>
+        <v>26135315.60710095</v>
       </c>
       <c r="G377">
         <v>603.9675151969037</v>
@@ -9086,7 +9086,7 @@
         <v>7859908964.418898</v>
       </c>
       <c r="F378">
-        <v>6.384610827826036E-09</v>
+        <v>9847781.248556651</v>
       </c>
       <c r="G378">
         <v>358.7827013026903</v>
@@ -9109,7 +9109,7 @@
         <v>8812877403.637436</v>
       </c>
       <c r="F379">
-        <v>1.937115429593843E-09</v>
+        <v>2997574.633860241</v>
       </c>
       <c r="G379">
         <v>272.4534597109807</v>
@@ -9132,7 +9132,7 @@
         <v>9395174442.556875</v>
       </c>
       <c r="F380">
-        <v>1.454516464634409E-09</v>
+        <v>2265740.499811946</v>
       </c>
       <c r="G380">
         <v>267.2306299909687</v>
@@ -9155,7 +9155,7 @@
         <v>8549148506.774131</v>
       </c>
       <c r="F381">
-        <v>3.417541896448423E-09</v>
+        <v>5382074.379830323</v>
       </c>
       <c r="G381">
         <v>333.1273296603176</v>
@@ -9178,7 +9178,7 @@
         <v>6085802806.356836</v>
       </c>
       <c r="F382">
-        <v>1.043642318551619E-08</v>
+        <v>16474439.11809333</v>
       </c>
       <c r="G382">
         <v>432.8106941308428</v>
@@ -9201,7 +9201,7 @@
         <v>7425725136.180306</v>
       </c>
       <c r="F383">
-        <v>5.049374167909719E-09</v>
+        <v>7975713.662607715</v>
       </c>
       <c r="G383">
         <v>347.1451211101874</v>
@@ -9224,7 +9224,7 @@
         <v>5184766784.735873</v>
       </c>
       <c r="F384">
-        <v>-2.27706729273253E-09</v>
+        <v>-3617325.998560507</v>
       </c>
       <c r="G384">
         <v>175.6991802961932</v>
@@ -9247,7 +9247,7 @@
         <v>6475306429.265043</v>
       </c>
       <c r="F385">
-        <v>-4.054275389102004E-10</v>
+        <v>-645819.4657978269</v>
       </c>
       <c r="G385">
         <v>161.343094437521</v>
@@ -9270,7 +9270,7 @@
         <v>6527636170.60405</v>
       </c>
       <c r="F386">
-        <v>8.776414376031383E-09</v>
+        <v>14167279.08311536</v>
       </c>
       <c r="G386">
         <v>411.4795151215545</v>
@@ -9293,7 +9293,7 @@
         <v>5997373585.97669</v>
       </c>
       <c r="F387">
-        <v>-7.677156795791979E-10</v>
+        <v>-1240882.729869152</v>
       </c>
       <c r="G387">
         <v>108.7467068400894</v>
@@ -9316,7 +9316,7 @@
         <v>7689837815.875262</v>
       </c>
       <c r="F388">
-        <v>6.281000138023622E-10</v>
+        <v>1018601.47333733</v>
       </c>
       <c r="G388">
         <v>292.8997105026701</v>
@@ -9339,7 +9339,7 @@
         <v>4203125109.662846</v>
       </c>
       <c r="F389">
-        <v>-3.952095630978569E-09</v>
+        <v>-6491252.887319513</v>
       </c>
       <c r="G389">
         <v>61.21937238033836</v>
@@ -9362,7 +9362,7 @@
         <v>2024095874.11608</v>
       </c>
       <c r="F390">
-        <v>1.727016614403071E-08</v>
+        <v>28371813.82045622</v>
       </c>
       <c r="G390">
         <v>-9.417877534870829</v>
@@ -9385,7 +9385,7 @@
         <v>7233616117.420755</v>
       </c>
       <c r="F391">
-        <v>1.135379731969331E-09</v>
+        <v>1884115.314078881</v>
       </c>
       <c r="G391">
         <v>187.8838196625262</v>
@@ -9408,7 +9408,7 @@
         <v>1807203746.178413</v>
       </c>
       <c r="F392">
-        <v>-1.990095835255249E-08</v>
+        <v>-33127890.46267066</v>
       </c>
       <c r="G392">
         <v>93.86871812200049</v>
@@ -9431,7 +9431,7 @@
         <v>3579178729.093292</v>
       </c>
       <c r="F393">
-        <v>-5.623466458042057E-09</v>
+        <v>-9401098.144740401</v>
       </c>
       <c r="G393">
         <v>145.3412824473261</v>
@@ -9454,7 +9454,7 @@
         <v>4281310890.198056</v>
       </c>
       <c r="F394">
-        <v>1.554691127008576E-08</v>
+        <v>26008190.36649707</v>
       </c>
       <c r="G394">
         <v>632.8326594967555</v>
@@ -9477,7 +9477,7 @@
         <v>4717995530.62939</v>
       </c>
       <c r="F395">
-        <v>1.025273368606522E-08</v>
+        <v>17220394.33614019</v>
       </c>
       <c r="G395">
         <v>524.4917139538284</v>
@@ -9500,7 +9500,7 @@
         <v>6860342505.117787</v>
       </c>
       <c r="F396">
-        <v>6.098015668239545E-09</v>
+        <v>10293565.38872227</v>
       </c>
       <c r="G396">
         <v>378.8453383363331</v>
@@ -9523,7 +9523,7 @@
         <v>5627971111.470823</v>
       </c>
       <c r="F397">
-        <v>1.119827396909515E-08</v>
+        <v>18945799.22097374</v>
       </c>
       <c r="G397">
         <v>462.7709698660614</v>
@@ -9546,7 +9546,7 @@
         <v>1760309803.60287</v>
       </c>
       <c r="F398">
-        <v>-2.470547659013494E-08</v>
+        <v>-42006695.19758875</v>
       </c>
       <c r="G398">
         <v>177.408015021948</v>
@@ -9569,7 +9569,7 @@
         <v>7145653706.218125</v>
       </c>
       <c r="F399">
-        <v>3.398690389737775E-09</v>
+        <v>5779892.988796377</v>
       </c>
       <c r="G399">
         <v>280.1046447543227</v>
@@ -9592,7 +9592,7 @@
         <v>6305059996.918582</v>
       </c>
       <c r="F400">
-        <v>8.690532769867671E-09</v>
+        <v>14792269.74933605</v>
       </c>
       <c r="G400">
         <v>471.4065966442135</v>
@@ -9615,7 +9615,7 @@
         <v>5786874516.432594</v>
       </c>
       <c r="F401">
-        <v>1.530604596151616E-08</v>
+        <v>26207064.68609932</v>
       </c>
       <c r="G401">
         <v>475.3710408940565</v>
@@ -9638,7 +9638,7 @@
         <v>1840724833.848608</v>
       </c>
       <c r="F402">
-        <v>-5.376708345794625E-09</v>
+        <v>-9237858.063550411</v>
       </c>
       <c r="G402">
         <v>116.4118467189259</v>
@@ -9661,7 +9661,7 @@
         <v>8369299721.3816</v>
       </c>
       <c r="F403">
-        <v>6.345145657180137E-10</v>
+        <v>1121307.421634912</v>
       </c>
       <c r="G403">
         <v>309.7955529230764</v>
@@ -9684,7 +9684,7 @@
         <v>3427047396.037666</v>
       </c>
       <c r="F404">
-        <v>1.718306790354656E-08</v>
+        <v>30612311.8812728</v>
       </c>
       <c r="G404">
         <v>706.0156057071227</v>
@@ -9707,7 +9707,7 @@
         <v>6936693620.094831</v>
       </c>
       <c r="F405">
-        <v>3.208731180245349E-09</v>
+        <v>5721681.442752244</v>
       </c>
       <c r="G405">
         <v>272.1921047835962</v>
@@ -9730,7 +9730,7 @@
         <v>8127460531.173008</v>
       </c>
       <c r="F406">
-        <v>-1.176166551015576E-09</v>
+        <v>-2100487.449021841</v>
       </c>
       <c r="G406">
         <v>244.4185199844733</v>
@@ -9753,7 +9753,7 @@
         <v>722680036.1072184</v>
       </c>
       <c r="F407">
-        <v>-1.603763537055099E-08</v>
+        <v>-28829849.24289062</v>
       </c>
       <c r="G407">
         <v>73.66569378575771</v>
@@ -9776,7 +9776,7 @@
         <v>8011108529.600659</v>
       </c>
       <c r="F408">
-        <v>6.207435542504782E-10</v>
+        <v>1121886.532165242</v>
       </c>
       <c r="G408">
         <v>266.6796667782517</v>
@@ -9799,7 +9799,7 @@
         <v>1097170269.646782</v>
       </c>
       <c r="F409">
-        <v>-5.194369910939458E-08</v>
+        <v>-95812919.71176912</v>
       </c>
       <c r="G409">
         <v>205.854665697569</v>
@@ -9822,7 +9822,7 @@
         <v>2083950554.671157</v>
       </c>
       <c r="F410">
-        <v>-1.03634791330378E-08</v>
+        <v>-19175715.88206157</v>
       </c>
       <c r="G410">
         <v>278.829962078581</v>
@@ -9845,7 +9845,7 @@
         <v>6711399388.87755</v>
       </c>
       <c r="F411">
-        <v>2.783776074500418E-09</v>
+        <v>5190032.537462374</v>
       </c>
       <c r="G411">
         <v>337.6128484726897</v>
@@ -9868,7 +9868,7 @@
         <v>3595067041.601492</v>
       </c>
       <c r="F412">
-        <v>2.655179033675097E-10</v>
+        <v>498652.0349229174</v>
       </c>
       <c r="G412">
         <v>168.4987659619186</v>
@@ -9891,7 +9891,7 @@
         <v>1798510182.010275</v>
       </c>
       <c r="F413">
-        <v>-3.555634939599366E-09</v>
+        <v>-6718698.36714276</v>
       </c>
       <c r="G413">
         <v>90.94081370385827</v>
@@ -9914,7 +9914,7 @@
         <v>5959838132.78784</v>
       </c>
       <c r="F414">
-        <v>7.965368942052199E-09</v>
+        <v>15066005.09164827</v>
       </c>
       <c r="G414">
         <v>495.5070812211184</v>
@@ -9937,7 +9937,7 @@
         <v>7153305551.232938</v>
       </c>
       <c r="F415">
-        <v>2.936559819578643E-09</v>
+        <v>5557544.908942199</v>
       </c>
       <c r="G415">
         <v>472.7088082925675</v>
@@ -9960,7 +9960,7 @@
         <v>3505689239.10021</v>
       </c>
       <c r="F416">
-        <v>-3.144953661936198E-09</v>
+        <v>-6003190.322964932</v>
       </c>
       <c r="G416">
         <v>204.0993149422558</v>
@@ -9983,7 +9983,7 @@
         <v>7868706315.630276</v>
       </c>
       <c r="F417">
-        <v>8.52263473678436E-10</v>
+        <v>1627899.656740249</v>
       </c>
       <c r="G417">
         <v>353.7141055489136</v>
@@ -10006,7 +10006,7 @@
         <v>3265701081.174325</v>
       </c>
       <c r="F418">
-        <v>-3.128026574828612E-09</v>
+        <v>-6032543.517514788</v>
       </c>
       <c r="G418">
         <v>176.4322847497118</v>
@@ -10029,7 +10029,7 @@
         <v>4188414570.053602</v>
       </c>
       <c r="F419">
-        <v>-4.213035601521897E-09</v>
+        <v>-8137410.173901214</v>
       </c>
       <c r="G419">
         <v>122.098934547934</v>
@@ -10052,7 +10052,7 @@
         <v>3766416061.752898</v>
       </c>
       <c r="F420">
-        <v>-3.233457414572041E-09</v>
+        <v>-6267518.542580029</v>
       </c>
       <c r="G420">
         <v>135.5454780652353</v>
@@ -10075,7 +10075,7 @@
         <v>6854857349.712018</v>
       </c>
       <c r="F421">
-        <v>3.107220525191231E-09</v>
+        <v>6024061.753283485</v>
       </c>
       <c r="G421">
         <v>234.9335559933501</v>
@@ -10098,7 +10098,7 @@
         <v>4022422288.65696</v>
       </c>
       <c r="F422">
-        <v>-8.40493620959788E-09</v>
+        <v>-16298392.5582214</v>
       </c>
       <c r="G422">
         <v>131.0135765576024</v>
@@ -10121,7 +10121,7 @@
         <v>1819770170.706136</v>
       </c>
       <c r="F423">
-        <v>-9.774797831140753E-09</v>
+        <v>-19101756.74177143</v>
       </c>
       <c r="G423">
         <v>171.3417372978098</v>
@@ -10144,7 +10144,7 @@
         <v>1743012867.159175</v>
       </c>
       <c r="F424">
-        <v>-5.176904139508107E-09</v>
+        <v>-10158819.62525255</v>
       </c>
       <c r="G424">
         <v>130.6247909864805</v>
@@ -10167,7 +10167,7 @@
         <v>1148971029.721626</v>
       </c>
       <c r="F425">
-        <v>-1.747628198008655E-08</v>
+        <v>-34574846.69900893</v>
       </c>
       <c r="G425">
         <v>103.3881784185375</v>
@@ -10190,7 +10190,7 @@
         <v>682217571.2720286</v>
       </c>
       <c r="F426">
-        <v>-1.783997386417811E-08</v>
+        <v>-35721303.28253477</v>
       </c>
       <c r="G426">
         <v>62.74304024846773</v>
@@ -10213,7 +10213,7 @@
         <v>548938378.406602</v>
       </c>
       <c r="F427">
-        <v>-1.290990525437109E-07</v>
+        <v>-259237442.9277861</v>
       </c>
       <c r="G427">
         <v>116.4395587516074</v>
@@ -10236,7 +10236,7 @@
         <v>1311600061.911928</v>
       </c>
       <c r="F428">
-        <v>-2.059938992064006E-08</v>
+        <v>-41534723.7671559</v>
       </c>
       <c r="G428">
         <v>125.2678644403852</v>
@@ -10259,7 +10259,7 @@
         <v>6369196667.230691</v>
       </c>
       <c r="F429">
-        <v>-1.697193779025374E-09</v>
+        <v>-3431121.919371696</v>
       </c>
       <c r="G429">
         <v>214.6031396224027</v>
@@ -10282,7 +10282,7 @@
         <v>999953076.6856347</v>
       </c>
       <c r="F430">
-        <v>-1.646812207523679E-08</v>
+        <v>-33310809.17750223</v>
       </c>
       <c r="G430">
         <v>160.9304259178272</v>
@@ -10305,7 +10305,7 @@
         <v>5796958638.592346</v>
       </c>
       <c r="F431">
-        <v>-1.369462992058854E-09</v>
+        <v>-2771101.70863112</v>
       </c>
       <c r="G431">
         <v>169.8552615109571</v>
@@ -10328,7 +10328,7 @@
         <v>967735927.4526701</v>
       </c>
       <c r="F432">
-        <v>-6.450890675078348E-08</v>
+        <v>-130714927.7762111</v>
       </c>
       <c r="G432">
         <v>98.30308555759244</v>
@@ -10351,7 +10351,7 @@
         <v>3117452141.791519</v>
       </c>
       <c r="F433">
-        <v>-5.118641296988085E-10</v>
+        <v>-1038982.283628054</v>
       </c>
       <c r="G433">
         <v>192.0552021373099</v>
@@ -10374,7 +10374,7 @@
         <v>3630954742.22469</v>
       </c>
       <c r="F434">
-        <v>-9.495703306321876E-09</v>
+        <v>-19332618.28519025</v>
       </c>
       <c r="G434">
         <v>138.3539976958022</v>
@@ -10397,7 +10397,7 @@
         <v>2397246227.042708</v>
       </c>
       <c r="F435">
-        <v>3.005328618250077E-09</v>
+        <v>6121757.061085739</v>
       </c>
       <c r="G435">
         <v>84.78682950413669</v>
@@ -10420,7 +10420,7 @@
         <v>2774508593.964458</v>
       </c>
       <c r="F436">
-        <v>-4.794435594870965E-09</v>
+        <v>-9819270.787948254</v>
       </c>
       <c r="G436">
         <v>142.605229108893</v>
@@ -10443,7 +10443,7 @@
         <v>6013192104.385352</v>
       </c>
       <c r="F437">
-        <v>3.822859300592803E-10</v>
+        <v>783553.6734360352</v>
       </c>
       <c r="G437">
         <v>218.3217430527416</v>
@@ -10466,7 +10466,7 @@
         <v>1347370129.62768</v>
       </c>
       <c r="F438">
-        <v>-8.331938999637298E-09</v>
+        <v>-17132446.65916917</v>
       </c>
       <c r="G438">
         <v>111.2993289966225</v>
@@ -10489,7 +10489,7 @@
         <v>4082607811.764255</v>
       </c>
       <c r="F439">
-        <v>-3.503539547907631E-09</v>
+        <v>-7208763.924747381</v>
       </c>
       <c r="G439">
         <v>137.9888997648001</v>
@@ -10512,7 +10512,7 @@
         <v>3307258015.431192</v>
       </c>
       <c r="F440">
-        <v>-1.769119305766747E-09</v>
+        <v>-3650544.174633934</v>
       </c>
       <c r="G440">
         <v>57.82478374146098</v>
@@ -10535,7 +10535,7 @@
         <v>2431285550.953999</v>
       </c>
       <c r="F441">
-        <v>-8.787695186199862E-10</v>
+        <v>-1814979.664965041</v>
       </c>
       <c r="G441">
         <v>164.5407492506585</v>
@@ -10558,7 +10558,7 @@
         <v>1454721061.411613</v>
       </c>
       <c r="F442">
-        <v>-1.911970671293845E-08</v>
+        <v>-39620088.50423071</v>
       </c>
       <c r="G442">
         <v>146.6311704918206</v>
@@ -10581,7 +10581,7 @@
         <v>840960404.7393836</v>
       </c>
       <c r="F443">
-        <v>-3.129125240334106E-08</v>
+        <v>-64913464.63322118</v>
       </c>
       <c r="G443">
         <v>199.896663544362</v>
@@ -10604,7 +10604,7 @@
         <v>8208995637.27432</v>
       </c>
       <c r="F444">
-        <v>2.371832830046038E-09</v>
+        <v>4929692.802511241</v>
       </c>
       <c r="G444">
         <v>346.3234205091492</v>
@@ -10627,7 +10627,7 @@
         <v>5046308491.366455</v>
       </c>
       <c r="F445">
-        <v>-1.527088707941646E-09</v>
+        <v>-3178750.041532863</v>
       </c>
       <c r="G445">
         <v>173.0961994462634</v>
@@ -10650,7 +10650,7 @@
         <v>1000707398.74619</v>
       </c>
       <c r="F446">
-        <v>-6.253160063823722E-09</v>
+        <v>-13022238.429539</v>
       </c>
       <c r="G446">
         <v>53.25440074399116</v>
@@ -10673,7 +10673,7 @@
         <v>1703758077.544437</v>
       </c>
       <c r="F447">
-        <v>1.381490548437978E-09</v>
+        <v>2928839.254558116</v>
       </c>
       <c r="G447">
         <v>119.2882686545483</v>
@@ -10696,7 +10696,7 @@
         <v>3848016132.597224</v>
       </c>
       <c r="F448">
-        <v>-2.131094466689939E-09</v>
+        <v>-4526458.691036333</v>
       </c>
       <c r="G448">
         <v>141.3129364538966</v>
@@ -10719,7 +10719,7 @@
         <v>2182344997.610748</v>
       </c>
       <c r="F449">
-        <v>-4.68875277155827E-09</v>
+        <v>-9996545.497055115</v>
       </c>
       <c r="G449">
         <v>83.82552310057586</v>
@@ -10742,7 +10742,7 @@
         <v>3219902161.361136</v>
       </c>
       <c r="F450">
-        <v>-9.227868095062118E-10</v>
+        <v>-1979878.911485277</v>
       </c>
       <c r="G450">
         <v>79.28828242968066</v>
@@ -10765,7 +10765,7 @@
         <v>2426272672.368331</v>
       </c>
       <c r="F451">
-        <v>-9.814680724807207E-09</v>
+        <v>-21061187.47083116</v>
       </c>
       <c r="G451">
         <v>140.9513422926192</v>
@@ -10788,7 +10788,7 @@
         <v>5871425055.812634</v>
       </c>
       <c r="F452">
-        <v>-2.677689069799678E-09</v>
+        <v>-5754719.872317076</v>
       </c>
       <c r="G452">
         <v>220.1532067233346</v>
@@ -10811,7 +10811,7 @@
         <v>6221655975.316236</v>
       </c>
       <c r="F453">
-        <v>1.046196433208058E-09</v>
+        <v>2252937.144466824</v>
       </c>
       <c r="G453">
         <v>176.0341749640389</v>
@@ -10834,7 +10834,7 @@
         <v>6626062686.876903</v>
       </c>
       <c r="F454">
-        <v>1.714109204854765E-09</v>
+        <v>3731159.070778762</v>
       </c>
       <c r="G454">
         <v>258.953491077705</v>
@@ -10857,7 +10857,7 @@
         <v>2876670510.268059</v>
       </c>
       <c r="F455">
-        <v>-3.809460748765807E-09</v>
+        <v>-8333112.533653821</v>
       </c>
       <c r="G455">
         <v>96.44008569618839</v>
@@ -10880,7 +10880,7 @@
         <v>5011124761.668821</v>
       </c>
       <c r="F456">
-        <v>-2.737604441848015E-09</v>
+        <v>-5998362.327926281</v>
       </c>
       <c r="G456">
         <v>232.2369982309701</v>
@@ -10903,7 +10903,7 @@
         <v>5228901995.740726</v>
       </c>
       <c r="F457">
-        <v>1.519354209643286E-09</v>
+        <v>3334616.298154839</v>
       </c>
       <c r="G457">
         <v>197.100076767616</v>
@@ -10926,7 +10926,7 @@
         <v>6731385228.33115</v>
       </c>
       <c r="F458">
-        <v>3.053557201009583E-09</v>
+        <v>6705624.719192698</v>
       </c>
       <c r="G458">
         <v>210.2102790272025</v>
@@ -10949,7 +10949,7 @@
         <v>7185224660.161692</v>
       </c>
       <c r="F459">
-        <v>3.082180376556719E-09</v>
+        <v>6814121.528070402</v>
       </c>
       <c r="G459">
         <v>279.8099322217222</v>
@@ -10972,7 +10972,7 @@
         <v>3607628095.028536</v>
       </c>
       <c r="F460">
-        <v>-2.018883950725877E-10</v>
+        <v>-446880.2528994416</v>
       </c>
       <c r="G460">
         <v>91.78467588971206</v>
@@ -10995,7 +10995,7 @@
         <v>6283452375.118114</v>
       </c>
       <c r="F461">
-        <v>6.275488818472811E-10</v>
+        <v>1389811.171298574</v>
       </c>
       <c r="G461">
         <v>192.2855277172897</v>
@@ -11018,7 +11018,7 @@
         <v>6603192984.061711</v>
       </c>
       <c r="F462">
-        <v>1.326161709943187E-09</v>
+        <v>3038562.293232206</v>
       </c>
       <c r="G462">
         <v>238.3229262220435</v>
@@ -11041,7 +11041,7 @@
         <v>7769314999.667951</v>
       </c>
       <c r="F463">
-        <v>2.980786546738821E-09</v>
+        <v>6943086.175768881</v>
       </c>
       <c r="G463">
         <v>384.0659859137528</v>
@@ -11064,7 +11064,7 @@
         <v>7605657110.457488</v>
       </c>
       <c r="F464">
-        <v>-6.155437646579551E-10</v>
+        <v>-1461760.124602059</v>
       </c>
       <c r="G464">
         <v>386.5088821976353</v>
@@ -11087,7 +11087,7 @@
         <v>6304696440.721027</v>
       </c>
       <c r="F465">
-        <v>9.891840615360134E-10</v>
+        <v>2377503.421438201</v>
       </c>
       <c r="G465">
         <v>278.3065659815379</v>
@@ -11110,7 +11110,7 @@
         <v>6728847165.971329</v>
       </c>
       <c r="F466">
-        <v>1.703001401578316E-09</v>
+        <v>4147390.214076382</v>
       </c>
       <c r="G466">
         <v>277.3923553421329</v>
@@ -11133,7 +11133,7 @@
         <v>5936398670.066373</v>
       </c>
       <c r="F467">
-        <v>1.289072702522177E-10</v>
+        <v>334074.3782548456</v>
       </c>
       <c r="G467">
         <v>239.4994202029368</v>
@@ -11156,7 +11156,7 @@
         <v>6357571437.239867</v>
       </c>
       <c r="F468">
-        <v>-4.621564934760432E-10</v>
+        <v>-1248287.184141645</v>
       </c>
       <c r="G468">
         <v>303.5726486043146</v>
@@ -11179,7 +11179,7 @@
         <v>5373876411.605662</v>
       </c>
       <c r="F469">
-        <v>6.575528797619585E-09</v>
+        <v>17763305.10558861</v>
       </c>
       <c r="G469">
         <v>478.2125432893851</v>
@@ -11202,7 +11202,7 @@
         <v>6117337500.617793</v>
       </c>
       <c r="F470">
-        <v>8.391215231304346E-10</v>
+        <v>2370905.709352196</v>
       </c>
       <c r="G470">
         <v>234.3816151067288</v>
@@ -11225,7 +11225,7 @@
         <v>5825411845.167835</v>
       </c>
       <c r="F471">
-        <v>-3.174059883510883E-10</v>
+        <v>-953711.1637983898</v>
       </c>
       <c r="G471">
         <v>166.0176884067126</v>
@@ -11248,7 +11248,7 @@
         <v>5752643415.50646</v>
       </c>
       <c r="F472">
-        <v>-1.01525460882373E-09</v>
+        <v>-3066193.759951823</v>
       </c>
       <c r="G472">
         <v>477.1964949355628</v>
@@ -11271,7 +11271,7 @@
         <v>6421008257.347594</v>
       </c>
       <c r="F473">
-        <v>2.65085590545108E-10</v>
+        <v>803839.8864927563</v>
       </c>
       <c r="G473">
         <v>242.3965569497223</v>
@@ -11294,7 +11294,7 @@
         <v>5635459680.680917</v>
       </c>
       <c r="F474">
-        <v>-1.761148577128442E-09</v>
+        <v>-5404809.817276695</v>
       </c>
       <c r="G474">
         <v>225.5604496260253</v>
@@ -11317,7 +11317,7 @@
         <v>5045505368.540749</v>
       </c>
       <c r="F475">
-        <v>8.953537358019174E-10</v>
+        <v>2750878.305987902</v>
       </c>
       <c r="G475">
         <v>181.2025467098823</v>
@@ -11340,7 +11340,7 @@
         <v>4165723978.340548</v>
       </c>
       <c r="F476">
-        <v>-1.973652980360714E-09</v>
+        <v>-6078099.372722352</v>
       </c>
       <c r="G476">
         <v>233.4128622855234</v>
@@ -11363,7 +11363,7 @@
         <v>4368807160.111624</v>
       </c>
       <c r="F477">
-        <v>-1.022860643969466E-09</v>
+        <v>-3173989.559750457</v>
       </c>
       <c r="G477">
         <v>224.9374666546087</v>
@@ -11386,7 +11386,7 @@
         <v>2113514956.822927</v>
       </c>
       <c r="F478">
-        <v>-5.182449824484881E-09</v>
+        <v>-16185388.87943538</v>
       </c>
       <c r="G478">
         <v>172.4417415259499</v>
@@ -11409,7 +11409,7 @@
         <v>2369170771.791949</v>
       </c>
       <c r="F479">
-        <v>-8.791162993706986E-10</v>
+        <v>-2749727.266561141</v>
       </c>
       <c r="G479">
         <v>76.1664285974651</v>
@@ -11432,7 +11432,7 @@
         <v>1767552434.019032</v>
       </c>
       <c r="F480">
-        <v>-1.098923924277275E-08</v>
+        <v>-34474852.65639644</v>
       </c>
       <c r="G480">
         <v>224.3238021063881</v>
@@ -11455,7 +11455,7 @@
         <v>6468645580.29142</v>
       </c>
       <c r="F481">
-        <v>1.53751797178205E-09</v>
+        <v>4848526.200072012</v>
       </c>
       <c r="G481">
         <v>280.0410918233773</v>
@@ -11478,7 +11478,7 @@
         <v>5203222235.685438</v>
       </c>
       <c r="F482">
-        <v>4.683379621656288E-09</v>
+        <v>14795946.38623801</v>
       </c>
       <c r="G482">
         <v>499.8452774835266</v>
@@ -11501,7 +11501,7 @@
         <v>2889991014.825688</v>
       </c>
       <c r="F483">
-        <v>-3.212476821743395E-09</v>
+        <v>-10167726.67126771</v>
       </c>
       <c r="G483">
         <v>155.879703350401</v>
@@ -11524,7 +11524,7 @@
         <v>2369801014.782203</v>
       </c>
       <c r="F484">
-        <v>-1.172273416596437E-08</v>
+        <v>-37251706.41539412</v>
       </c>
       <c r="G484">
         <v>239.5758218871549</v>
@@ -11547,7 +11547,7 @@
         <v>6130140174.898577</v>
       </c>
       <c r="F485">
-        <v>1.934382736131039E-09</v>
+        <v>6151051.52712211</v>
       </c>
       <c r="G485">
         <v>239.5358719892937</v>
@@ -11570,7 +11570,7 @@
         <v>4976017327.930454</v>
       </c>
       <c r="F486">
-        <v>4.051847239429696E-09</v>
+        <v>12910117.75061156</v>
       </c>
       <c r="G486">
         <v>530.705792314264</v>
@@ -11593,7 +11593,7 @@
         <v>6338658468.108522</v>
       </c>
       <c r="F487">
-        <v>2.962454998829139E-09</v>
+        <v>9540611.968450559</v>
       </c>
       <c r="G487">
         <v>366.1237845858022</v>
@@ -11616,7 +11616,7 @@
         <v>1444773637.19548</v>
       </c>
       <c r="F488">
-        <v>-1.221177729255524E-08</v>
+        <v>-39553444.03802646</v>
       </c>
       <c r="G488">
         <v>198.6962348921064</v>
@@ -11639,7 +11639,7 @@
         <v>2546522967.00264</v>
       </c>
       <c r="F489">
-        <v>-2.355715328211859E-09</v>
+        <v>-7654310.200204748</v>
       </c>
       <c r="G489">
         <v>206.4802574413901</v>
@@ -11662,7 +11662,7 @@
         <v>2258099886.227818</v>
       </c>
       <c r="F490">
-        <v>-6.166783062764869E-09</v>
+        <v>-20198379.92614844</v>
       </c>
       <c r="G490">
         <v>130.7736862554245</v>
@@ -11685,7 +11685,7 @@
         <v>6512470504.148901</v>
       </c>
       <c r="F491">
-        <v>2.037891497531106E-09</v>
+        <v>6695640.300732994</v>
       </c>
       <c r="G491">
         <v>308.8609399394046</v>
@@ -11708,7 +11708,7 @@
         <v>5746397018.765551</v>
       </c>
       <c r="F492">
-        <v>3.742095158680129E-09</v>
+        <v>12406560.05712678</v>
       </c>
       <c r="G492">
         <v>470.1475817136757</v>
@@ -11731,7 +11731,7 @@
         <v>3095757905.434598</v>
       </c>
       <c r="F493">
-        <v>-2.104513302411382E-09</v>
+        <v>-6985702.324942467</v>
       </c>
       <c r="G493">
         <v>177.7333284748242</v>
@@ -11754,7 +11754,7 @@
         <v>1685910490.804271</v>
       </c>
       <c r="F494">
-        <v>-4.547625125226499E-09</v>
+        <v>-15332939.60738684</v>
       </c>
       <c r="G494">
         <v>184.909249837809</v>
@@ -11777,7 +11777,7 @@
         <v>6425722717.868378</v>
       </c>
       <c r="F495">
-        <v>1.337566463475879E-09</v>
+        <v>4732544.490525926</v>
       </c>
       <c r="G495">
         <v>287.6457792763024</v>
@@ -11800,7 +11800,7 @@
         <v>3510114930.260406</v>
       </c>
       <c r="F496">
-        <v>-2.3280555930642E-09</v>
+        <v>-8274230.310184578</v>
       </c>
       <c r="G496">
         <v>194.1366020472757</v>
@@ -11823,7 +11823,7 @@
         <v>6195495994.622263</v>
       </c>
       <c r="F497">
-        <v>-1.557305767037255E-10</v>
+        <v>-554682.1764527465</v>
       </c>
       <c r="G497">
         <v>236.7191000773739</v>
@@ -11846,7 +11846,7 @@
         <v>452913890.6685466</v>
       </c>
       <c r="F498">
-        <v>3.326823150587147E-08</v>
+        <v>119384594.1169787</v>
       </c>
       <c r="G498">
         <v>108.4549174772413</v>
@@ -11869,7 +11869,7 @@
         <v>2709073650.00457</v>
       </c>
       <c r="F499">
-        <v>-2.451039451291522E-09</v>
+        <v>-8831417.810250761</v>
       </c>
       <c r="G499">
         <v>201.2121981714189</v>
@@ -11892,7 +11892,7 @@
         <v>2382281681.12768</v>
       </c>
       <c r="F500">
-        <v>-8.529813843710763E-09</v>
+        <v>-30751195.41450741</v>
       </c>
       <c r="G500">
         <v>205.0530611646599</v>
@@ -11915,7 +11915,7 @@
         <v>4844960218.730109</v>
       </c>
       <c r="F501">
-        <v>-5.933797238992669E-10</v>
+        <v>-2144211.652429662</v>
       </c>
       <c r="G501">
         <v>266.8003793837181</v>
@@ -11938,7 +11938,7 @@
         <v>5717599696.210817</v>
       </c>
       <c r="F502">
-        <v>3.703868243521314E-09</v>
+        <v>13588732.3206693</v>
       </c>
       <c r="G502">
         <v>454.5404264637098</v>
@@ -11961,7 +11961,7 @@
         <v>2016923373.667696</v>
       </c>
       <c r="F503">
-        <v>-9.632173903115322E-09</v>
+        <v>-35738165.46478953</v>
       </c>
       <c r="G503">
         <v>161.3311545941339</v>
@@ -11984,7 +11984,7 @@
         <v>5527456223.894745</v>
       </c>
       <c r="F504">
-        <v>1.947344816606481E-10</v>
+        <v>724537.9177930218</v>
       </c>
       <c r="G504">
         <v>230.3126126701382</v>
@@ -12007,7 +12007,7 @@
         <v>2195323746.770552</v>
       </c>
       <c r="F505">
-        <v>-5.712262466442998E-09</v>
+        <v>-21284948.47255589</v>
       </c>
       <c r="G505">
         <v>203.3671277195349</v>
@@ -12030,7 +12030,7 @@
         <v>911059376.0834751</v>
       </c>
       <c r="F506">
-        <v>-5.055812433947792E-09</v>
+        <v>-18935438.63853304</v>
       </c>
       <c r="G506">
         <v>176.2818850598353</v>
@@ -12053,7 +12053,7 @@
         <v>5559855009.187105</v>
       </c>
       <c r="F507">
-        <v>3.260029839520468E-09</v>
+        <v>12281080.57824243</v>
       </c>
       <c r="G507">
         <v>474.5033949449048</v>
@@ -12076,7 +12076,7 @@
         <v>1748542789.100823</v>
       </c>
       <c r="F508">
-        <v>-2.95720473016757E-09</v>
+        <v>-11210731.99824336</v>
       </c>
       <c r="G508">
         <v>99.33585867874183</v>
@@ -12099,7 +12099,7 @@
         <v>3136929584.853638</v>
       </c>
       <c r="F509">
-        <v>1.839250390812805E-09</v>
+        <v>7011203.735450698</v>
       </c>
       <c r="G509">
         <v>156.4288504075296</v>
@@ -12122,7 +12122,7 @@
         <v>6892618090.086917</v>
       </c>
       <c r="F510">
-        <v>8.736256021531137E-10</v>
+        <v>3428780.944989667</v>
       </c>
       <c r="G510">
         <v>193.1690580216328</v>
@@ -12145,7 +12145,7 @@
         <v>5126321209.428905</v>
       </c>
       <c r="F511">
-        <v>3.922557358798026E-09</v>
+        <v>15584981.59652602</v>
       </c>
       <c r="G511">
         <v>502.2140098760443</v>
@@ -12168,7 +12168,7 @@
         <v>5962467436.101363</v>
       </c>
       <c r="F512">
-        <v>-3.118473331353188E-10</v>
+        <v>-1241485.126953251</v>
       </c>
       <c r="G512">
         <v>241.546725873968</v>
@@ -12191,7 +12191,7 @@
         <v>5253137932.530094</v>
       </c>
       <c r="F513">
-        <v>2.893899353753796E-09</v>
+        <v>11548481.65528218</v>
       </c>
       <c r="G513">
         <v>501.6637314411207</v>
@@ -12214,7 +12214,7 @@
         <v>1226144717.277874</v>
       </c>
       <c r="F514">
-        <v>-8.201831094205627E-09</v>
+        <v>-32880360.42745502</v>
       </c>
       <c r="G514">
         <v>267.4995170081102</v>
@@ -12237,7 +12237,7 @@
         <v>2942065215.54471</v>
       </c>
       <c r="F515">
-        <v>-2.139156514840196E-09</v>
+        <v>-8578934.886225803</v>
       </c>
       <c r="G515">
         <v>199.6637204050944</v>
@@ -12260,7 +12260,7 @@
         <v>5117100142.562213</v>
       </c>
       <c r="F516">
-        <v>3.928739575411734E-09</v>
+        <v>16101437.46498079</v>
       </c>
       <c r="G516">
         <v>460.8648967691788</v>
@@ -12283,7 +12283,7 @@
         <v>5844466743.460619</v>
       </c>
       <c r="F517">
-        <v>-1.281238370326569E-09</v>
+        <v>-5328526.35177646</v>
       </c>
       <c r="G517">
         <v>343.4509582626749</v>
@@ -12306,7 +12306,7 @@
         <v>5416007204.856009</v>
       </c>
       <c r="F518">
-        <v>2.715307173927186E-09</v>
+        <v>11392783.10178046</v>
       </c>
       <c r="G518">
         <v>473.0667166225604</v>
@@ -12329,7 +12329,7 @@
         <v>1803377650.752327</v>
       </c>
       <c r="F519">
-        <v>7.514353298260402E-09</v>
+        <v>31939613.80773089</v>
       </c>
       <c r="G519">
         <v>59.40612971022731</v>
@@ -12352,7 +12352,7 @@
         <v>5579761988.96913</v>
       </c>
       <c r="F520">
-        <v>-6.284595469148768E-10</v>
+        <v>-2675215.313045335</v>
       </c>
       <c r="G520">
         <v>204.1330547768963</v>
@@ -12375,7 +12375,7 @@
         <v>4119829383.082216</v>
       </c>
       <c r="F521">
-        <v>3.195008629560765E-09</v>
+        <v>13747382.06991414</v>
       </c>
       <c r="G521">
         <v>88.83724495324149</v>
@@ -12398,7 +12398,7 @@
         <v>993230912.4523313</v>
       </c>
       <c r="F522">
-        <v>-1.141672284568438E-08</v>
+        <v>-51777918.25531451</v>
       </c>
       <c r="G522">
         <v>208.2308531614801</v>
@@ -12421,7 +12421,7 @@
         <v>6006150894.000401</v>
       </c>
       <c r="F523">
-        <v>7.586509567288934E-10</v>
+        <v>3446801.119013046</v>
       </c>
       <c r="G523">
         <v>299.4273282917338</v>
@@ -12444,7 +12444,7 @@
         <v>1099893807.644229</v>
       </c>
       <c r="F524">
-        <v>-9.664249408827087E-09</v>
+        <v>-44080479.64973152</v>
       </c>
       <c r="G524">
         <v>40.12766609656833</v>
@@ -12467,7 +12467,7 @@
         <v>4826085771.36713</v>
       </c>
       <c r="F525">
-        <v>2.56376781615709E-09</v>
+        <v>11719974.61371546</v>
       </c>
       <c r="G525">
         <v>539.5990856589589</v>
@@ -12490,7 +12490,7 @@
         <v>6309069900.471977</v>
       </c>
       <c r="F526">
-        <v>-2.959397938587497E-10</v>
+        <v>-1365234.703235604</v>
       </c>
       <c r="G526">
         <v>250.9973690310747</v>
@@ -12513,7 +12513,7 @@
         <v>5847644154.387046</v>
       </c>
       <c r="F527">
-        <v>6.747660299464211E-10</v>
+        <v>3126471.331867334</v>
       </c>
       <c r="G527">
         <v>272.525440993782</v>
@@ -12536,7 +12536,7 @@
         <v>2095025263.279362</v>
       </c>
       <c r="F528">
-        <v>-2.110139440276086E-09</v>
+        <v>-9853915.320588868</v>
       </c>
       <c r="G528">
         <v>61.65173396973989</v>
@@ -12559,7 +12559,7 @@
         <v>2025772519.612114</v>
       </c>
       <c r="F529">
-        <v>-2.49232082457999E-10</v>
+        <v>-1166891.643314497</v>
       </c>
       <c r="G529">
         <v>152.2171436604011</v>
@@ -12582,7 +12582,7 @@
         <v>3457408398.164316</v>
       </c>
       <c r="F530">
-        <v>-3.081166984608543E-09</v>
+        <v>-14469486.65127628</v>
       </c>
       <c r="G530">
         <v>202.8030825017334</v>
@@ -12605,7 +12605,7 @@
         <v>6183104180.333494</v>
       </c>
       <c r="F531">
-        <v>-1.180377988742943E-09</v>
+        <v>-5590552.624832254</v>
       </c>
       <c r="G531">
         <v>303.5582352532722</v>
@@ -12628,7 +12628,7 @@
         <v>5179614968.959443</v>
       </c>
       <c r="F532">
-        <v>4.732633919467788E-10</v>
+        <v>2283296.745956765</v>
       </c>
       <c r="G532">
         <v>449.6416221193597</v>
@@ -12651,7 +12651,7 @@
         <v>5591980999.686174</v>
       </c>
       <c r="F533">
-        <v>1.149314881418909E-09</v>
+        <v>5622224.307076626</v>
       </c>
       <c r="G533">
         <v>233.0060042921284</v>
@@ -12674,7 +12674,7 @@
         <v>6755273752.740248</v>
       </c>
       <c r="F534">
-        <v>2.39749425471769E-10</v>
+        <v>1175526.398940946</v>
       </c>
       <c r="G534">
         <v>365.4287406505287</v>
@@ -12697,7 +12697,7 @@
         <v>4549819794.985278</v>
       </c>
       <c r="F535">
-        <v>-1.11909268127327E-09</v>
+        <v>-5581508.180526836</v>
       </c>
       <c r="G535">
         <v>263.9863234175524</v>
@@ -12720,7 +12720,7 @@
         <v>3741815257.22474</v>
       </c>
       <c r="F536">
-        <v>1.134914640120661E-09</v>
+        <v>5721946.471614324</v>
       </c>
       <c r="G536">
         <v>149.4256183281506</v>
@@ -12743,7 +12743,7 @@
         <v>5824659385.77631</v>
       </c>
       <c r="F537">
-        <v>1.186156850754623E-09</v>
+        <v>6024250.427745188</v>
       </c>
       <c r="G537">
         <v>330.2660300174602</v>
@@ -12766,7 +12766,7 @@
         <v>4844748931.975193</v>
       </c>
       <c r="F538">
-        <v>4.772521165955414E-09</v>
+        <v>24571688.03597509</v>
       </c>
       <c r="G538">
         <v>499.0209240425326</v>
@@ -12789,7 +12789,7 @@
         <v>3967389532.218083</v>
       </c>
       <c r="F539">
-        <v>2.003164461021567E-09</v>
+        <v>10329654.59551664</v>
       </c>
       <c r="G539">
         <v>99.05732126728971</v>
@@ -12812,7 +12812,7 @@
         <v>5348343161.690667</v>
       </c>
       <c r="F540">
-        <v>4.677647025664038E-09</v>
+        <v>24606886.72004183</v>
       </c>
       <c r="G540">
         <v>468.1830821665931</v>
@@ -12835,7 +12835,7 @@
         <v>5515088915.371831</v>
       </c>
       <c r="F541">
-        <v>1.066300169199299E-09</v>
+        <v>5642554.795957162</v>
       </c>
       <c r="G541">
         <v>256.5930316024024</v>
@@ -12858,7 +12858,7 @@
         <v>3330338054.010527</v>
       </c>
       <c r="F542">
-        <v>6.485876143658486E-10</v>
+        <v>3505383.614566269</v>
       </c>
       <c r="G542">
         <v>94.40453960430163</v>
@@ -12881,7 +12881,7 @@
         <v>5254130047.430035</v>
       </c>
       <c r="F543">
-        <v>2.444376326746004E-10</v>
+        <v>1337839.926882251</v>
       </c>
       <c r="G543">
         <v>247.4687639794099</v>
@@ -12904,7 +12904,7 @@
         <v>3010050859.412271</v>
       </c>
       <c r="F544">
-        <v>2.748435338065613E-09</v>
+        <v>15125149.0152719</v>
       </c>
       <c r="G544">
         <v>160.1124975524262</v>
@@ -12927,7 +12927,7 @@
         <v>6313463175.955635</v>
       </c>
       <c r="F545">
-        <v>3.140116382862066E-09</v>
+        <v>17290270.06038923</v>
       </c>
       <c r="G545">
         <v>407.1862897951532</v>
@@ -12950,7 +12950,7 @@
         <v>3459253788.517984</v>
       </c>
       <c r="F546">
-        <v>8.267334776895137E-11</v>
+        <v>455670.3888047609</v>
       </c>
       <c r="G546">
         <v>100.9014776574091</v>
@@ -12973,7 +12973,7 @@
         <v>4648542508.136076</v>
       </c>
       <c r="F547">
-        <v>1.855009248490326E-10</v>
+        <v>1023537.081946008</v>
       </c>
       <c r="G547">
         <v>215.6618514234176</v>
@@ -12996,7 +12996,7 @@
         <v>6417998803.579285</v>
       </c>
       <c r="F548">
-        <v>-2.613451347910308E-10</v>
+        <v>-1445591.157539198</v>
       </c>
       <c r="G548">
         <v>399.7710644547503</v>
@@ -13019,7 +13019,7 @@
         <v>5861011641.375013</v>
       </c>
       <c r="F549">
-        <v>3.192608574624509E-09</v>
+        <v>18098913.08227985</v>
       </c>
       <c r="G549">
         <v>445.6915027526201</v>
@@ -13042,7 +13042,7 @@
         <v>3414520055.58295</v>
       </c>
       <c r="F550">
-        <v>5.242679866331424E-09</v>
+        <v>29911501.57609661</v>
       </c>
       <c r="G550">
         <v>603.654450725946</v>
@@ -13065,7 +13065,7 @@
         <v>5754445101.230829</v>
       </c>
       <c r="F551">
-        <v>1.389263882804343E-09</v>
+        <v>7965836.275801811</v>
       </c>
       <c r="G551">
         <v>275.6128306725886</v>
@@ -13088,7 +13088,7 @@
         <v>5499155275.109694</v>
       </c>
       <c r="F552">
-        <v>2.751217331532182E-09</v>
+        <v>15854570.56082867</v>
       </c>
       <c r="G552">
         <v>316.5567604195722</v>
@@ -13111,7 +13111,7 @@
         <v>6331792975.210806</v>
       </c>
       <c r="F553">
-        <v>2.253927465012352E-09</v>
+        <v>13270211.61391177</v>
       </c>
       <c r="G553">
         <v>393.5814625569145</v>
@@ -13134,7 +13134,7 @@
         <v>5629802771.25153</v>
       </c>
       <c r="F554">
-        <v>1.78483745676684E-09</v>
+        <v>10540975.20575436</v>
       </c>
       <c r="G554">
         <v>396.6968361292472</v>
@@ -13157,7 +13157,7 @@
         <v>3345795179.650215</v>
       </c>
       <c r="F555">
-        <v>8.497808380757506E-10</v>
+        <v>5065719.389124373</v>
       </c>
       <c r="G555">
         <v>136.4731900171342</v>
@@ -13180,7 +13180,7 @@
         <v>5444408168.317199</v>
       </c>
       <c r="F556">
-        <v>2.086341694295613E-09</v>
+        <v>12487659.64144151</v>
       </c>
       <c r="G556">
         <v>415.8217789121333</v>
@@ -13203,7 +13203,7 @@
         <v>2928443171.073019</v>
       </c>
       <c r="F557">
-        <v>5.503115920040585E-10</v>
+        <v>3298549.743579921</v>
       </c>
       <c r="G557">
         <v>173.7650928179621</v>
@@ -13226,7 +13226,7 @@
         <v>6864598746.393819</v>
       </c>
       <c r="F558">
-        <v>4.518745748315676E-10</v>
+        <v>2718568.167022568</v>
       </c>
       <c r="G558">
         <v>296.1486820457557</v>
@@ -13249,7 +13249,7 @@
         <v>3628584148.864644</v>
       </c>
       <c r="F559">
-        <v>3.376568427800591E-10</v>
+        <v>2034679.436817387</v>
       </c>
       <c r="G559">
         <v>88.46858254313892</v>
@@ -13272,7 +13272,7 @@
         <v>3917674448.773458</v>
       </c>
       <c r="F560">
-        <v>6.239871412337101E-09</v>
+        <v>37875759.50427946</v>
       </c>
       <c r="G560">
         <v>557.0176161666278</v>
@@ -13295,7 +13295,7 @@
         <v>4831790660.989968</v>
       </c>
       <c r="F561">
-        <v>-5.767802493085814E-11</v>
+        <v>-353689.0491620245</v>
       </c>
       <c r="G561">
         <v>189.7169772045815</v>
@@ -13318,7 +13318,7 @@
         <v>5084090748.316783</v>
       </c>
       <c r="F562">
-        <v>1.913557528116298E-09</v>
+        <v>11841721.59125557</v>
       </c>
       <c r="G562">
         <v>466.4521877039886</v>
@@ -13341,7 +13341,7 @@
         <v>3849391923.317758</v>
       </c>
       <c r="F563">
-        <v>-5.318136313518052E-10</v>
+        <v>-3304540.890761679</v>
       </c>
       <c r="G563">
         <v>148.571558231961</v>
@@ -13364,7 +13364,7 @@
         <v>5169436779.741717</v>
       </c>
       <c r="F564">
-        <v>1.424703107032993E-09</v>
+        <v>9123216.851114867</v>
       </c>
       <c r="G564">
         <v>244.6459388368232</v>
@@ -13387,7 +13387,7 @@
         <v>5657051164.879713</v>
       </c>
       <c r="F565">
-        <v>1.312250369673826E-09</v>
+        <v>8411117.936088672</v>
       </c>
       <c r="G565">
         <v>321.6496975043341</v>
@@ -13410,7 +13410,7 @@
         <v>1574533395.565287</v>
       </c>
       <c r="F566">
-        <v>-4.288193154888826E-09</v>
+        <v>-27547422.9966399</v>
       </c>
       <c r="G566">
         <v>167.432318108946</v>
@@ -13433,7 +13433,7 @@
         <v>5817634611.925939</v>
       </c>
       <c r="F567">
-        <v>8.234804626479494E-10</v>
+        <v>5349926.402478306</v>
       </c>
       <c r="G567">
         <v>394.0303315714157</v>
@@ -13456,7 +13456,7 @@
         <v>5275280114.195532</v>
       </c>
       <c r="F568">
-        <v>-8.419072391666981E-10</v>
+        <v>-5555925.27035531</v>
       </c>
       <c r="G568">
         <v>266.0958107997598</v>
@@ -13479,7 +13479,7 @@
         <v>3564589075.296008</v>
       </c>
       <c r="F569">
-        <v>3.74279115146978E-10</v>
+        <v>2473658.258210362</v>
       </c>
       <c r="G569">
         <v>242.7212991886152</v>
@@ -13502,7 +13502,7 @@
         <v>2426840321.957208</v>
       </c>
       <c r="F570">
-        <v>-4.231818479916541E-10</v>
+        <v>-2804027.32638745</v>
       </c>
       <c r="G570">
         <v>172.786773144405</v>
@@ -13525,7 +13525,7 @@
         <v>708347112.0032234</v>
       </c>
       <c r="F571">
-        <v>-4.197785004559258E-08</v>
+        <v>-280251383.7111135</v>
       </c>
       <c r="G571">
         <v>119.3964690044329</v>
@@ -13548,7 +13548,7 @@
         <v>1279210288.999572</v>
       </c>
       <c r="F572">
-        <v>4.939659641132385E-09</v>
+        <v>33675890.58087179</v>
       </c>
       <c r="G572">
         <v>234.2469123185328</v>
@@ -13571,7 +13571,7 @@
         <v>3286725858.309904</v>
       </c>
       <c r="F573">
-        <v>-4.472894667817105E-09</v>
+        <v>-30755696.20035777</v>
       </c>
       <c r="G573">
         <v>55.96744516247381</v>
@@ -13594,7 +13594,7 @@
         <v>6902957415.375627</v>
       </c>
       <c r="F574">
-        <v>4.70475431159736E-10</v>
+        <v>3388898.256628235</v>
       </c>
       <c r="G574">
         <v>263.5880446175102</v>
@@ -13617,7 +13617,7 @@
         <v>2857069670.986645</v>
       </c>
       <c r="F575">
-        <v>1.332017188716532E-09</v>
+        <v>12219435.72174382</v>
       </c>
       <c r="G575">
         <v>143.9737905132135</v>
@@ -13640,7 +13640,7 @@
         <v>4526353725.876134</v>
       </c>
       <c r="F576">
-        <v>1.225819405342734E-09</v>
+        <v>11320430.1155893</v>
       </c>
       <c r="G576">
         <v>192.6648205920298</v>
@@ -13663,7 +13663,7 @@
         <v>2262869858.583948</v>
       </c>
       <c r="F577">
-        <v>-3.012401992456646E-09</v>
+        <v>-27825076.64952466</v>
       </c>
       <c r="G577">
         <v>192.6551711296614</v>
@@ -13686,7 +13686,7 @@
         <v>3066727224.254328</v>
       </c>
       <c r="F578">
-        <v>-1.85978073679518E-09</v>
+        <v>-17413758.93661031</v>
       </c>
       <c r="G578">
         <v>195.0487914372474</v>
@@ -13709,7 +13709,7 @@
         <v>5205384999.769969</v>
       </c>
       <c r="F579">
-        <v>7.515427947631468E-10</v>
+        <v>7116142.235643431</v>
       </c>
       <c r="G579">
         <v>173.2299911944204</v>
@@ -13732,7 +13732,7 @@
         <v>5137780700.566062</v>
       </c>
       <c r="F580">
-        <v>-4.548154645730525E-11</v>
+        <v>-435441.0116057455</v>
       </c>
       <c r="G580">
         <v>342.4728246447154</v>
@@ -13755,7 +13755,7 @@
         <v>2835712381.330403</v>
       </c>
       <c r="F581">
-        <v>-3.248951109047267E-09</v>
+        <v>-31805407.15847062</v>
       </c>
       <c r="G581">
         <v>201.9325605790433</v>
@@ -13778,7 +13778,7 @@
         <v>768246039.314449</v>
       </c>
       <c r="F582">
-        <v>3.012284547736848E-08</v>
+        <v>295986301.1654549</v>
       </c>
       <c r="G582">
         <v>150.5556371518064</v>
@@ -13801,7 +13801,7 @@
         <v>553699268.9256721</v>
       </c>
       <c r="F583">
-        <v>-5.456194031887053E-08</v>
+        <v>-539745448.725239</v>
       </c>
       <c r="G583">
         <v>276.5566686855374</v>
@@ -13824,7 +13824,7 @@
         <v>1089231620.260306</v>
       </c>
       <c r="F584">
-        <v>1.353951347627374E-08</v>
+        <v>134335757.5925896</v>
       </c>
       <c r="G584">
         <v>147.1871356378689</v>
@@ -13847,7 +13847,7 @@
         <v>2053302813.942164</v>
       </c>
       <c r="F585">
-        <v>3.824284262468971E-09</v>
+        <v>37986573.71771846</v>
       </c>
       <c r="G585">
         <v>141.1395654545929</v>
@@ -13870,7 +13870,7 @@
         <v>359451929.7712027</v>
       </c>
       <c r="F586">
-        <v>-6.333571358377626E-08</v>
+        <v>-633055458.3982732</v>
       </c>
       <c r="G586">
         <v>176.8987232039831</v>
@@ -13893,7 +13893,7 @@
         <v>1095061378.458429</v>
       </c>
       <c r="F587">
-        <v>-1.809945982967447E-08</v>
+        <v>-182632430.3639707</v>
       </c>
       <c r="G587">
         <v>218.356340939852</v>
@@ -13916,7 +13916,7 @@
         <v>926460210.6350678</v>
       </c>
       <c r="F588">
-        <v>1.298168670254549E-09</v>
+        <v>13167630.4093662</v>
       </c>
       <c r="G588">
         <v>271.8431305837885</v>
@@ -13939,7 +13939,7 @@
         <v>5169500807.937802</v>
       </c>
       <c r="F589">
-        <v>6.562892374259113E-10</v>
+        <v>6742738.384074542</v>
       </c>
       <c r="G589">
         <v>348.3949189329567</v>
@@ -13962,7 +13962,7 @@
         <v>729817468.747735</v>
       </c>
       <c r="F590">
-        <v>-1.643272120660154E-08</v>
+        <v>-169197767.4977081</v>
       </c>
       <c r="G590">
         <v>261.8981731841762</v>
@@ -13985,7 +13985,7 @@
         <v>893066351.2223756</v>
       </c>
       <c r="F591">
-        <v>-1.104699866457035E-08</v>
+        <v>-114236485.0864697</v>
       </c>
       <c r="G591">
         <v>338.9111933598435</v>
@@ -14008,7 +14008,7 @@
         <v>766279025.9794756</v>
       </c>
       <c r="F592">
-        <v>-4.557989064493986E-09</v>
+        <v>-47224529.94840986</v>
       </c>
       <c r="G592">
         <v>145.6023560613098</v>
@@ -14031,7 +14031,7 @@
         <v>2313564547.783226</v>
       </c>
       <c r="F593">
-        <v>-8.455515807972229E-09</v>
+        <v>-88575193.78977481</v>
       </c>
       <c r="G593">
         <v>213.358773957411</v>
@@ -14054,7 +14054,7 @@
         <v>891369119.7358099</v>
       </c>
       <c r="F594">
-        <v>-7.204756324069373E-09</v>
+        <v>-76164223.8910623</v>
       </c>
       <c r="G594">
         <v>79.82733888295766</v>
@@ -14077,7 +14077,7 @@
         <v>5172581051.058817</v>
       </c>
       <c r="F595">
-        <v>1.452444570795722E-09</v>
+        <v>15405733.95315136</v>
       </c>
       <c r="G595">
         <v>363.3545762064405</v>
@@ -14100,7 +14100,7 @@
         <v>2504386997.665829</v>
       </c>
       <c r="F596">
-        <v>-4.176452399764051E-10</v>
+        <v>-4446650.708530637</v>
       </c>
       <c r="G596">
         <v>236.1047160032303</v>
@@ -14123,7 +14123,7 @@
         <v>1191965862.888829</v>
       </c>
       <c r="F597">
-        <v>-8.002659795708931E-09</v>
+        <v>-85249066.45611031</v>
       </c>
       <c r="G597">
         <v>318.6992936057722</v>
@@ -14146,7 +14146,7 @@
         <v>2876360601.120055</v>
       </c>
       <c r="F598">
-        <v>-2.004729892463719E-09</v>
+        <v>-21447893.900908</v>
       </c>
       <c r="G598">
         <v>215.1848432804517</v>
@@ -14169,7 +14169,7 @@
         <v>3150955671.462141</v>
       </c>
       <c r="F599">
-        <v>-3.908160425374012E-10</v>
+        <v>-4226851.565162108</v>
       </c>
       <c r="G599">
         <v>220.4809807698102</v>
@@ -14192,7 +14192,7 @@
         <v>5168605474.416979</v>
       </c>
       <c r="F600">
-        <v>6.020640719152888E-10</v>
+        <v>6565959.042500741</v>
       </c>
       <c r="G600">
         <v>428.3120715458798</v>
@@ -14215,7 +14215,7 @@
         <v>4648823257.83275</v>
       </c>
       <c r="F601">
-        <v>-5.632737180391228E-10</v>
+        <v>-6147947.160241119</v>
       </c>
       <c r="G601">
         <v>211.1790567445773</v>
@@ -14238,7 +14238,7 @@
         <v>817183507.8010336</v>
       </c>
       <c r="F602">
-        <v>-1.754573404032825E-08</v>
+        <v>-194077959.0159068</v>
       </c>
       <c r="G602">
         <v>61.38876804717894</v>
@@ -14261,7 +14261,7 @@
         <v>1305717187.492785</v>
       </c>
       <c r="F603">
-        <v>-1.267509025848031E-08</v>
+        <v>-140896707.6353615</v>
       </c>
       <c r="G603">
         <v>131.3850531002236</v>
@@ -14284,7 +14284,7 @@
         <v>399429612.1202539</v>
       </c>
       <c r="F604">
-        <v>-5.042518428753698E-08</v>
+        <v>-564590745.6937426</v>
       </c>
       <c r="G604">
         <v>-81.6031739268814</v>
@@ -14307,7 +14307,7 @@
         <v>795038423.330133</v>
       </c>
       <c r="F605">
-        <v>-1.793816761173972E-08</v>
+        <v>-202703075.4083747</v>
       </c>
       <c r="G605">
         <v>101.7696614037606</v>
@@ -14330,7 +14330,7 @@
         <v>1359834627.11612</v>
       </c>
       <c r="F606">
-        <v>5.299979609900531E-09</v>
+        <v>60470665.4177427</v>
       </c>
       <c r="G606">
         <v>269.7654985160183</v>
@@ -14353,7 +14353,7 @@
         <v>5494524667.740678</v>
       </c>
       <c r="F607">
-        <v>-2.234926408349392E-10</v>
+        <v>-2558418.840885357</v>
       </c>
       <c r="G607">
         <v>240.5592380196063</v>
@@ -14376,7 +14376,7 @@
         <v>499060666.4612418</v>
       </c>
       <c r="F608">
-        <v>-2.4541049243408E-08</v>
+        <v>-281398978.8465521</v>
       </c>
       <c r="G608">
         <v>89.81009985104512</v>
@@ -14399,7 +14399,7 @@
         <v>2984683405.704584</v>
       </c>
       <c r="F609">
-        <v>-9.605629810786943E-10</v>
+        <v>-11026125.30934487</v>
       </c>
       <c r="G609">
         <v>185.3645477222391</v>
@@ -14422,7 +14422,7 @@
         <v>2269536368.851431</v>
       </c>
       <c r="F610">
-        <v>-9.427625832410579E-10</v>
+        <v>-10846255.26895317</v>
       </c>
       <c r="G610">
         <v>222.8909216480906</v>
@@ -14445,7 +14445,7 @@
         <v>1098928472.213687</v>
       </c>
       <c r="F611">
-        <v>-1.700738766398372E-08</v>
+        <v>-196339092.7786037</v>
       </c>
       <c r="G611">
         <v>133.0412862806136</v>
@@ -14468,7 +14468,7 @@
         <v>1812612912.191106</v>
       </c>
       <c r="F612">
-        <v>-5.126138702361033E-09</v>
+        <v>-59208927.83068027</v>
       </c>
       <c r="G612">
         <v>150.3747967691405</v>
@@ -14491,7 +14491,7 @@
         <v>2528460502.137846</v>
       </c>
       <c r="F613">
-        <v>-2.770589644855968E-09</v>
+        <v>-32186306.22232084</v>
       </c>
       <c r="G613">
         <v>103.9557752013837</v>
@@ -14514,7 +14514,7 @@
         <v>1058030226.97079</v>
       </c>
       <c r="F614">
-        <v>-1.087176966906329E-08</v>
+        <v>-126773756.5250004</v>
       </c>
       <c r="G614">
         <v>161.5573366260888</v>
@@ -14537,7 +14537,7 @@
         <v>6058129694.027615</v>
       </c>
       <c r="F615">
-        <v>6.548779560279941E-10</v>
+        <v>7657182.247048773</v>
       </c>
       <c r="G615">
         <v>247.9375813492061</v>
@@ -14560,7 +14560,7 @@
         <v>2976739836.660855</v>
       </c>
       <c r="F616">
-        <v>1.029542430538302E-09</v>
+        <v>12164595.9157815</v>
       </c>
       <c r="G616">
         <v>238.6633771450285</v>
@@ -14583,7 +14583,7 @@
         <v>3706903171.263881</v>
       </c>
       <c r="F617">
-        <v>-3.013045093204296E-10</v>
+        <v>-3561048.174546777</v>
       </c>
       <c r="G617">
         <v>178.2664418663123</v>
@@ -14606,7 +14606,7 @@
         <v>5368508096.787234</v>
       </c>
       <c r="F618">
-        <v>-3.440024683146972E-10</v>
+        <v>-4237616.003787481</v>
       </c>
       <c r="G618">
         <v>304.4843050564993</v>
@@ -14629,7 +14629,7 @@
         <v>1738007483.741843</v>
       </c>
       <c r="F619">
-        <v>9.235521261383176E-09</v>
+        <v>115720978.1464962</v>
       </c>
       <c r="G619">
         <v>277.6895329283418</v>
@@ -14652,7 +14652,7 @@
         <v>1927336150.591557</v>
       </c>
       <c r="F620">
-        <v>-9.593164754504092E-10</v>
+        <v>-12201151.96824647</v>
       </c>
       <c r="G620">
         <v>183.4951509432091</v>

--- a/Project/IAG Solar Flux Atlas/Visible range/Data/valores_VIS.xlsx
+++ b/Project/IAG Solar Flux Atlas/Visible range/Data/valores_VIS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Emitted wavelength</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Blueshift</t>
+  </si>
+  <si>
+    <t>Line Depth</t>
   </si>
 </sst>
 </file>
@@ -392,13 +395,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G619"/>
+  <dimension ref="A1:H619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,8 +423,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>4060.8601</v>
       </c>
@@ -443,8 +449,11 @@
       <c r="G2">
         <v>265.769522269104</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>0.6803439183654112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>4068.4198</v>
       </c>
@@ -466,8 +475,11 @@
       <c r="G3">
         <v>420.0198343706457</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0.7901066895559821</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>4080.9899</v>
       </c>
@@ -489,8 +501,11 @@
       <c r="G4">
         <v>308.5350256500976</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>0.7858186200761461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4086.1573</v>
       </c>
@@ -512,8 +527,11 @@
       <c r="G5">
         <v>447.5437090595067</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0.7790780377800789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>4088.2476</v>
       </c>
@@ -535,8 +553,11 @@
       <c r="G6">
         <v>249.3230491164425</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>0.7112813520015782</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>4090.3712</v>
       </c>
@@ -558,8 +579,11 @@
       <c r="G7">
         <v>190.5598178486818</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>0.6765591331923925</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>4115.6059</v>
       </c>
@@ -581,8 +605,11 @@
       <c r="G8">
         <v>415.2042378173197</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>0.795527240394761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>4123.6785</v>
       </c>
@@ -604,8 +631,11 @@
       <c r="G9">
         <v>370.7712752136843</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>0.7744890945660605</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>4127.0443</v>
       </c>
@@ -627,8 +657,11 @@
       <c r="G10">
         <v>217.9228786601797</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>0.6914503108871057</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>4127.3466</v>
       </c>
@@ -650,8 +683,11 @@
       <c r="G11">
         <v>428.5502705727201</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>0.7881080697031204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>4135.8438</v>
       </c>
@@ -673,8 +709,11 @@
       <c r="G12">
         <v>587.1398987317552</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>0.8576220446917631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>4138.1645</v>
       </c>
@@ -696,8 +735,11 @@
       <c r="G13">
         <v>449.163690687972</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>0.8334632592684188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>4143.0314</v>
       </c>
@@ -719,8 +761,11 @@
       <c r="G14">
         <v>289.442612441809</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>0.6748110161382331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>4148.8386</v>
       </c>
@@ -742,8 +787,11 @@
       <c r="G15">
         <v>578.0749494276197</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0.8673427823677997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>4150.5351</v>
       </c>
@@ -765,8 +813,11 @@
       <c r="G16">
         <v>382.8181160130652</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>0.7995462621328999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>4151.4194</v>
       </c>
@@ -788,8 +839,11 @@
       <c r="G17">
         <v>252.7505660014645</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0.7384323257739469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>4155.6701</v>
       </c>
@@ -811,8 +865,11 @@
       <c r="G18">
         <v>605.9808855251404</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0.8642442583258624</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>4157.8434</v>
       </c>
@@ -834,8 +891,11 @@
       <c r="G19">
         <v>209.0983340903004</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0.7268617543100727</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>4157.9708</v>
       </c>
@@ -857,8 +917,11 @@
       <c r="G20">
         <v>511.9147185462162</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>0.8556089721892534</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>4159.965</v>
       </c>
@@ -880,8 +943,11 @@
       <c r="G21">
         <v>403.5701657879833</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>0.812327005804434</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>4172.8667</v>
       </c>
@@ -903,8 +969,11 @@
       <c r="G22">
         <v>265.8201602123155</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0.6763655068481514</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>4176.813</v>
       </c>
@@ -926,8 +995,11 @@
       <c r="G23">
         <v>538.3155613815759</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0.8589664767739071</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>4182.9332</v>
       </c>
@@ -949,8 +1021,11 @@
       <c r="G24">
         <v>609.1983235401069</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>0.8763452368193213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>4188.2189</v>
       </c>
@@ -972,8 +1047,11 @@
       <c r="G25">
         <v>866.1172752231712</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>0.8957590310911724</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>4188.9756</v>
       </c>
@@ -995,8 +1073,11 @@
       <c r="G26">
         <v>823.0206132480077</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>0.9026017678362328</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>4192.6118</v>
       </c>
@@ -1018,8 +1099,11 @@
       <c r="G27">
         <v>729.350394880863</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0.8843581576329899</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>4197.3907</v>
       </c>
@@ -1041,8 +1125,11 @@
       <c r="G28">
         <v>364.259999895956</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28">
+        <v>0.8126795454031721</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>4202.1078</v>
       </c>
@@ -1064,8 +1151,11 @@
       <c r="G29">
         <v>342.4480920311532</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29">
+        <v>0.7903345466446643</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>4203.937</v>
       </c>
@@ -1087,8 +1177,11 @@
       <c r="G30">
         <v>164.0183127212145</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30">
+        <v>0.6385749018399864</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>4206.7233</v>
       </c>
@@ -1110,8 +1203,11 @@
       <c r="G31">
         <v>242.3012603376983</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31">
+        <v>0.7405834416051831</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>4208.3123</v>
       </c>
@@ -1133,8 +1229,11 @@
       <c r="G32">
         <v>327.6955721519653</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <v>0.7854662465112778</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>4209.7896</v>
       </c>
@@ -1156,8 +1255,11 @@
       <c r="G33">
         <v>348.9445278339981</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33">
+        <v>0.7896292387487542</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>4214.8343</v>
       </c>
@@ -1179,8 +1281,11 @@
       <c r="G34">
         <v>369.8652593414868</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34">
+        <v>0.8027153879819657</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>4217.3714</v>
       </c>
@@ -1202,8 +1307,11 @@
       <c r="G35">
         <v>639.7663061169517</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0.8713797149497385</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>4221.5304</v>
       </c>
@@ -1225,8 +1333,11 @@
       <c r="G36">
         <v>284.0604516309946</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36">
+        <v>0.7775019682499328</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>4223.4023</v>
       </c>
@@ -1248,8 +1359,11 @@
       <c r="G37">
         <v>624.6560103101266</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0.8757766186485251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>4233.9182</v>
       </c>
@@ -1271,8 +1385,11 @@
       <c r="G38">
         <v>261.9871339873538</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38">
+        <v>0.692348898972709</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>4234.795</v>
       </c>
@@ -1294,8 +1411,11 @@
       <c r="G39">
         <v>750.4023346596774</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39">
+        <v>0.904425847099173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>4239.2172</v>
       </c>
@@ -1317,8 +1437,11 @@
       <c r="G40">
         <v>410.1691831947993</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40">
+        <v>0.8072103287989881</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>4240.0035</v>
       </c>
@@ -1340,8 +1463,11 @@
       <c r="G41">
         <v>544.4339672244564</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41">
+        <v>0.8543108584850906</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>4241.0415</v>
       </c>
@@ -1363,8 +1489,11 @@
       <c r="G42">
         <v>325.1666616663467</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0.8085366399240199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>4259.5145</v>
       </c>
@@ -1386,8 +1515,11 @@
       <c r="G43">
         <v>373.0237394995142</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43">
+        <v>0.820466463764669</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>4260.1505</v>
       </c>
@@ -1409,8 +1541,11 @@
       <c r="G44">
         <v>197.0397248583244</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44">
+        <v>0.6071577740687559</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>4283.6079</v>
       </c>
@@ -1432,8 +1567,11 @@
       <c r="G45">
         <v>657.868126838672</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0.9009604360500328</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>4289.3523</v>
       </c>
@@ -1455,8 +1593,11 @@
       <c r="G46">
         <v>293.5474252888413</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46">
+        <v>0.7325908739519673</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>4292.671</v>
       </c>
@@ -1478,8 +1619,11 @@
       <c r="G47">
         <v>474.8998268352669</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47">
+        <v>0.8518625746873532</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>4327.9699</v>
       </c>
@@ -1501,8 +1645,11 @@
       <c r="G48">
         <v>256.2938560653144</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48">
+        <v>0.7084813700455088</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>4338.2657</v>
       </c>
@@ -1524,8 +1671,11 @@
       <c r="G49">
         <v>642.6692259643091</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0.8887709112817721</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>4344.9186</v>
       </c>
@@ -1547,8 +1697,11 @@
       <c r="G50">
         <v>213.8950588812401</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50">
+        <v>0.6983364578705182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>4347.7745</v>
       </c>
@@ -1570,8 +1723,11 @@
       <c r="G51">
         <v>289.6029504961268</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51">
+        <v>0.7021782584217828</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>4369.1311</v>
       </c>
@@ -1593,8 +1749,11 @@
       <c r="G52">
         <v>356.8033886013742</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0.8002326577503088</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>4374.7896</v>
       </c>
@@ -1616,8 +1775,11 @@
       <c r="G53">
         <v>287.8146011330351</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53">
+        <v>0.6993665456652833</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>4389.1239</v>
       </c>
@@ -1639,8 +1801,11 @@
       <c r="G54">
         <v>341.5174244912277</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54">
+        <v>0.7702333268942558</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>4389.6397</v>
       </c>
@@ -1662,8 +1827,11 @@
       <c r="G55">
         <v>402.9432078835075</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55">
+        <v>0.8174687719325606</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>4431.433</v>
       </c>
@@ -1685,8 +1853,11 @@
       <c r="G56">
         <v>297.6659728998812</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56">
+        <v>0.6760349481700048</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>4431.858</v>
       </c>
@@ -1708,8 +1879,11 @@
       <c r="G57">
         <v>480.2785765380352</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0.8557482961978014</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>4433.8124</v>
       </c>
@@ -1731,8 +1905,11 @@
       <c r="G58">
         <v>223.1296731169361</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58">
+        <v>0.5950405024422443</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>4435.0272</v>
       </c>
@@ -1754,8 +1931,11 @@
       <c r="G59">
         <v>196.0299427505224</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59">
+        <v>0.7172096366164271</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>4439.5893</v>
       </c>
@@ -1777,8 +1957,11 @@
       <c r="G60">
         <v>135.0541403128878</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60">
+        <v>0.5714220346917367</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>4443.5861</v>
       </c>
@@ -1800,8 +1983,11 @@
       <c r="G61">
         <v>661.1700599896367</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61">
+        <v>0.8847574877023655</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>4444.0788</v>
       </c>
@@ -1823,8 +2009,11 @@
       <c r="G62">
         <v>155.1553616828429</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0.7006796987777506</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>4446.7194</v>
       </c>
@@ -1846,8 +2035,11 @@
       <c r="G63">
         <v>202.2563811936968</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63">
+        <v>0.5298217111293654</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>4448.3788</v>
       </c>
@@ -1869,8 +2061,11 @@
       <c r="G64">
         <v>188.702203614514</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64">
+        <v>0.7152369654944635</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>4451.5648</v>
       </c>
@@ -1892,8 +2087,11 @@
       <c r="G65">
         <v>188.567148885014</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65">
+        <v>0.6208133047802844</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>4457.5765</v>
       </c>
@@ -1915,8 +2113,11 @@
       <c r="G66">
         <v>228.665589275114</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66">
+        <v>0.6082938137373276</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>4459.3315</v>
       </c>
@@ -1938,8 +2139,11 @@
       <c r="G67">
         <v>215.1299731215746</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67">
+        <v>0.6723589591549106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>4462.905</v>
       </c>
@@ -1961,8 +2165,11 @@
       <c r="G68">
         <v>651.590576692827</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68">
+        <v>0.8938459294291782</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>4470.6298</v>
       </c>
@@ -1984,8 +2191,11 @@
       <c r="G69">
         <v>476.1133324334923</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69">
+        <v>0.830741913519467</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>4481.3936</v>
       </c>
@@ -2007,8 +2217,11 @@
       <c r="G70">
         <v>294.3474581678471</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0.6856382660441731</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>4482.8668</v>
       </c>
@@ -2030,8 +2243,11 @@
       <c r="G71">
         <v>147.1253635152767</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71">
+        <v>0.6053486031192793</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>4485.478</v>
       </c>
@@ -2053,8 +2269,11 @@
       <c r="G72">
         <v>414.3846518596338</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72">
+        <v>0.8086910099361451</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>4486.9341</v>
       </c>
@@ -2076,8 +2295,11 @@
       <c r="G73">
         <v>320.7098134557457</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73">
+        <v>0.7353148774641829</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>4490.9987</v>
       </c>
@@ -2099,8 +2321,11 @@
       <c r="G74">
         <v>467.2785155310381</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74">
+        <v>0.8562547662390388</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>4495.8241</v>
       </c>
@@ -2122,8 +2347,11 @@
       <c r="G75">
         <v>666.8242603116864</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75">
+        <v>0.8900588373332528</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>4503.8539</v>
       </c>
@@ -2145,8 +2373,11 @@
       <c r="G76">
         <v>139.7834334295682</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76">
+        <v>0.3371844323924367</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>4518.7914</v>
       </c>
@@ -2168,8 +2399,11 @@
       <c r="G77">
         <v>298.5457706426967</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77">
+        <v>0.6815357222164565</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>4526.4058</v>
       </c>
@@ -2191,8 +2425,11 @@
       <c r="G78">
         <v>450.3769224949012</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78">
+        <v>0.8167329180480531</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>4532.4187</v>
       </c>
@@ -2214,8 +2451,11 @@
       <c r="G79">
         <v>555.6098881618403</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0.8700110224573852</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>4576</v>
       </c>
@@ -2237,8 +2477,11 @@
       <c r="G80">
         <v>229.2993013639036</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80">
+        <v>0.6377496579580966</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>4588.4129</v>
       </c>
@@ -2260,8 +2503,11 @@
       <c r="G81">
         <v>209.0779288170725</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81">
+        <v>0.5919584834795377</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>4599.4054</v>
       </c>
@@ -2283,8 +2529,11 @@
       <c r="G82">
         <v>312.8673542714655</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0.7231253609393277</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>4604.2305</v>
       </c>
@@ -2306,8 +2555,11 @@
       <c r="G83">
         <v>546.9440870266576</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83">
+        <v>0.8564216159334376</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>4620.5818</v>
       </c>
@@ -2329,8 +2581,11 @@
       <c r="G84">
         <v>343.874450491872</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0.7439120709174369</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>4626.3406</v>
       </c>
@@ -2352,8 +2607,11 @@
       <c r="G85">
         <v>388.8072460332779</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="H85">
+        <v>0.764435317221818</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>4631.417</v>
       </c>
@@ -2375,8 +2633,11 @@
       <c r="G86">
         <v>310.7048660066733</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="H86">
+        <v>0.7204123007734964</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>4637.1444</v>
       </c>
@@ -2398,8 +2659,11 @@
       <c r="G87">
         <v>213.3457633124699</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="H87">
+        <v>0.6024796447009815</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>4638.802</v>
       </c>
@@ -2421,8 +2685,11 @@
       <c r="G88">
         <v>381.3000645609939</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88">
+        <v>0.7560174969810854</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>4644.7636</v>
       </c>
@@ -2444,8 +2711,11 @@
       <c r="G89">
         <v>296.9032281587631</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="H89">
+        <v>0.6989471446505854</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>4648.7355</v>
       </c>
@@ -2467,8 +2737,11 @@
       <c r="G90">
         <v>406.2809091746796</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90">
+        <v>0.7896768734246695</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>4668.7597</v>
       </c>
@@ -2490,8 +2763,11 @@
       <c r="G91">
         <v>443.0658447541525</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91">
+        <v>0.7823381812315782</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>4680.1554</v>
       </c>
@@ -2513,8 +2789,11 @@
       <c r="G92">
         <v>429.1758065331456</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="H92">
+        <v>0.7927271156619249</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>4681.6048</v>
       </c>
@@ -2536,8 +2815,11 @@
       <c r="G93">
         <v>192.1087772959738</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="H93">
+        <v>0.5433136474218301</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>4684.8705</v>
       </c>
@@ -2559,8 +2841,11 @@
       <c r="G94">
         <v>223.9706739074899</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="H94">
+        <v>0.5758012344076833</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>4708.5916</v>
       </c>
@@ -2582,8 +2867,11 @@
       <c r="G95">
         <v>483.8862391094023</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="H95">
+        <v>0.8010826059354543</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>4729.8685</v>
       </c>
@@ -2605,8 +2893,11 @@
       <c r="G96">
         <v>310.5758742266656</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0.7084820195523041</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>4730.3421</v>
       </c>
@@ -2628,8 +2919,11 @@
       <c r="G97">
         <v>133.0906197710555</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0.4354045426706969</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>4747.1274</v>
       </c>
@@ -2651,8 +2945,11 @@
       <c r="G98">
         <v>290.501010511149</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="H98">
+        <v>0.6851848356660943</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>4780.7756</v>
       </c>
@@ -2674,8 +2971,11 @@
       <c r="G99">
         <v>150.4989900454793</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0.456145582262137</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>4788.1452</v>
       </c>
@@ -2697,8 +2997,11 @@
       <c r="G100">
         <v>344.3626812155902</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0.7387230932126104</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>4789.1654</v>
       </c>
@@ -2720,8 +3023,11 @@
       <c r="G101">
         <v>143.9755355749279</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="H101">
+        <v>0.4310754351630374</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>4790.9897</v>
       </c>
@@ -2743,8 +3049,11 @@
       <c r="G102">
         <v>362.930493525311</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0.7458019890269481</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>4799.6061</v>
       </c>
@@ -2766,8 +3075,11 @@
       <c r="G103">
         <v>137.4161532692214</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0.4598661216703269</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>4801.9909</v>
       </c>
@@ -2789,8 +3101,11 @@
       <c r="G104">
         <v>255.9665571096439</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="H104">
+        <v>0.5834592871632225</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>4809.0525</v>
       </c>
@@ -2812,8 +3127,11 @@
       <c r="G105">
         <v>199.4854216284294</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="H105">
+        <v>0.5219946382058223</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>4837.2191</v>
       </c>
@@ -2835,8 +3153,11 @@
       <c r="G106">
         <v>185.928599729905</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="H106">
+        <v>0.5063778485713047</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>4840.8967</v>
       </c>
@@ -2858,8 +3179,11 @@
       <c r="G107">
         <v>297.2597614746506</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="H107">
+        <v>0.6315772518641343</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>4857.0297</v>
       </c>
@@ -2881,8 +3205,11 @@
       <c r="G108">
         <v>308.6170731065522</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="H108">
+        <v>0.6382885721482485</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>4861.099</v>
       </c>
@@ -2904,8 +3231,11 @@
       <c r="G109">
         <v>592.0487520753957</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="H109">
+        <v>0.8513192696830707</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>4872.6789</v>
       </c>
@@ -2927,8 +3257,11 @@
       <c r="G110">
         <v>658.3194514542251</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="H110">
+        <v>0.8803563776772044</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>4873.4986</v>
       </c>
@@ -2950,8 +3283,11 @@
       <c r="G111">
         <v>608.9968578792935</v>
       </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="H111">
+        <v>0.8681021497087931</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>4877.2394</v>
       </c>
@@ -2973,8 +3309,11 @@
       <c r="G112">
         <v>239.7238458567368</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="H112">
+        <v>0.5878900842509478</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>4883.0812</v>
       </c>
@@ -2996,8 +3335,11 @@
       <c r="G113">
         <v>251.7158792702025</v>
       </c>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="H113">
+        <v>0.6252776468420768</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>4883.5069</v>
       </c>
@@ -3019,8 +3361,11 @@
       <c r="G114">
         <v>337.6382080836308</v>
       </c>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="H114">
+        <v>0.6632892551235574</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115">
         <v>4886.795</v>
       </c>
@@ -3042,8 +3387,11 @@
       <c r="G115">
         <v>294.4678052522808</v>
       </c>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="H115">
+        <v>0.6650947218634582</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116">
         <v>4887.6964</v>
       </c>
@@ -3065,8 +3413,11 @@
       <c r="G116">
         <v>294.4134988518495</v>
       </c>
-    </row>
-    <row r="117" spans="1:7">
+      <c r="H116">
+        <v>0.6719845380594884</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117">
         <v>4892.1209</v>
       </c>
@@ -3088,8 +3439,11 @@
       <c r="G117">
         <v>637.3189924937482</v>
       </c>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="H117">
+        <v>0.8768514555722562</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118">
         <v>4892.8584</v>
       </c>
@@ -3111,8 +3465,11 @@
       <c r="G118">
         <v>637.2229294924234</v>
       </c>
-    </row>
-    <row r="119" spans="1:7">
+      <c r="H118">
+        <v>0.8942411690189764</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119">
         <v>4894.2253</v>
       </c>
@@ -3134,8 +3491,11 @@
       <c r="G119">
         <v>171.5121047806323</v>
       </c>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="H119">
+        <v>0.5195562323720256</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120">
         <v>4909.1021</v>
       </c>
@@ -3157,8 +3517,11 @@
       <c r="G120">
         <v>256.4885182820136</v>
       </c>
-    </row>
-    <row r="121" spans="1:7">
+      <c r="H120">
+        <v>0.5922319972856396</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121">
         <v>4910.7542</v>
       </c>
@@ -3180,8 +3543,11 @@
       <c r="G121">
         <v>238.0877841652245</v>
       </c>
-    </row>
-    <row r="122" spans="1:7">
+      <c r="H121">
+        <v>0.5989812244014356</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122">
         <v>4911.3878</v>
       </c>
@@ -3203,8 +3569,11 @@
       <c r="G122">
         <v>354.0335903691859</v>
       </c>
-    </row>
-    <row r="123" spans="1:7">
+      <c r="H122">
+        <v>0.7076214020625073</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123">
         <v>4911.6968</v>
       </c>
@@ -3226,8 +3595,11 @@
       <c r="G123">
         <v>323.4931006854778</v>
       </c>
-    </row>
-    <row r="124" spans="1:7">
+      <c r="H123">
+        <v>0.660415724254469</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124">
         <v>4911.9359</v>
       </c>
@@ -3249,8 +3621,11 @@
       <c r="G124">
         <v>317.3740075352466</v>
       </c>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="H124">
+        <v>0.6524411177643716</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125">
         <v>4918.6028</v>
       </c>
@@ -3272,8 +3647,11 @@
       <c r="G125">
         <v>231.6127946815793</v>
       </c>
-    </row>
-    <row r="126" spans="1:7">
+      <c r="H125">
+        <v>0.5929120944875157</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126">
         <v>4919.3855</v>
       </c>
@@ -3295,8 +3673,11 @@
       <c r="G126">
         <v>170.6349059582614</v>
       </c>
-    </row>
-    <row r="127" spans="1:7">
+      <c r="H126">
+        <v>0.5278719974258403</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127">
         <v>4921.8768</v>
       </c>
@@ -3318,8 +3699,11 @@
       <c r="G127">
         <v>651.7390481277853</v>
       </c>
-    </row>
-    <row r="128" spans="1:7">
+      <c r="H127">
+        <v>0.9039691995546685</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128">
         <v>4926.1443</v>
       </c>
@@ -3341,8 +3725,11 @@
       <c r="G128">
         <v>450.3449460945492</v>
       </c>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="H128">
+        <v>0.7563244830869466</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>4939.5522</v>
       </c>
@@ -3364,8 +3751,11 @@
       <c r="G129">
         <v>285.2534997672307</v>
       </c>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="H129">
+        <v>0.6652822610198607</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>4940.1923</v>
       </c>
@@ -3387,8 +3777,11 @@
       <c r="G130">
         <v>515.8171460386473</v>
       </c>
-    </row>
-    <row r="131" spans="1:7">
+      <c r="H130">
+        <v>0.8114821370236428</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131">
         <v>4941.0654</v>
       </c>
@@ -3410,8 +3803,11 @@
       <c r="G131">
         <v>436.8502585778521</v>
       </c>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="H131">
+        <v>0.8012260684155024</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132">
         <v>4947.0177</v>
       </c>
@@ -3433,8 +3829,11 @@
       <c r="G132">
         <v>115.1412233835772</v>
       </c>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="H132">
+        <v>0.4331426863315463</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133">
         <v>4947.7686</v>
       </c>
@@ -3456,8 +3855,11 @@
       <c r="G133">
         <v>430.1992724144051</v>
       </c>
-    </row>
-    <row r="134" spans="1:7">
+      <c r="H133">
+        <v>0.7476831094376105</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134">
         <v>4951.4876</v>
       </c>
@@ -3479,8 +3881,11 @@
       <c r="G134">
         <v>284.5659055113994</v>
       </c>
-    </row>
-    <row r="135" spans="1:7">
+      <c r="H134">
+        <v>0.6573286703253378</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135">
         <v>4967.4747</v>
       </c>
@@ -3502,8 +3907,11 @@
       <c r="G135">
         <v>506.9490635269828</v>
       </c>
-    </row>
-    <row r="136" spans="1:7">
+      <c r="H135">
+        <v>0.7917329293082377</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136">
         <v>4969.2836</v>
       </c>
@@ -3525,8 +3933,11 @@
       <c r="G136">
         <v>355.9417502842903</v>
       </c>
-    </row>
-    <row r="137" spans="1:7">
+      <c r="H136">
+        <v>0.6748110263073399</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137">
         <v>4971.3044</v>
       </c>
@@ -3548,8 +3959,11 @@
       <c r="G137">
         <v>271.3706408958692</v>
       </c>
-    </row>
-    <row r="138" spans="1:7">
+      <c r="H137">
+        <v>0.6551439216646606</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138">
         <v>4971.8828</v>
       </c>
@@ -3571,8 +3985,11 @@
       <c r="G138">
         <v>217.0712569241121</v>
       </c>
-    </row>
-    <row r="139" spans="1:7">
+      <c r="H138">
+        <v>0.5484680350726112</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139">
         <v>4983.8901</v>
       </c>
@@ -3594,8 +4011,11 @@
       <c r="G139">
         <v>469.1879486788494</v>
       </c>
-    </row>
-    <row r="140" spans="1:7">
+      <c r="H139">
+        <v>0.7902816403792761</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140">
         <v>4984.6411</v>
       </c>
@@ -3617,8 +4037,11 @@
       <c r="G140">
         <v>402.9596972688693</v>
       </c>
-    </row>
-    <row r="141" spans="1:7">
+      <c r="H140">
+        <v>0.7489407656402594</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141">
         <v>4985.2434</v>
       </c>
@@ -3640,8 +4063,11 @@
       <c r="G141">
         <v>481.087776799038</v>
       </c>
-    </row>
-    <row r="142" spans="1:7">
+      <c r="H141">
+        <v>0.7741567351864708</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142">
         <v>4986.6438</v>
       </c>
@@ -3663,8 +4089,11 @@
       <c r="G142">
         <v>396.7859550963246</v>
       </c>
-    </row>
-    <row r="143" spans="1:7">
+      <c r="H142">
+        <v>0.7412602504433186</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143">
         <v>4987.6138</v>
       </c>
@@ -3686,8 +4115,11 @@
       <c r="G143">
         <v>192.3436545480818</v>
       </c>
-    </row>
-    <row r="144" spans="1:7">
+      <c r="H143">
+        <v>0.4746179851400748</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144">
         <v>4990.3419</v>
       </c>
@@ -3709,8 +4141,11 @@
       <c r="G144">
         <v>324.4024769414405</v>
       </c>
-    </row>
-    <row r="145" spans="1:7">
+      <c r="H144">
+        <v>0.6920340736033339</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145">
         <v>4992.6608</v>
       </c>
@@ -3732,8 +4167,11 @@
       <c r="G145">
         <v>330.2564674919828</v>
       </c>
-    </row>
-    <row r="146" spans="1:7">
+      <c r="H145">
+        <v>0.6925629061022113</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146">
         <v>4995.5228</v>
       </c>
@@ -3755,8 +4193,11 @@
       <c r="G146">
         <v>474.0966087110568</v>
       </c>
-    </row>
-    <row r="147" spans="1:7">
+      <c r="H146">
+        <v>0.8125651768018346</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147">
         <v>5000.5071</v>
       </c>
@@ -3778,8 +4219,11 @@
       <c r="G147">
         <v>77.93813460503492</v>
       </c>
-    </row>
-    <row r="148" spans="1:7">
+      <c r="H147">
+        <v>0.3281315920932627</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148">
         <v>5003.2589</v>
       </c>
@@ -3801,8 +4245,11 @@
       <c r="G148">
         <v>521.2991046090349</v>
       </c>
-    </row>
-    <row r="149" spans="1:7">
+      <c r="H148">
+        <v>0.8031623942925962</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149">
         <v>5004.1883</v>
       </c>
@@ -3824,8 +4271,11 @@
       <c r="G149">
         <v>329.4956984682663</v>
       </c>
-    </row>
-    <row r="150" spans="1:7">
+      <c r="H149">
+        <v>0.6677143763989853</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150">
         <v>5005.4402</v>
       </c>
@@ -3847,8 +4297,11 @@
       <c r="G150">
         <v>179.679975804255</v>
       </c>
-    </row>
-    <row r="151" spans="1:7">
+      <c r="H150">
+        <v>0.4696564086272872</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151">
         <v>5007.1086</v>
       </c>
@@ -3870,8 +4323,11 @@
       <c r="G151">
         <v>478.9869474924316</v>
       </c>
-    </row>
-    <row r="152" spans="1:7">
+      <c r="H151">
+        <v>0.7901686918911591</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152">
         <v>5016.3412</v>
       </c>
@@ -3893,8 +4349,11 @@
       <c r="G152">
         <v>472.1290525933568</v>
       </c>
-    </row>
-    <row r="153" spans="1:7">
+      <c r="H152">
+        <v>0.7717442042767358</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153">
         <v>5023.6362</v>
       </c>
@@ -3916,8 +4375,11 @@
       <c r="G153">
         <v>405.7994315701984</v>
       </c>
-    </row>
-    <row r="154" spans="1:7">
+      <c r="H153">
+        <v>0.7394236184705167</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154">
         <v>5024.5876</v>
       </c>
@@ -3939,8 +4401,11 @@
       <c r="G154">
         <v>95.46413974590695</v>
       </c>
-    </row>
-    <row r="155" spans="1:7">
+      <c r="H154">
+        <v>0.3836735913838397</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155">
         <v>5029.1588</v>
       </c>
@@ -3962,8 +4427,11 @@
       <c r="G155">
         <v>220.5601649670804</v>
       </c>
-    </row>
-    <row r="156" spans="1:7">
+      <c r="H155">
+        <v>0.5335009227029314</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156">
         <v>5029.5286</v>
       </c>
@@ -3985,8 +4453,11 @@
       <c r="G156">
         <v>363.5994820882458</v>
       </c>
-    </row>
-    <row r="157" spans="1:7">
+      <c r="H156">
+        <v>0.6921920022772385</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157">
         <v>5031.0203</v>
       </c>
@@ -4008,8 +4479,11 @@
       <c r="G157">
         <v>196.6430370832692</v>
       </c>
-    </row>
-    <row r="158" spans="1:7">
+      <c r="H157">
+        <v>0.5012232781526496</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158">
         <v>5032.1816</v>
       </c>
@@ -4031,8 +4505,11 @@
       <c r="G158">
         <v>83.40506653986466</v>
       </c>
-    </row>
-    <row r="159" spans="1:7">
+      <c r="H158">
+        <v>0.239944677141278</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159">
         <v>5043.1619</v>
       </c>
@@ -4054,8 +4531,11 @@
       <c r="G159">
         <v>540.9525654431335</v>
       </c>
-    </row>
-    <row r="160" spans="1:7">
+      <c r="H159">
+        <v>0.8260290647744217</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160">
         <v>5045.6179</v>
       </c>
@@ -4077,8 +4557,11 @@
       <c r="G160">
         <v>320.8485670637207</v>
       </c>
-    </row>
-    <row r="161" spans="1:7">
+      <c r="H160">
+        <v>0.6563079008514997</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161">
         <v>5056.0519</v>
       </c>
@@ -4100,8 +4583,11 @@
       <c r="G161">
         <v>142.3050857498608</v>
       </c>
-    </row>
-    <row r="162" spans="1:7">
+      <c r="H161">
+        <v>0.4030158209369917</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162">
         <v>5070.1789</v>
       </c>
@@ -4123,8 +4609,11 @@
       <c r="G162">
         <v>514.4186105117282</v>
       </c>
-    </row>
-    <row r="163" spans="1:7">
+      <c r="H162">
+        <v>0.7961429387255408</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163">
         <v>5074.0862</v>
       </c>
@@ -4146,8 +4635,11 @@
       <c r="G163">
         <v>271.7820022335343</v>
       </c>
-    </row>
-    <row r="164" spans="1:7">
+      <c r="H163">
+        <v>0.584452930714343</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164">
         <v>5080.3906</v>
       </c>
@@ -4169,8 +4661,11 @@
       <c r="G164">
         <v>413.0680830430368</v>
       </c>
-    </row>
-    <row r="165" spans="1:7">
+      <c r="H164">
+        <v>0.7139706054405008</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165">
         <v>5084.7555</v>
       </c>
@@ -4192,8 +4687,11 @@
       <c r="G165">
         <v>489.3602850913582</v>
       </c>
-    </row>
-    <row r="166" spans="1:7">
+      <c r="H165">
+        <v>0.8122212510387737</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166">
         <v>5092.1929</v>
       </c>
@@ -4215,8 +4713,11 @@
       <c r="G166">
         <v>382.6742260723846</v>
       </c>
-    </row>
-    <row r="167" spans="1:7">
+      <c r="H166">
+        <v>0.691675152993783</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167">
         <v>5100.1192</v>
       </c>
@@ -4238,8 +4739,11 @@
       <c r="G167">
         <v>452.6172499647096</v>
       </c>
-    </row>
-    <row r="168" spans="1:7">
+      <c r="H167">
+        <v>0.7844296570635152</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168">
         <v>5100.4984</v>
       </c>
@@ -4261,8 +4765,11 @@
       <c r="G168">
         <v>152.8204362913692</v>
       </c>
-    </row>
-    <row r="169" spans="1:7">
+      <c r="H168">
+        <v>0.5100251947261036</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169">
         <v>5108.8708</v>
       </c>
@@ -4284,8 +4791,11 @@
       <c r="G169">
         <v>492.9184444256738</v>
       </c>
-    </row>
-    <row r="170" spans="1:7">
+      <c r="H169">
+        <v>0.7919464629646477</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170">
         <v>5117.2037</v>
       </c>
@@ -4307,8 +4817,11 @@
       <c r="G170">
         <v>105.4533796425313</v>
       </c>
-    </row>
-    <row r="171" spans="1:7">
+      <c r="H170">
+        <v>0.2644481261816555</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171">
         <v>5128.788</v>
       </c>
@@ -4330,8 +4843,11 @@
       <c r="G171">
         <v>438.3966416710136</v>
       </c>
-    </row>
-    <row r="172" spans="1:7">
+      <c r="H171">
+        <v>0.7831205581170568</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172">
         <v>5132.8984</v>
       </c>
@@ -4353,8 +4869,11 @@
       <c r="G172">
         <v>344.5958529469589</v>
       </c>
-    </row>
-    <row r="173" spans="1:7">
+      <c r="H172">
+        <v>0.698704371657724</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173">
         <v>5138.8135</v>
       </c>
@@ -4376,8 +4895,11 @@
       <c r="G173">
         <v>449.2091270625259</v>
       </c>
-    </row>
-    <row r="174" spans="1:7">
+      <c r="H173">
+        <v>0.74280088979452</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174">
         <v>5143.1715</v>
       </c>
@@ -4399,8 +4921,11 @@
       <c r="G174">
         <v>419.6837880060606</v>
       </c>
-    </row>
-    <row r="175" spans="1:7">
+      <c r="H174">
+        <v>0.7075075349888039</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175">
         <v>5149.477</v>
       </c>
@@ -4422,8 +4947,11 @@
       <c r="G175">
         <v>308.5556120529431</v>
       </c>
-    </row>
-    <row r="176" spans="1:7">
+      <c r="H175">
+        <v>0.6336818599853402</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176">
         <v>5149.6634</v>
       </c>
@@ -4445,8 +4973,11 @@
       <c r="G176">
         <v>343.4740029958317</v>
       </c>
-    </row>
-    <row r="177" spans="1:7">
+      <c r="H176">
+        <v>0.6891384886627583</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177">
         <v>5160.4947</v>
       </c>
@@ -4468,8 +4999,11 @@
       <c r="G177">
         <v>325.3249663559829</v>
       </c>
-    </row>
-    <row r="178" spans="1:7">
+      <c r="H177">
+        <v>0.6081186511290486</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178">
         <v>5163.7108</v>
       </c>
@@ -4491,8 +5025,11 @@
       <c r="G178">
         <v>510.9065423744759</v>
       </c>
-    </row>
-    <row r="179" spans="1:7">
+      <c r="H178">
+        <v>0.7908380866272035</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179">
         <v>5166.8495</v>
       </c>
@@ -4514,8 +5051,11 @@
       <c r="G179">
         <v>353.9359901292509</v>
       </c>
-    </row>
-    <row r="180" spans="1:7">
+      <c r="H179">
+        <v>0.6820622644212359</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180">
         <v>5196.3884</v>
       </c>
@@ -4537,8 +5077,11 @@
       <c r="G180">
         <v>548.0784213416688</v>
       </c>
-    </row>
-    <row r="181" spans="1:7">
+      <c r="H180">
+        <v>0.815097548620794</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181">
         <v>5196.9191</v>
       </c>
@@ -4560,8 +5103,11 @@
       <c r="G181">
         <v>444.1866194437167</v>
       </c>
-    </row>
-    <row r="182" spans="1:7">
+      <c r="H181">
+        <v>0.7281781818426734</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182">
         <v>5197.5065</v>
       </c>
@@ -4583,8 +5129,11 @@
       <c r="G182">
         <v>265.3282505137445</v>
       </c>
-    </row>
-    <row r="183" spans="1:7">
+      <c r="H182">
+        <v>0.6229308792770727</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183">
         <v>5200.1588</v>
       </c>
@@ -4606,8 +5155,11 @@
       <c r="G183">
         <v>397.7893828895714</v>
       </c>
-    </row>
-    <row r="184" spans="1:7">
+      <c r="H183">
+        <v>0.7465538255316689</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184">
         <v>5216.6327</v>
       </c>
@@ -4629,8 +5181,11 @@
       <c r="G184">
         <v>476.9891890594358</v>
       </c>
-    </row>
-    <row r="185" spans="1:7">
+      <c r="H184">
+        <v>0.7644508814491336</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185">
         <v>5217.7263</v>
       </c>
@@ -4652,8 +5207,11 @@
       <c r="G185">
         <v>511.3631345934462</v>
       </c>
-    </row>
-    <row r="186" spans="1:7">
+      <c r="H185">
+        <v>0.8036280540344564</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186">
         <v>5218.842</v>
       </c>
@@ -4675,8 +5233,11 @@
       <c r="G186">
         <v>453.8095651284285</v>
       </c>
-    </row>
-    <row r="187" spans="1:7">
+      <c r="H186">
+        <v>0.7485055622805075</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187">
         <v>5224.6397</v>
       </c>
@@ -4698,8 +5259,11 @@
       <c r="G187">
         <v>45.90440303461416</v>
       </c>
-    </row>
-    <row r="188" spans="1:7">
+      <c r="H187">
+        <v>0.3061629616512609</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188">
         <v>5226.9809</v>
       </c>
@@ -4721,8 +5285,11 @@
       <c r="G188">
         <v>355.5997765012312</v>
       </c>
-    </row>
-    <row r="189" spans="1:7">
+      <c r="H188">
+        <v>0.6926021427250972</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189">
         <v>5229.8323</v>
       </c>
@@ -4744,8 +5311,11 @@
       <c r="G189">
         <v>194.9000080013638</v>
       </c>
-    </row>
-    <row r="190" spans="1:7">
+      <c r="H189">
+        <v>0.5415159541912737</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190">
         <v>5234.3971</v>
       </c>
@@ -4767,8 +5337,11 @@
       <c r="G190">
         <v>664.3730779968311</v>
       </c>
-    </row>
-    <row r="191" spans="1:7">
+      <c r="H190">
+        <v>0.8676501461689181</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191">
         <v>5243.9504</v>
       </c>
@@ -4790,8 +5363,11 @@
       <c r="G191">
         <v>440.2028529040152</v>
       </c>
-    </row>
-    <row r="192" spans="1:7">
+      <c r="H191">
+        <v>0.7015472097665896</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192">
         <v>5245.2366</v>
       </c>
@@ -4813,8 +5389,11 @@
       <c r="G192">
         <v>251.4828053927618</v>
       </c>
-    </row>
-    <row r="193" spans="1:7">
+      <c r="H192">
+        <v>0.5533909761674018</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193">
         <v>5248.511</v>
       </c>
@@ -4836,8 +5415,11 @@
       <c r="G193">
         <v>319.8693428737197</v>
       </c>
-    </row>
-    <row r="194" spans="1:7">
+      <c r="H193">
+        <v>0.6613854432462266</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194">
         <v>5251.6703</v>
       </c>
@@ -4859,8 +5441,11 @@
       <c r="G194">
         <v>319.6769159203166</v>
       </c>
-    </row>
-    <row r="195" spans="1:7">
+      <c r="H194">
+        <v>0.6605623114043516</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195">
         <v>5252.1075</v>
       </c>
@@ -4882,8 +5467,11 @@
       <c r="G195">
         <v>410.9789637229379</v>
       </c>
-    </row>
-    <row r="196" spans="1:7">
+      <c r="H195">
+        <v>0.7530148162916357</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196">
         <v>5254.924</v>
       </c>
@@ -4905,8 +5493,11 @@
       <c r="G196">
         <v>325.1839627733391</v>
       </c>
-    </row>
-    <row r="197" spans="1:7">
+      <c r="H196">
+        <v>0.647540145508211</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197">
         <v>5271.0039</v>
       </c>
@@ -4928,8 +5519,11 @@
       <c r="G197">
         <v>745.0727175472458</v>
       </c>
-    </row>
-    <row r="198" spans="1:7">
+      <c r="H197">
+        <v>0.8925329215332761</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198">
         <v>5283.2601</v>
       </c>
@@ -4951,8 +5545,11 @@
       <c r="G198">
         <v>533.3920821375108</v>
       </c>
-    </row>
-    <row r="199" spans="1:7">
+      <c r="H198">
+        <v>0.7940442362043196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199">
         <v>5323.5213</v>
       </c>
@@ -4974,8 +5571,11 @@
       <c r="G199">
         <v>320.9937396896644</v>
       </c>
-    </row>
-    <row r="200" spans="1:7">
+      <c r="H199">
+        <v>0.5768435612032701</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200">
         <v>5325.6601</v>
       </c>
@@ -4997,8 +5597,11 @@
       <c r="G200">
         <v>624.8420329569337</v>
       </c>
-    </row>
-    <row r="201" spans="1:7">
+      <c r="H200">
+        <v>0.8387909906637725</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201">
         <v>5327.6244</v>
       </c>
@@ -5020,8 +5623,11 @@
       <c r="G201">
         <v>163.1868283250007</v>
       </c>
-    </row>
-    <row r="202" spans="1:7">
+      <c r="H201">
+        <v>0.3603212024360877</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202">
         <v>5329.5208</v>
       </c>
@@ -5043,8 +5649,11 @@
       <c r="G202">
         <v>714.3914733091553</v>
       </c>
-    </row>
-    <row r="203" spans="1:7">
+      <c r="H202">
+        <v>0.8849274473211854</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203">
         <v>5330.0139</v>
       </c>
@@ -5066,8 +5675,11 @@
       <c r="G203">
         <v>607.4578053766782</v>
       </c>
-    </row>
-    <row r="204" spans="1:7">
+      <c r="H203">
+        <v>0.8286545681637005</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204">
         <v>5331.4717</v>
       </c>
@@ -5089,8 +5701,11 @@
       <c r="G204">
         <v>241.7920683041129</v>
       </c>
-    </row>
-    <row r="205" spans="1:7">
+      <c r="H204">
+        <v>0.5301992892283141</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205">
         <v>5334.3831</v>
       </c>
@@ -5112,8 +5727,11 @@
       <c r="G205">
         <v>404.640172461836</v>
       </c>
-    </row>
-    <row r="206" spans="1:7">
+      <c r="H205">
+        <v>0.7343340031179522</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206">
         <v>5341.4147</v>
       </c>
@@ -5135,8 +5753,11 @@
       <c r="G206">
         <v>538.8099891878917</v>
       </c>
-    </row>
-    <row r="207" spans="1:7">
+      <c r="H206">
+        <v>0.7857599009523537</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207">
         <v>5366.8911</v>
       </c>
@@ -5158,8 +5779,11 @@
       <c r="G207">
         <v>351.9155597399666</v>
       </c>
-    </row>
-    <row r="208" spans="1:7">
+      <c r="H207">
+        <v>0.6529653710780005</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208">
         <v>5371.4552</v>
       </c>
@@ -5181,8 +5805,11 @@
       <c r="G208">
         <v>591.608779447422</v>
       </c>
-    </row>
-    <row r="209" spans="1:7">
+      <c r="H208">
+        <v>0.7760561001228238</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209">
         <v>5372.9834</v>
       </c>
@@ -5204,8 +5831,11 @@
       <c r="G209">
         <v>730.9311991915263</v>
       </c>
-    </row>
-    <row r="210" spans="1:7">
+      <c r="H209">
+        <v>0.8765718255414114</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210">
         <v>5375.2029</v>
       </c>
@@ -5227,8 +5857,11 @@
       <c r="G210">
         <v>262.1342075090563</v>
       </c>
-    </row>
-    <row r="211" spans="1:7">
+      <c r="H210">
+        <v>0.5477574939449004</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211">
         <v>5381.0699</v>
       </c>
@@ -5250,8 +5883,11 @@
       <c r="G211">
         <v>300.8470997851913</v>
       </c>
-    </row>
-    <row r="212" spans="1:7">
+      <c r="H211">
+        <v>0.5535655673635298</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212">
         <v>5384.8661</v>
       </c>
@@ -5273,8 +5909,11 @@
       <c r="G212">
         <v>606.8373347882188</v>
       </c>
-    </row>
-    <row r="213" spans="1:7">
+      <c r="H212">
+        <v>0.7981481423342245</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213">
         <v>5390.9777</v>
       </c>
@@ -5296,8 +5935,11 @@
       <c r="G213">
         <v>378.1482372052855</v>
       </c>
-    </row>
-    <row r="214" spans="1:7">
+      <c r="H213">
+        <v>0.6478063772539471</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214">
         <v>5394.6671</v>
       </c>
@@ -5319,8 +5961,11 @@
       <c r="G214">
         <v>522.3768312255593</v>
       </c>
-    </row>
-    <row r="215" spans="1:7">
+      <c r="H214">
+        <v>0.7717532581524107</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215">
         <v>5399.1185</v>
       </c>
@@ -5342,8 +5987,11 @@
       <c r="G215">
         <v>144.3680835962942</v>
       </c>
-    </row>
-    <row r="216" spans="1:7">
+      <c r="H215">
+        <v>0.262695553266259</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216">
         <v>5399.7803</v>
       </c>
@@ -5365,8 +6013,11 @@
       <c r="G216">
         <v>305.3565936087082</v>
       </c>
-    </row>
-    <row r="217" spans="1:7">
+      <c r="H216">
+        <v>0.6011905257097629</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217">
         <v>5405.3239</v>
       </c>
@@ -5388,8 +6039,11 @@
       <c r="G217">
         <v>316.1359137744954</v>
       </c>
-    </row>
-    <row r="218" spans="1:7">
+      <c r="H217">
+        <v>0.5711315982222934</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218">
         <v>5407.2781</v>
       </c>
@@ -5411,8 +6065,11 @@
       <c r="G218">
         <v>715.2069186477776</v>
       </c>
-    </row>
-    <row r="219" spans="1:7">
+      <c r="H218">
+        <v>0.8635089430394467</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219">
         <v>5410.6373</v>
       </c>
@@ -5434,8 +6091,11 @@
       <c r="G219">
         <v>243.7950914115646</v>
       </c>
-    </row>
-    <row r="220" spans="1:7">
+      <c r="H219">
+        <v>0.4793330073497833</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220">
         <v>5412.414</v>
       </c>
@@ -5457,8 +6117,11 @@
       <c r="G220">
         <v>531.7419541102801</v>
       </c>
-    </row>
-    <row r="221" spans="1:7">
+      <c r="H220">
+        <v>0.7414138018116753</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221">
         <v>5416.7047</v>
       </c>
@@ -5480,8 +6143,11 @@
       <c r="G221">
         <v>614.3396157091662</v>
       </c>
-    </row>
-    <row r="222" spans="1:7">
+      <c r="H221">
+        <v>0.7829042761358932</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222">
         <v>5425.5759</v>
       </c>
@@ -5503,8 +6169,11 @@
       <c r="G222">
         <v>652.0139188127673</v>
       </c>
-    </row>
-    <row r="223" spans="1:7">
+      <c r="H222">
+        <v>0.8057296665300244</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223">
         <v>5434.458</v>
       </c>
@@ -5526,8 +6195,11 @@
       <c r="G223">
         <v>281.3420466145797</v>
       </c>
-    </row>
-    <row r="224" spans="1:7">
+      <c r="H223">
+        <v>0.5693784128113368</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224">
         <v>5436.0344</v>
       </c>
@@ -5549,8 +6221,11 @@
       <c r="G224">
         <v>667.3042286358224</v>
       </c>
-    </row>
-    <row r="225" spans="1:7">
+      <c r="H224">
+        <v>0.8463207294464692</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225">
         <v>5446.5558</v>
       </c>
@@ -5572,8 +6247,11 @@
       <c r="G225">
         <v>506.3916931452759</v>
       </c>
-    </row>
-    <row r="226" spans="1:7">
+      <c r="H225">
+        <v>0.7284921361234351</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226">
         <v>5464.4776</v>
       </c>
@@ -5595,8 +6273,11 @@
       <c r="G226">
         <v>422.4378057280423</v>
       </c>
-    </row>
-    <row r="227" spans="1:7">
+      <c r="H226">
+        <v>0.6704879991723677</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227">
         <v>5464.7944</v>
       </c>
@@ -5618,8 +6299,11 @@
       <c r="G227">
         <v>455.3286399195703</v>
       </c>
-    </row>
-    <row r="228" spans="1:7">
+      <c r="H227">
+        <v>0.7089373643936432</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228">
         <v>5465.798</v>
       </c>
@@ -5641,8 +6325,11 @@
       <c r="G228">
         <v>148.0917583230887</v>
       </c>
-    </row>
-    <row r="229" spans="1:7">
+      <c r="H228">
+        <v>0.3668519145090741</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229">
         <v>5467.9152</v>
       </c>
@@ -5664,8 +6351,11 @@
       <c r="G229">
         <v>323.4826140062038</v>
       </c>
-    </row>
-    <row r="230" spans="1:7">
+      <c r="H229">
+        <v>0.6194256215634932</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230">
         <v>5468.507</v>
       </c>
@@ -5687,8 +6377,11 @@
       <c r="G230">
         <v>120.6075822405393</v>
       </c>
-    </row>
-    <row r="231" spans="1:7">
+      <c r="H230">
+        <v>0.327314978860524</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231">
         <v>5475.4215</v>
       </c>
@@ -5710,8 +6403,11 @@
       <c r="G231">
         <v>317.5639092582041</v>
       </c>
-    </row>
-    <row r="232" spans="1:7">
+      <c r="H231">
+        <v>0.6271910628530373</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232">
         <v>5478.086</v>
       </c>
@@ -5733,8 +6429,11 @@
       <c r="G232">
         <v>426.860982535185</v>
       </c>
-    </row>
-    <row r="233" spans="1:7">
+      <c r="H232">
+        <v>0.7080468727331732</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233">
         <v>5484.6223</v>
       </c>
@@ -5756,8 +6455,11 @@
       <c r="G233">
         <v>158.5155878831425</v>
       </c>
-    </row>
-    <row r="234" spans="1:7">
+      <c r="H233">
+        <v>0.4290345578065777</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234">
         <v>5495.0251</v>
       </c>
@@ -5779,8 +6481,11 @@
       <c r="G234">
         <v>103.6584291999111</v>
       </c>
-    </row>
-    <row r="235" spans="1:7">
+      <c r="H234">
+        <v>0.3614735885196135</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235">
         <v>5499.0434</v>
       </c>
@@ -5802,8 +6507,11 @@
       <c r="G235">
         <v>534.2685763450336</v>
       </c>
-    </row>
-    <row r="236" spans="1:7">
+      <c r="H235">
+        <v>0.7909526766318346</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236">
         <v>5502.9937</v>
       </c>
@@ -5825,8 +6533,11 @@
       <c r="G236">
         <v>506.6460205630216</v>
       </c>
-    </row>
-    <row r="237" spans="1:7">
+      <c r="H236">
+        <v>0.777696478315499</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237">
         <v>5508.309</v>
       </c>
@@ -5848,8 +6559,11 @@
       <c r="G237">
         <v>527.927326221082</v>
       </c>
-    </row>
-    <row r="238" spans="1:7">
+      <c r="H237">
+        <v>0.7951688761935299</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238">
         <v>5523.9805</v>
       </c>
@@ -5871,8 +6585,11 @@
       <c r="G238">
         <v>141.1048411561838</v>
       </c>
-    </row>
-    <row r="239" spans="1:7">
+      <c r="H238">
+        <v>0.4011304730669784</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239">
         <v>5527.0791</v>
       </c>
@@ -5894,8 +6611,11 @@
       <c r="G239">
         <v>184.4182684867745</v>
       </c>
-    </row>
-    <row r="240" spans="1:7">
+      <c r="H239">
+        <v>0.4798434978583344</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240">
         <v>5544.7292</v>
       </c>
@@ -5917,8 +6637,11 @@
       <c r="G240">
         <v>254.1196335835183</v>
       </c>
-    </row>
-    <row r="241" spans="1:7">
+      <c r="H240">
+        <v>0.5212004165591716</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241">
         <v>5545.4754</v>
       </c>
@@ -5940,8 +6663,11 @@
       <c r="G241">
         <v>254.0854391608004</v>
       </c>
-    </row>
-    <row r="242" spans="1:7">
+      <c r="H241">
+        <v>0.5316567942014988</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242">
         <v>5561.7557</v>
       </c>
@@ -5963,8 +6689,11 @@
       <c r="G242">
         <v>194.0489490917999</v>
       </c>
-    </row>
-    <row r="243" spans="1:7">
+      <c r="H242">
+        <v>0.4633593723468646</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243">
         <v>5564.2512</v>
       </c>
@@ -5986,8 +6715,11 @@
       <c r="G243">
         <v>290.9428807065166</v>
       </c>
-    </row>
-    <row r="244" spans="1:7">
+      <c r="H243">
+        <v>0.5127156973055136</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244">
         <v>5567.2496</v>
       </c>
@@ -6009,8 +6741,11 @@
       <c r="G244">
         <v>376.9450548636177</v>
       </c>
-    </row>
-    <row r="245" spans="1:7">
+      <c r="H244">
+        <v>0.6253111318831073</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245">
         <v>5577.6371</v>
       </c>
@@ -6032,8 +6767,11 @@
       <c r="G245">
         <v>489.1159677310337</v>
       </c>
-    </row>
-    <row r="246" spans="1:7">
+      <c r="H245">
+        <v>0.7288417973021851</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246">
         <v>5588.3071</v>
       </c>
@@ -6055,8 +6793,11 @@
       <c r="G246">
         <v>606.2041177604236</v>
       </c>
-    </row>
-    <row r="247" spans="1:7">
+      <c r="H246">
+        <v>0.8113419297074207</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
       <c r="A247">
         <v>5589.1254</v>
       </c>
@@ -6078,8 +6819,11 @@
       <c r="G247">
         <v>118.0047610855571</v>
       </c>
-    </row>
-    <row r="248" spans="1:7">
+      <c r="H247">
+        <v>0.3489917387290168</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
       <c r="A248">
         <v>5617.2028</v>
       </c>
@@ -6101,8 +6845,11 @@
       <c r="G248">
         <v>624.4338834913922</v>
       </c>
-    </row>
-    <row r="249" spans="1:7">
+      <c r="H248">
+        <v>0.824075480245738</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
       <c r="A249">
         <v>5620.1925</v>
       </c>
@@ -6124,8 +6871,11 @@
       <c r="G249">
         <v>186.6970932228694</v>
       </c>
-    </row>
-    <row r="250" spans="1:7">
+      <c r="H249">
+        <v>0.4524047713279455</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
       <c r="A250">
         <v>5625.5831</v>
       </c>
@@ -6147,8 +6897,11 @@
       <c r="G250">
         <v>239.8091072489011</v>
       </c>
-    </row>
-    <row r="251" spans="1:7">
+      <c r="H250">
+        <v>0.4384952431042912</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
       <c r="A251">
         <v>5637.3869</v>
       </c>
@@ -6170,8 +6923,11 @@
       <c r="G251">
         <v>127.6303918287968</v>
       </c>
-    </row>
-    <row r="252" spans="1:7">
+      <c r="H251">
+        <v>0.3256028979700704</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
       <c r="A252">
         <v>5638.2607</v>
       </c>
@@ -6193,8 +6949,11 @@
       <c r="G252">
         <v>159.5132651937932</v>
       </c>
-    </row>
-    <row r="253" spans="1:7">
+      <c r="H252">
+        <v>0.2019757164695213</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
       <c r="A253">
         <v>5644.3175</v>
       </c>
@@ -6216,8 +6975,11 @@
       <c r="G253">
         <v>90.29385372427789</v>
       </c>
-    </row>
-    <row r="254" spans="1:7">
+      <c r="H253">
+        <v>0.09948673413503872</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
       <c r="A254">
         <v>5651.5554</v>
       </c>
@@ -6239,8 +7001,11 @@
       <c r="G254">
         <v>68.95981152237249</v>
       </c>
-    </row>
-    <row r="255" spans="1:7">
+      <c r="H254">
+        <v>0.3200517085031096</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
       <c r="A255">
         <v>5653.0375</v>
       </c>
@@ -6262,8 +7027,11 @@
       <c r="G255">
         <v>159.0963042150291</v>
       </c>
-    </row>
-    <row r="256" spans="1:7">
+      <c r="H255">
+        <v>0.1790049076169555</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
       <c r="A256">
         <v>5653.8867</v>
       </c>
@@ -6285,8 +7053,11 @@
       <c r="G256">
         <v>100.7458586254065</v>
       </c>
-    </row>
-    <row r="257" spans="1:7">
+      <c r="H256">
+        <v>0.2474184263879136</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
       <c r="A257">
         <v>5656.7459</v>
       </c>
@@ -6308,8 +7079,11 @@
       <c r="G257">
         <v>143.0928047438325</v>
       </c>
-    </row>
-    <row r="258" spans="1:7">
+      <c r="H257">
+        <v>0.4260074479316389</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
       <c r="A258">
         <v>5661.1454</v>
       </c>
@@ -6331,8 +7105,11 @@
       <c r="G258">
         <v>-15.88684467507535</v>
       </c>
-    </row>
-    <row r="259" spans="1:7">
+      <c r="H258">
+        <v>0.1813911349558527</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
       <c r="A259">
         <v>5662.9166</v>
       </c>
@@ -6354,8 +7131,11 @@
       <c r="G259">
         <v>111.1731297813289</v>
       </c>
-    </row>
-    <row r="260" spans="1:7">
+      <c r="H259">
+        <v>0.2108513817567913</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
       <c r="A260">
         <v>5664.0877</v>
       </c>
@@ -6377,8 +7157,11 @@
       <c r="G260">
         <v>365.207615070522</v>
       </c>
-    </row>
-    <row r="261" spans="1:7">
+      <c r="H260">
+        <v>0.6593788403319798</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
       <c r="A261">
         <v>5679.2603</v>
       </c>
@@ -6400,8 +7183,11 @@
       <c r="G261">
         <v>137.2468155159299</v>
       </c>
-    </row>
-    <row r="262" spans="1:7">
+      <c r="H261">
+        <v>0.06649898221035189</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
       <c r="A262">
         <v>5679.9544</v>
       </c>
@@ -6423,8 +7209,11 @@
       <c r="G262">
         <v>216.4012228551966</v>
       </c>
-    </row>
-    <row r="263" spans="1:7">
+      <c r="H262">
+        <v>0.04635397353943649</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
       <c r="A263">
         <v>5680.5988</v>
       </c>
@@ -6446,8 +7235,11 @@
       <c r="G263">
         <v>263.8739933656408</v>
       </c>
-    </row>
-    <row r="264" spans="1:7">
+      <c r="H263">
+        <v>0.4887508366119583</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
       <c r="A264">
         <v>5681.8166</v>
       </c>
@@ -6469,8 +7261,11 @@
       <c r="G264">
         <v>163.5668106372451</v>
       </c>
-    </row>
-    <row r="265" spans="1:7">
+      <c r="H264">
+        <v>0.1043900660259174</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
       <c r="A265">
         <v>5688.1081</v>
       </c>
@@ -6492,8 +7287,11 @@
       <c r="G265">
         <v>358.3948613866022</v>
       </c>
-    </row>
-    <row r="266" spans="1:7">
+      <c r="H265">
+        <v>0.5617159667095779</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
       <c r="A266">
         <v>5693.0762</v>
       </c>
@@ -6515,8 +7313,11 @@
       <c r="G266">
         <v>157.9773996005647</v>
       </c>
-    </row>
-    <row r="267" spans="1:7">
+      <c r="H266">
+        <v>0.36861238634283</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
       <c r="A267">
         <v>5697.67</v>
       </c>
@@ -6538,8 +7339,11 @@
       <c r="G267">
         <v>184.1583669897722</v>
       </c>
-    </row>
-    <row r="268" spans="1:7">
+      <c r="H267">
+        <v>0.1276582823211204</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
       <c r="A268">
         <v>5699.6009</v>
       </c>
@@ -6561,8 +7365,11 @@
       <c r="G268">
         <v>205.135518542535</v>
       </c>
-    </row>
-    <row r="269" spans="1:7">
+      <c r="H268">
+        <v>0.1457396255841866</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
       <c r="A269">
         <v>5703.1265</v>
       </c>
@@ -6584,8 +7391,11 @@
       <c r="G269">
         <v>420.5306798027762</v>
       </c>
-    </row>
-    <row r="270" spans="1:7">
+      <c r="H269">
+        <v>0.6480967093073048</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
       <c r="A270">
         <v>5706.3164</v>
       </c>
@@ -6607,8 +7417,11 @@
       <c r="G270">
         <v>47.2832548112473</v>
       </c>
-    </row>
-    <row r="271" spans="1:7">
+      <c r="H270">
+        <v>0.1818080136597486</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
       <c r="A271">
         <v>5707.0475</v>
       </c>
@@ -6630,8 +7443,11 @@
       <c r="G271">
         <v>168.0967024781545</v>
       </c>
-    </row>
-    <row r="272" spans="1:7">
+      <c r="H271">
+        <v>0.3492383841316399</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
       <c r="A272">
         <v>5710.9623</v>
       </c>
@@ -6653,8 +7469,11 @@
       <c r="G272">
         <v>461.9490537201126</v>
       </c>
-    </row>
-    <row r="273" spans="1:7">
+      <c r="H272">
+        <v>0.6887279485557538</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
       <c r="A273">
         <v>5711.5164</v>
       </c>
@@ -6676,8 +7495,11 @@
       <c r="G273">
         <v>47.24020613910167</v>
       </c>
-    </row>
-    <row r="274" spans="1:7">
+      <c r="H273">
+        <v>0.1055913644133847</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
       <c r="A274">
         <v>5713.7163</v>
       </c>
@@ -6699,8 +7521,11 @@
       <c r="G274">
         <v>204.628743301267</v>
       </c>
-    </row>
-    <row r="275" spans="1:7">
+      <c r="H274">
+        <v>0.4630461201688609</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
       <c r="A275">
         <v>5716.1345</v>
       </c>
@@ -6722,8 +7547,11 @@
       <c r="G275">
         <v>41.95736932840124</v>
       </c>
-    </row>
-    <row r="276" spans="1:7">
+      <c r="H275">
+        <v>0.06104324769333047</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
       <c r="A276">
         <v>5726.0428</v>
       </c>
@@ -6745,8 +7573,11 @@
       <c r="G276">
         <v>125.6542998530549</v>
       </c>
-    </row>
-    <row r="277" spans="1:7">
+      <c r="H276">
+        <v>0.05278181824076889</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
       <c r="A277">
         <v>5733.3522</v>
       </c>
@@ -6768,8 +7599,11 @@
       <c r="G277">
         <v>219.6146825421716</v>
       </c>
-    </row>
-    <row r="278" spans="1:7">
+      <c r="H277">
+        <v>0.4888702328382343</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
       <c r="A278">
         <v>5733.8861</v>
       </c>
@@ -6791,8 +7625,11 @@
       <c r="G278">
         <v>120.2539850750274</v>
       </c>
-    </row>
-    <row r="279" spans="1:7">
+      <c r="H278">
+        <v>0.1341390221144615</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
       <c r="A279">
         <v>5743.4411</v>
       </c>
@@ -6814,8 +7651,11 @@
       <c r="G279">
         <v>130.4933979243358</v>
       </c>
-    </row>
-    <row r="280" spans="1:7">
+      <c r="H279">
+        <v>0.2954251520236733</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
       <c r="A280">
         <v>5744.5529</v>
       </c>
@@ -6837,8 +7677,11 @@
       <c r="G280">
         <v>177.436673508471</v>
       </c>
-    </row>
-    <row r="281" spans="1:7">
+      <c r="H280">
+        <v>0.1133838037656604</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
       <c r="A281">
         <v>5753.6274</v>
       </c>
@@ -6860,8 +7703,11 @@
       <c r="G281">
         <v>260.5247413169378</v>
       </c>
-    </row>
-    <row r="282" spans="1:7">
+      <c r="H281">
+        <v>0.4639364248165133</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
       <c r="A282">
         <v>5754.7184</v>
       </c>
@@ -6883,8 +7729,11 @@
       <c r="G282">
         <v>328.1989411446</v>
       </c>
-    </row>
-    <row r="283" spans="1:7">
+      <c r="H282">
+        <v>0.5992076786608204</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
       <c r="A283">
         <v>5755.9986</v>
       </c>
@@ -6906,8 +7755,11 @@
       <c r="G283">
         <v>140.625405370431</v>
       </c>
-    </row>
-    <row r="284" spans="1:7">
+      <c r="H283">
+        <v>0.1371010295936143</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
       <c r="A284">
         <v>5760.8595</v>
       </c>
@@ -6929,8 +7781,11 @@
       <c r="G284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:7">
+      <c r="H284">
+        <v>0.08536890582780154</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
       <c r="A285">
         <v>5761.9422</v>
       </c>
@@ -6952,8 +7807,11 @@
       <c r="G285">
         <v>166.4952254268603</v>
       </c>
-    </row>
-    <row r="286" spans="1:7">
+      <c r="H285">
+        <v>0.223554080125594</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
       <c r="A286">
         <v>5762.8537</v>
       </c>
@@ -6975,8 +7833,11 @@
       <c r="G286">
         <v>145.660279795276</v>
       </c>
-    </row>
-    <row r="287" spans="1:7">
+      <c r="H286">
+        <v>0.03852352105768708</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
       <c r="A287">
         <v>5764.0117</v>
       </c>
@@ -6998,8 +7859,11 @@
       <c r="G287">
         <v>124.8265854957575</v>
       </c>
-    </row>
-    <row r="288" spans="1:7">
+      <c r="H287">
+        <v>0.2732885656473509</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
       <c r="A288">
         <v>5770.9229</v>
       </c>
@@ -7021,8 +7885,11 @@
       <c r="G288">
         <v>202.6002784388285</v>
       </c>
-    </row>
-    <row r="289" spans="1:7">
+      <c r="H288">
+        <v>0.08097793965826006</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
       <c r="A289">
         <v>5776.6821</v>
       </c>
@@ -7044,8 +7911,11 @@
       <c r="G289">
         <v>202.3982912232361</v>
       </c>
-    </row>
-    <row r="290" spans="1:7">
+      <c r="H289">
+        <v>0.4943913772451808</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
       <c r="A290">
         <v>5782.2031</v>
       </c>
@@ -7067,8 +7937,11 @@
       <c r="G290">
         <v>181.466058018315</v>
       </c>
-    </row>
-    <row r="291" spans="1:7">
+      <c r="H290">
+        <v>0.3517586720096044</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
       <c r="A291">
         <v>5782.4074</v>
       </c>
@@ -7090,8 +7963,11 @@
       <c r="G291">
         <v>119.244910577602</v>
       </c>
-    </row>
-    <row r="292" spans="1:7">
+      <c r="H291">
+        <v>0.2391247007754266</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
       <c r="A292">
         <v>5786.2625</v>
       </c>
@@ -7113,8 +7989,11 @@
       <c r="G292">
         <v>176.1576418580231</v>
       </c>
-    </row>
-    <row r="293" spans="1:7">
+      <c r="H292">
+        <v>0.2513570218293382</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
       <c r="A293">
         <v>5793.1299</v>
       </c>
@@ -7136,8 +8015,11 @@
       <c r="G293">
         <v>196.6486787283332</v>
       </c>
-    </row>
-    <row r="294" spans="1:7">
+      <c r="H293">
+        <v>0.08724449011727919</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
       <c r="A294">
         <v>5795.5214</v>
       </c>
@@ -7159,8 +8041,11 @@
       <c r="G294">
         <v>134.4935748340165</v>
       </c>
-    </row>
-    <row r="295" spans="1:7">
+      <c r="H294">
+        <v>0.3087338143211145</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
       <c r="A295">
         <v>5808.3349</v>
       </c>
@@ -7182,8 +8067,11 @@
       <c r="G295">
         <v>232.2638215902246</v>
       </c>
-    </row>
-    <row r="296" spans="1:7">
+      <c r="H295">
+        <v>0.4370584758961042</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
       <c r="A296">
         <v>5809.3941</v>
       </c>
@@ -7205,8 +8093,11 @@
       <c r="G296">
         <v>123.8514527981544</v>
       </c>
-    </row>
-    <row r="297" spans="1:7">
+      <c r="H296">
+        <v>0.0769383314632347</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
       <c r="A297">
         <v>5809.5858</v>
       </c>
@@ -7228,8 +8119,11 @@
       <c r="G297">
         <v>232.2138113766323</v>
       </c>
-    </row>
-    <row r="298" spans="1:7">
+      <c r="H297">
+        <v>0.03290426526011492</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
       <c r="A298">
         <v>5813.5259</v>
       </c>
@@ -7251,8 +8145,11 @@
       <c r="G298">
         <v>170.174714711763</v>
       </c>
-    </row>
-    <row r="299" spans="1:7">
+      <c r="H298">
+        <v>0.1066474573904698</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
       <c r="A299">
         <v>5816.4197</v>
       </c>
@@ -7274,8 +8171,11 @@
       <c r="G299">
         <v>108.2391220073444</v>
       </c>
-    </row>
-    <row r="300" spans="1:7">
+      <c r="H299">
+        <v>0.2097273455310321</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
       <c r="A300">
         <v>5818.6893</v>
       </c>
@@ -7297,8 +8197,11 @@
       <c r="G300">
         <v>-41.21786779083853</v>
       </c>
-    </row>
-    <row r="301" spans="1:7">
+      <c r="H300">
+        <v>0.1124029921545275</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
       <c r="A301">
         <v>5829.4928</v>
       </c>
@@ -7320,8 +8223,11 @@
       <c r="G301">
         <v>143.9951829794692</v>
       </c>
-    </row>
-    <row r="302" spans="1:7">
+      <c r="H301">
+        <v>0.1103307167064209</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
       <c r="A302">
         <v>5836.7184</v>
       </c>
@@ -7343,8 +8249,11 @@
       <c r="G302">
         <v>71.90846163890403</v>
       </c>
-    </row>
-    <row r="303" spans="1:7">
+      <c r="H302">
+        <v>0.1329035163045476</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
       <c r="A303">
         <v>5839.3196</v>
       </c>
@@ -7366,8 +8275,11 @@
       <c r="G303">
         <v>261.8355631790055</v>
       </c>
-    </row>
-    <row r="304" spans="1:7">
+      <c r="H303">
+        <v>0.09412909605082254</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
       <c r="A304">
         <v>5839.9903</v>
       </c>
@@ -7389,8 +8301,11 @@
       <c r="G304">
         <v>148.8697897116303</v>
       </c>
-    </row>
-    <row r="305" spans="1:7">
+      <c r="H304">
+        <v>0.1742923401783977</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
       <c r="A305">
         <v>5846.5391</v>
       </c>
@@ -7412,8 +8327,11 @@
       <c r="G305">
         <v>317.9168406841698</v>
       </c>
-    </row>
-    <row r="306" spans="1:7">
+      <c r="H305">
+        <v>0.03409061441143102</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
       <c r="A306">
         <v>5846.9073</v>
       </c>
@@ -7435,8 +8353,11 @@
       <c r="G306">
         <v>92.29262524498033</v>
       </c>
-    </row>
-    <row r="307" spans="1:7">
+      <c r="H306">
+        <v>0.0610434850274999</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
       <c r="A307">
         <v>5851.3056</v>
       </c>
@@ -7458,8 +8379,11 @@
       <c r="G307">
         <v>76.85270908110513</v>
       </c>
-    </row>
-    <row r="308" spans="1:7">
+      <c r="H307">
+        <v>0.07785962661223866</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
       <c r="A308">
         <v>5852.8271</v>
       </c>
@@ -7481,8 +8405,11 @@
       <c r="G308">
         <v>327.8196499340423</v>
       </c>
-    </row>
-    <row r="309" spans="1:7">
+      <c r="H308">
+        <v>0.05633034143714599</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
       <c r="A309">
         <v>5853.8409</v>
       </c>
@@ -7504,8 +8431,11 @@
       <c r="G309">
         <v>194.6092078285625</v>
       </c>
-    </row>
-    <row r="310" spans="1:7">
+      <c r="H309">
+        <v>0.349398759300558</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
       <c r="A310">
         <v>5854.7708</v>
       </c>
@@ -7527,8 +8457,11 @@
       <c r="G310">
         <v>235.5421508427302</v>
       </c>
-    </row>
-    <row r="311" spans="1:7">
+      <c r="H310">
+        <v>0.07634478623769336</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
       <c r="A311">
         <v>5856.6996</v>
       </c>
@@ -7550,8 +8483,11 @@
       <c r="G311">
         <v>214.9893984320312</v>
       </c>
-    </row>
-    <row r="312" spans="1:7">
+      <c r="H311">
+        <v>0.2044431781997457</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
       <c r="A312">
         <v>5857.7113</v>
       </c>
@@ -7573,8 +8509,11 @@
       <c r="G312">
         <v>194.4806225750431</v>
       </c>
-    </row>
-    <row r="313" spans="1:7">
+      <c r="H312">
+        <v>0.305877634240044</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
       <c r="A313">
         <v>5859.8892</v>
       </c>
@@ -7596,8 +8535,11 @@
       <c r="G313">
         <v>173.94430549706</v>
       </c>
-    </row>
-    <row r="314" spans="1:7">
+      <c r="H313">
+        <v>0.03231321278190935</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
       <c r="A314">
         <v>5860.4019</v>
       </c>
@@ -7619,8 +8561,11 @@
       <c r="G314">
         <v>255.7780704743051</v>
       </c>
-    </row>
-    <row r="315" spans="1:7">
+      <c r="H314">
+        <v>0.1260265647157961</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
       <c r="A315">
         <v>5861.2109</v>
       </c>
@@ -7642,8 +8587,11 @@
       <c r="G315">
         <v>301.7764643368278</v>
       </c>
-    </row>
-    <row r="316" spans="1:7">
+      <c r="H315">
+        <v>0.5757763164316347</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
       <c r="A316">
         <v>5862.7342</v>
       </c>
@@ -7665,8 +8613,11 @@
       <c r="G316">
         <v>-5.113526350001163</v>
       </c>
-    </row>
-    <row r="317" spans="1:7">
+      <c r="H316">
+        <v>0.08252367488555512</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
       <c r="A317">
         <v>5863.9814</v>
       </c>
@@ -7688,8 +8639,11 @@
       <c r="G317">
         <v>439.6697333883357</v>
       </c>
-    </row>
-    <row r="318" spans="1:7">
+      <c r="H317">
+        <v>0.6086504886429493</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
       <c r="A318">
         <v>5874.8407</v>
       </c>
@@ -7711,8 +8665,11 @@
       <c r="G318">
         <v>81.64781948193625</v>
       </c>
-    </row>
-    <row r="319" spans="1:7">
+      <c r="H318">
+        <v>0.1568132680753327</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
       <c r="A319">
         <v>5882.9101</v>
       </c>
@@ -7734,8 +8691,11 @@
       <c r="G319">
         <v>91.72780398561993</v>
       </c>
-    </row>
-    <row r="320" spans="1:7">
+      <c r="H319">
+        <v>0.1404609606596271</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
       <c r="A320">
         <v>5904.1092</v>
       </c>
@@ -7757,8 +8717,11 @@
       <c r="G320">
         <v>-10.15538321842437</v>
       </c>
-    </row>
-    <row r="321" spans="1:7">
+      <c r="H320">
+        <v>0.1437068480301459</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
       <c r="A321">
         <v>5907.3085</v>
       </c>
@@ -7780,8 +8743,11 @@
       <c r="G321">
         <v>197.9227233565246</v>
       </c>
-    </row>
-    <row r="322" spans="1:7">
+      <c r="H321">
+        <v>0.4697293579997989</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
       <c r="A322">
         <v>5908.4799</v>
       </c>
@@ -7803,8 +8769,11 @@
       <c r="G322">
         <v>-45.66541931246624</v>
       </c>
-    </row>
-    <row r="323" spans="1:7">
+      <c r="H322">
+        <v>0.142659495336661</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
       <c r="A323">
         <v>5917.8867</v>
       </c>
@@ -7826,8 +8795,11 @@
       <c r="G323">
         <v>329.2815621217021</v>
       </c>
-    </row>
-    <row r="324" spans="1:7">
+      <c r="H323">
+        <v>0.4800331666501992</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
       <c r="A324">
         <v>5929.4316</v>
       </c>
@@ -7849,8 +8821,11 @@
       <c r="G324">
         <v>161.7922138781969</v>
       </c>
-    </row>
-    <row r="325" spans="1:7">
+      <c r="H324">
+        <v>0.3630855325212066</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
       <c r="A325">
         <v>5931.3202</v>
       </c>
@@ -7872,8 +8847,11 @@
       <c r="G325">
         <v>131.4143166169171</v>
       </c>
-    </row>
-    <row r="326" spans="1:7">
+      <c r="H325">
+        <v>0.3463079924769463</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
       <c r="A326">
         <v>5931.8229</v>
       </c>
@@ -7895,8 +8873,11 @@
       <c r="G326">
         <v>439.6952553569163</v>
       </c>
-    </row>
-    <row r="327" spans="1:7">
+      <c r="H326">
+        <v>0.6079201707489563</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
       <c r="A327">
         <v>5936.2992</v>
       </c>
@@ -7918,8 +8899,11 @@
       <c r="G327">
         <v>338.3605510680695</v>
       </c>
-    </row>
-    <row r="328" spans="1:7">
+      <c r="H327">
+        <v>0.5606714947636797</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
       <c r="A328">
         <v>5954.3675</v>
       </c>
@@ -7941,8 +8925,11 @@
       <c r="G328">
         <v>251.7416484697276</v>
       </c>
-    </row>
-    <row r="329" spans="1:7">
+      <c r="H328">
+        <v>0.4720125458433216</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
       <c r="A329">
         <v>5958.3446</v>
       </c>
@@ -7964,8 +8951,11 @@
       <c r="G329">
         <v>296.8568655668262</v>
       </c>
-    </row>
-    <row r="330" spans="1:7">
+      <c r="H329">
+        <v>0.4869502590742628</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
       <c r="A330">
         <v>5964.8905</v>
       </c>
@@ -7987,8 +8977,11 @@
       <c r="G330">
         <v>241.2456353288541</v>
       </c>
-    </row>
-    <row r="331" spans="1:7">
+      <c r="H330">
+        <v>0.03695987178730542</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
       <c r="A331">
         <v>5971.2159</v>
       </c>
@@ -8010,8 +9003,11 @@
       <c r="G331">
         <v>85.35065338567271</v>
       </c>
-    </row>
-    <row r="332" spans="1:7">
+      <c r="H331">
+        <v>0.04278080654884886</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
       <c r="A332">
         <v>5977.8158</v>
       </c>
@@ -8033,8 +9029,11 @@
       <c r="G332">
         <v>290.8748469976151</v>
       </c>
-    </row>
-    <row r="333" spans="1:7">
+      <c r="H332">
+        <v>0.02056212265275181</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
       <c r="A333">
         <v>5978.4327</v>
       </c>
@@ -8056,8 +9055,11 @@
       <c r="G333">
         <v>305.8885305563407</v>
       </c>
-    </row>
-    <row r="334" spans="1:7">
+      <c r="H333">
+        <v>0.521293084804081</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
       <c r="A334">
         <v>5985.3384</v>
       </c>
@@ -8079,8 +9081,11 @@
       <c r="G334">
         <v>270.4741428159249</v>
       </c>
-    </row>
-    <row r="335" spans="1:7">
+      <c r="H334">
+        <v>0.5278815828920649</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
       <c r="A335">
         <v>5986.4728</v>
       </c>
@@ -8102,8 +9107,11 @@
       <c r="G335">
         <v>380.5951780516208</v>
       </c>
-    </row>
-    <row r="336" spans="1:7">
+      <c r="H335">
+        <v>0.5705740226305308</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
       <c r="A336">
         <v>6004.6749</v>
       </c>
@@ -8125,8 +9133,11 @@
       <c r="G336">
         <v>369.4561698125643</v>
       </c>
-    </row>
-    <row r="337" spans="1:7">
+      <c r="H336">
+        <v>0.5870918281172157</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
       <c r="A337">
         <v>6007.2046</v>
       </c>
@@ -8148,8 +9159,11 @@
       <c r="G337">
         <v>249.5274241010105</v>
       </c>
-    </row>
-    <row r="338" spans="1:7">
+      <c r="H337">
+        <v>0.2188716392762509</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
       <c r="A338">
         <v>6009.6241</v>
       </c>
@@ -8171,8 +9185,11 @@
       <c r="G338">
         <v>289.335277466797</v>
       </c>
-    </row>
-    <row r="339" spans="1:7">
+      <c r="H338">
+        <v>0.4814858432835901</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
       <c r="A339">
         <v>6010.2207</v>
       </c>
@@ -8194,8 +9211,11 @@
       <c r="G339">
         <v>389.0674384959393</v>
       </c>
-    </row>
-    <row r="340" spans="1:7">
+      <c r="H339">
+        <v>0.6010622586366214</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8">
       <c r="A340">
         <v>6016.9102</v>
       </c>
@@ -8217,8 +9237,11 @@
       <c r="G340">
         <v>264.0724182988537</v>
       </c>
-    </row>
-    <row r="341" spans="1:7">
+      <c r="H340">
+        <v>0.0571542843950279</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
       <c r="A341">
         <v>6019.9662</v>
       </c>
@@ -8240,8 +9263,11 @@
       <c r="G341">
         <v>-4.979969118434592</v>
       </c>
-    </row>
-    <row r="342" spans="1:7">
+      <c r="H341">
+        <v>0.08572062818661275</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
       <c r="A342">
         <v>6021.0329</v>
       </c>
@@ -8263,8 +9289,11 @@
       <c r="G342">
         <v>114.5189978148761</v>
       </c>
-    </row>
-    <row r="343" spans="1:7">
+      <c r="H342">
+        <v>0.05430691137978028</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
       <c r="A343">
         <v>6025.7262</v>
       </c>
@@ -8286,8 +9315,11 @@
       <c r="G343">
         <v>487.5704588661954</v>
       </c>
-    </row>
-    <row r="344" spans="1:7">
+      <c r="H343">
+        <v>0.6648106725535924</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
       <c r="A344">
         <v>6028.72</v>
       </c>
@@ -8309,8 +9341,11 @@
       <c r="G344">
         <v>288.4188113276374</v>
       </c>
-    </row>
-    <row r="345" spans="1:7">
+      <c r="H344">
+        <v>0.5230005425519375</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
       <c r="A345">
         <v>6035.7064</v>
       </c>
@@ -8332,8 +9367,11 @@
       <c r="G345">
         <v>59.60378545831293</v>
       </c>
-    </row>
-    <row r="346" spans="1:7">
+      <c r="H345">
+        <v>0.08001442886647459</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
       <c r="A346">
         <v>6055.7504</v>
       </c>
@@ -8355,8 +9393,11 @@
       <c r="G346">
         <v>74.2581278259584</v>
       </c>
-    </row>
-    <row r="347" spans="1:7">
+      <c r="H346">
+        <v>0.08880067670302205</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
       <c r="A347">
         <v>6057.6815</v>
       </c>
@@ -8378,8 +9419,11 @@
       <c r="G347">
         <v>301.8867852545542</v>
       </c>
-    </row>
-    <row r="348" spans="1:7">
+      <c r="H347">
+        <v>0.5322360106461932</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
       <c r="A348">
         <v>6064.5271</v>
       </c>
@@ -8401,8 +9445,11 @@
       <c r="G348">
         <v>207.6218479247084</v>
       </c>
-    </row>
-    <row r="349" spans="1:7">
+      <c r="H348">
+        <v>0.1923838138555849</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
       <c r="A349">
         <v>6080.1739</v>
       </c>
@@ -8424,8 +9471,11 @@
       <c r="G349">
         <v>320.4926387114364</v>
       </c>
-    </row>
-    <row r="350" spans="1:7">
+      <c r="H349">
+        <v>0.5395453550274846</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8">
       <c r="A350">
         <v>6080.6922</v>
       </c>
@@ -8447,8 +9497,11 @@
       <c r="G350">
         <v>142.976835457745</v>
       </c>
-    </row>
-    <row r="351" spans="1:7">
+      <c r="H350">
+        <v>0.3806109266478972</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
       <c r="A351">
         <v>6084.3946</v>
       </c>
@@ -8470,8 +9523,11 @@
       <c r="G351">
         <v>187.2349535949378</v>
       </c>
-    </row>
-    <row r="352" spans="1:7">
+      <c r="H351">
+        <v>0.3214694199567125</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
       <c r="A352">
         <v>6095.3313</v>
       </c>
@@ -8493,8 +9549,11 @@
       <c r="G352">
         <v>83.61271164294175</v>
       </c>
-    </row>
-    <row r="353" spans="1:7">
+      <c r="H352">
+        <v>0.2653492521511983</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8">
       <c r="A353">
         <v>6096.0607</v>
       </c>
@@ -8516,8 +9575,11 @@
       <c r="G353">
         <v>147.5341893711322</v>
       </c>
-    </row>
-    <row r="354" spans="1:7">
+      <c r="H353">
+        <v>0.1687968656752894</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8">
       <c r="A354">
         <v>6098.353</v>
       </c>
@@ -8539,8 +9601,11 @@
       <c r="G354">
         <v>142.562775215554</v>
       </c>
-    </row>
-    <row r="355" spans="1:7">
+      <c r="H354">
+        <v>0.316016618796952</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8">
       <c r="A355">
         <v>6099.9329</v>
       </c>
@@ -8562,8 +9627,11 @@
       <c r="G355">
         <v>117.9524285386431</v>
       </c>
-    </row>
-    <row r="356" spans="1:7">
+      <c r="H355">
+        <v>0.1407192975796494</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8">
       <c r="A356">
         <v>6101.9603</v>
       </c>
@@ -8585,8 +9653,11 @@
       <c r="G356">
         <v>162.1307027300764</v>
       </c>
-    </row>
-    <row r="357" spans="1:7">
+      <c r="H356">
+        <v>0.07302933779230891</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8">
       <c r="A357">
         <v>6106.8214</v>
       </c>
@@ -8608,8 +9679,11 @@
       <c r="G357">
         <v>-24.54570377302966</v>
       </c>
-    </row>
-    <row r="358" spans="1:7">
+      <c r="H357">
+        <v>0.1017637716252056</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8">
       <c r="A358">
         <v>6121.9435</v>
       </c>
@@ -8631,8 +9705,11 @@
       <c r="G358">
         <v>117.5283468560231</v>
       </c>
-    </row>
-    <row r="359" spans="1:7">
+      <c r="H358">
+        <v>0.05228802725623427</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8">
       <c r="A359">
         <v>6129.6027</v>
       </c>
@@ -8654,8 +9731,11 @@
       <c r="G359">
         <v>205.4176077853009</v>
       </c>
-    </row>
-    <row r="360" spans="1:7">
+      <c r="H359">
+        <v>0.4110858638168479</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8">
       <c r="A360">
         <v>6138.3138</v>
       </c>
@@ -8677,8 +9757,11 @@
       <c r="G360">
         <v>649.565959220505</v>
       </c>
-    </row>
-    <row r="361" spans="1:7">
+      <c r="H360">
+        <v>0.7336158743289096</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8">
       <c r="A361">
         <v>6138.6932</v>
       </c>
@@ -8700,8 +9783,11 @@
       <c r="G361">
         <v>278.3682055686399</v>
       </c>
-    </row>
-    <row r="362" spans="1:7">
+      <c r="H361">
+        <v>0.5415564512836942</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8">
       <c r="A362">
         <v>6139.3904</v>
       </c>
@@ -8723,8 +9809,11 @@
       <c r="G362">
         <v>610.3872666042163</v>
       </c>
-    </row>
-    <row r="363" spans="1:7">
+      <c r="H362">
+        <v>0.7251604914955393</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8">
       <c r="A363">
         <v>6153.3206</v>
       </c>
@@ -8746,8 +9835,11 @@
       <c r="G363">
         <v>228.9860457782337</v>
       </c>
-    </row>
-    <row r="364" spans="1:7">
+      <c r="H363">
+        <v>0.4389906587149988</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8">
       <c r="A364">
         <v>6159.4325</v>
       </c>
@@ -8769,8 +9861,11 @@
       <c r="G364">
         <v>238.493244977604</v>
       </c>
-    </row>
-    <row r="365" spans="1:7">
+      <c r="H364">
+        <v>0.4951082667538936</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8">
       <c r="A365">
         <v>6167.0664</v>
       </c>
@@ -8792,8 +9887,11 @@
       <c r="G365">
         <v>194.4473683488407</v>
       </c>
-    </row>
-    <row r="366" spans="1:7">
+      <c r="H365">
+        <v>0.3833192883695882</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8">
       <c r="A366">
         <v>6175.0438</v>
       </c>
@@ -8815,8 +9913,11 @@
       <c r="G366">
         <v>301.0040575521219</v>
       </c>
-    </row>
-    <row r="367" spans="1:7">
+      <c r="H366">
+        <v>0.5486217681171105</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8">
       <c r="A367">
         <v>6181.9143</v>
       </c>
@@ -8838,8 +9939,11 @@
       <c r="G367">
         <v>242.4754238206834</v>
       </c>
-    </row>
-    <row r="368" spans="1:7">
+      <c r="H367">
+        <v>0.4563861429157469</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8">
       <c r="A368">
         <v>6189.7026</v>
       </c>
@@ -8861,8 +9965,11 @@
       <c r="G368">
         <v>188.8928534873326</v>
       </c>
-    </row>
-    <row r="369" spans="1:7">
+      <c r="H368">
+        <v>0.3811703624042884</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8">
       <c r="A369">
         <v>6202.0285</v>
       </c>
@@ -8884,8 +9991,11 @@
       <c r="G369">
         <v>381.8686770276714</v>
       </c>
-    </row>
-    <row r="370" spans="1:7">
+      <c r="H369">
+        <v>0.5591449757688395</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8">
       <c r="A370">
         <v>6215.1493</v>
       </c>
@@ -8907,8 +10017,11 @@
       <c r="G370">
         <v>361.7682096654996</v>
       </c>
-    </row>
-    <row r="371" spans="1:7">
+      <c r="H370">
+        <v>0.6123919535494944</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8">
       <c r="A371">
         <v>6216.8633</v>
       </c>
@@ -8930,8 +10043,11 @@
       <c r="G371">
         <v>236.2900667862998</v>
       </c>
-    </row>
-    <row r="372" spans="1:7">
+      <c r="H371">
+        <v>0.4280876815293804</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8">
       <c r="A372">
         <v>6221.0016</v>
       </c>
@@ -8953,8 +10069,11 @@
       <c r="G372">
         <v>385.523074635007</v>
       </c>
-    </row>
-    <row r="373" spans="1:7">
+      <c r="H372">
+        <v>0.635575679730927</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8">
       <c r="A373">
         <v>6234.3654</v>
       </c>
@@ -8976,8 +10095,11 @@
       <c r="G373">
         <v>341.4183025228628</v>
       </c>
-    </row>
-    <row r="374" spans="1:7">
+      <c r="H373">
+        <v>0.573462403583286</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8">
       <c r="A374">
         <v>6242.3726</v>
       </c>
@@ -8999,8 +10121,11 @@
       <c r="G374">
         <v>249.7320941118427</v>
       </c>
-    </row>
-    <row r="375" spans="1:7">
+      <c r="H374">
+        <v>0.4245145371223916</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8">
       <c r="A375">
         <v>6248.0467</v>
       </c>
@@ -9022,8 +10147,11 @@
       <c r="G375">
         <v>446.2306370896356</v>
       </c>
-    </row>
-    <row r="376" spans="1:7">
+      <c r="H375">
+        <v>0.6634145965126477</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8">
       <c r="A376">
         <v>6254.285</v>
       </c>
@@ -9045,8 +10173,11 @@
       <c r="G376">
         <v>603.9675151969037</v>
       </c>
-    </row>
-    <row r="377" spans="1:7">
+      <c r="H376">
+        <v>0.7011315068402506</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8">
       <c r="A377">
         <v>6266.8669</v>
       </c>
@@ -9068,8 +10199,11 @@
       <c r="G377">
         <v>358.7827013026903</v>
       </c>
-    </row>
-    <row r="378" spans="1:7">
+      <c r="H377">
+        <v>0.6204965647274963</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8">
       <c r="A378">
         <v>6271.9593</v>
       </c>
@@ -9091,8 +10225,11 @@
       <c r="G378">
         <v>272.4534597109807</v>
       </c>
-    </row>
-    <row r="379" spans="1:7">
+      <c r="H378">
+        <v>0.4536896259612506</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8">
       <c r="A379">
         <v>6282.3553</v>
       </c>
@@ -9114,8 +10251,11 @@
       <c r="G379">
         <v>267.2306299909687</v>
       </c>
-    </row>
-    <row r="380" spans="1:7">
+      <c r="H379">
+        <v>0.5402912587171281</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8">
       <c r="A380">
         <v>6299.5348</v>
       </c>
@@ -9137,8 +10277,11 @@
       <c r="G380">
         <v>333.1273296603176</v>
       </c>
-    </row>
-    <row r="381" spans="1:7">
+      <c r="H380">
+        <v>0.5710888583334588</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8">
       <c r="A381">
         <v>6303.2439</v>
       </c>
@@ -9160,8 +10303,11 @@
       <c r="G381">
         <v>432.8106941308428</v>
       </c>
-    </row>
-    <row r="382" spans="1:7">
+      <c r="H381">
+        <v>0.6612362055938531</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8">
       <c r="A382">
         <v>6304.2365</v>
       </c>
@@ -9183,8 +10329,11 @@
       <c r="G382">
         <v>347.1451211101874</v>
       </c>
-    </row>
-    <row r="383" spans="1:7">
+      <c r="H382">
+        <v>0.5743654308512453</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8">
       <c r="A383">
         <v>6313.2457</v>
       </c>
@@ -9206,8 +10355,11 @@
       <c r="G383">
         <v>175.6991802961932</v>
       </c>
-    </row>
-    <row r="384" spans="1:7">
+      <c r="H383">
+        <v>0.2471151158662551</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8">
       <c r="A384">
         <v>6317.558</v>
       </c>
@@ -9229,8 +10381,11 @@
       <c r="G384">
         <v>161.343094437521</v>
       </c>
-    </row>
-    <row r="385" spans="1:7">
+      <c r="H384">
+        <v>0.3454242395552835</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8">
       <c r="A385">
         <v>6338.5765</v>
       </c>
@@ -9252,8 +10407,11 @@
       <c r="G385">
         <v>411.4795151215545</v>
       </c>
-    </row>
-    <row r="386" spans="1:7">
+      <c r="H385">
+        <v>0.6331270573283694</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8">
       <c r="A386">
         <v>6340.6302</v>
       </c>
@@ -9275,8 +10433,11 @@
       <c r="G386">
         <v>108.7467068400894</v>
       </c>
-    </row>
-    <row r="387" spans="1:7">
+      <c r="H386">
+        <v>0.3402574969598908</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8">
       <c r="A387">
         <v>6345.9033</v>
       </c>
@@ -9298,8 +10459,11 @@
       <c r="G387">
         <v>292.8997105026701</v>
       </c>
-    </row>
-    <row r="388" spans="1:7">
+      <c r="H387">
+        <v>0.477814610394565</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8">
       <c r="A388">
         <v>6366.1253</v>
       </c>
@@ -9321,8 +10485,11 @@
       <c r="G388">
         <v>61.21937238033836</v>
       </c>
-    </row>
-    <row r="389" spans="1:7">
+      <c r="H388">
+        <v>0.2339466226234082</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8">
       <c r="A389">
         <v>6366.4548</v>
       </c>
@@ -9344,8 +10511,11 @@
       <c r="G389">
         <v>-9.417877534870829</v>
       </c>
-    </row>
-    <row r="390" spans="1:7">
+      <c r="H389">
+        <v>0.1124653139735874</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8">
       <c r="A390">
         <v>6382.5072</v>
       </c>
@@ -9367,8 +10537,11 @@
       <c r="G390">
         <v>187.8838196625262</v>
       </c>
-    </row>
-    <row r="391" spans="1:7">
+      <c r="H390">
+        <v>0.4128976387249509</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8">
       <c r="A391">
         <v>6387.4838</v>
       </c>
@@ -9390,8 +10563,11 @@
       <c r="G391">
         <v>93.86871812200049</v>
       </c>
-    </row>
-    <row r="392" spans="1:7">
+      <c r="H391">
+        <v>0.09199245704724157</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8">
       <c r="A392">
         <v>6394.3059</v>
       </c>
@@ -9413,8 +10589,11 @@
       <c r="G392">
         <v>145.3412824473261</v>
       </c>
-    </row>
-    <row r="393" spans="1:7">
+      <c r="H392">
+        <v>0.164853014559886</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8">
       <c r="A393">
         <v>6395.3687</v>
       </c>
@@ -9436,8 +10615,11 @@
       <c r="G393">
         <v>632.8326594967555</v>
       </c>
-    </row>
-    <row r="394" spans="1:7">
+      <c r="H393">
+        <v>0.7036873710171854</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8">
       <c r="A394">
         <v>6401.7704</v>
       </c>
@@ -9459,8 +10641,11 @@
       <c r="G394">
         <v>524.4917139538284</v>
       </c>
-    </row>
-    <row r="395" spans="1:7">
+      <c r="H394">
+        <v>0.7104794604216713</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8">
       <c r="A395">
         <v>6409.7896</v>
       </c>
@@ -9482,8 +10667,11 @@
       <c r="G395">
         <v>378.8453383363331</v>
       </c>
-    </row>
-    <row r="396" spans="1:7">
+      <c r="H395">
+        <v>0.6014080356795841</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8">
       <c r="A396">
         <v>6413.4216</v>
       </c>
@@ -9505,8 +10693,11 @@
       <c r="G396">
         <v>462.7709698660614</v>
       </c>
-    </row>
-    <row r="397" spans="1:7">
+      <c r="H396">
+        <v>0.6707806269112065</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8">
       <c r="A397">
         <v>6421.4198</v>
       </c>
@@ -9528,8 +10719,11 @@
       <c r="G397">
         <v>177.408015021948</v>
       </c>
-    </row>
-    <row r="398" spans="1:7">
+      <c r="H397">
+        <v>0.09377674711171047</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8">
       <c r="A398">
         <v>6421.7241</v>
       </c>
@@ -9551,8 +10745,11 @@
       <c r="G398">
         <v>280.1046447543227</v>
       </c>
-    </row>
-    <row r="399" spans="1:7">
+      <c r="H398">
+        <v>0.5548120200633462</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8">
       <c r="A399">
         <v>6423.1257</v>
       </c>
@@ -9574,8 +10771,11 @@
       <c r="G399">
         <v>471.4065966442135</v>
       </c>
-    </row>
-    <row r="400" spans="1:7">
+      <c r="H399">
+        <v>0.6702345123955487</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8">
       <c r="A400">
         <v>6432.6238</v>
       </c>
@@ -9597,8 +10797,11 @@
       <c r="G400">
         <v>475.3710408940565</v>
       </c>
-    </row>
-    <row r="401" spans="1:7">
+      <c r="H400">
+        <v>0.6807423862472415</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8">
       <c r="A401">
         <v>6438.1862</v>
       </c>
@@ -9620,8 +10823,11 @@
       <c r="G401">
         <v>116.4118467189259</v>
       </c>
-    </row>
-    <row r="402" spans="1:7">
+      <c r="H401">
+        <v>0.08845464801741354</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8">
       <c r="A402">
         <v>6483.6614</v>
       </c>
@@ -9643,8 +10849,11 @@
       <c r="G402">
         <v>309.7955529230764</v>
       </c>
-    </row>
-    <row r="403" spans="1:7">
+      <c r="H402">
+        <v>0.503519485188192</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8">
       <c r="A403">
         <v>6496.7751</v>
       </c>
@@ -9666,8 +10875,11 @@
       <c r="G403">
         <v>706.0156057071227</v>
       </c>
-    </row>
-    <row r="404" spans="1:7">
+      <c r="H403">
+        <v>0.7264962644035369</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8">
       <c r="A404">
         <v>6498.2616</v>
       </c>
@@ -9689,8 +10901,11 @@
       <c r="G404">
         <v>272.1921047835962</v>
       </c>
-    </row>
-    <row r="405" spans="1:7">
+      <c r="H404">
+        <v>0.4560046639565682</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8">
       <c r="A405">
         <v>6500.735</v>
       </c>
@@ -9712,8 +10927,11 @@
       <c r="G405">
         <v>244.4185199844733</v>
       </c>
-    </row>
-    <row r="406" spans="1:7">
+      <c r="H405">
+        <v>0.3974314888679317</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8">
       <c r="A406">
         <v>6511.4154</v>
       </c>
@@ -9735,8 +10953,11 @@
       <c r="G406">
         <v>73.66569378575771</v>
       </c>
-    </row>
-    <row r="407" spans="1:7">
+      <c r="H406">
+        <v>0.03183106210269449</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8">
       <c r="A407">
         <v>6520.1681</v>
       </c>
@@ -9758,8 +10979,11 @@
       <c r="G407">
         <v>266.6796667782517</v>
       </c>
-    </row>
-    <row r="408" spans="1:7">
+      <c r="H407">
+        <v>0.4519303160367723</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8">
       <c r="A408">
         <v>6553.4879</v>
       </c>
@@ -9781,8 +11005,11 @@
       <c r="G408">
         <v>205.854665697569</v>
       </c>
-    </row>
-    <row r="409" spans="1:7">
+      <c r="H408">
+        <v>0.08105578971597127</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8">
       <c r="A409">
         <v>6558.5993</v>
       </c>
@@ -9804,8 +11031,11 @@
       <c r="G409">
         <v>278.829962078581</v>
       </c>
-    </row>
-    <row r="410" spans="1:7">
+      <c r="H409">
+        <v>0.1660283273531956</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8">
       <c r="A410">
         <v>6571.0301</v>
       </c>
@@ -9827,8 +11057,11 @@
       <c r="G410">
         <v>337.6128484726897</v>
       </c>
-    </row>
-    <row r="411" spans="1:7">
+      <c r="H410">
+        <v>0.5312821704518802</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8">
       <c r="A411">
         <v>6583.028</v>
       </c>
@@ -9850,8 +11083,11 @@
       <c r="G411">
         <v>168.4987659619186</v>
       </c>
-    </row>
-    <row r="412" spans="1:7">
+      <c r="H411">
+        <v>0.1738776553554677</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8">
       <c r="A412">
         <v>6593.1334</v>
       </c>
@@ -9873,8 +11109,11 @@
       <c r="G412">
         <v>90.94081370385827</v>
       </c>
-    </row>
-    <row r="413" spans="1:7">
+      <c r="H412">
+        <v>0.08949420265157715</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8">
       <c r="A413">
         <v>6594.7348</v>
       </c>
@@ -9896,8 +11135,11 @@
       <c r="G413">
         <v>495.5070812211184</v>
       </c>
-    </row>
-    <row r="414" spans="1:7">
+      <c r="H413">
+        <v>0.662360299931503</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8">
       <c r="A414">
         <v>6595.6917</v>
       </c>
@@ -9919,8 +11161,11 @@
       <c r="G414">
         <v>472.7088082925675</v>
       </c>
-    </row>
-    <row r="415" spans="1:7">
+      <c r="H414">
+        <v>0.580205152053432</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8">
       <c r="A415">
         <v>6609.851</v>
       </c>
@@ -9942,8 +11187,11 @@
       <c r="G415">
         <v>204.0993149422558</v>
       </c>
-    </row>
-    <row r="416" spans="1:7">
+      <c r="H415">
+        <v>0.1550589665773699</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8">
       <c r="A416">
         <v>6610.9356</v>
       </c>
@@ -9965,8 +11213,11 @@
       <c r="G416">
         <v>353.7141055489136</v>
       </c>
-    </row>
-    <row r="417" spans="1:7">
+      <c r="H416">
+        <v>0.4903263609285957</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8">
       <c r="A417">
         <v>6626.8517</v>
       </c>
@@ -9988,8 +11239,11 @@
       <c r="G417">
         <v>176.4322847497118</v>
       </c>
-    </row>
-    <row r="418" spans="1:7">
+      <c r="H417">
+        <v>0.1355093143647683</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8">
       <c r="A418">
         <v>6629.3751</v>
       </c>
@@ -10011,8 +11265,11 @@
       <c r="G418">
         <v>122.098934547934</v>
       </c>
-    </row>
-    <row r="419" spans="1:7">
+      <c r="H418">
+        <v>0.221326023229495</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8">
       <c r="A419">
         <v>6635.2444</v>
       </c>
@@ -10034,8 +11291,11 @@
       <c r="G419">
         <v>135.5454780652353</v>
       </c>
-    </row>
-    <row r="420" spans="1:7">
+      <c r="H419">
+        <v>0.2104706126633726</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8">
       <c r="A420">
         <v>6635.5816</v>
       </c>
@@ -10057,8 +11317,11 @@
       <c r="G420">
         <v>234.9335559933501</v>
       </c>
-    </row>
-    <row r="421" spans="1:7">
+      <c r="H420">
+        <v>0.4624359269252583</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8">
       <c r="A421">
         <v>6635.9392</v>
       </c>
@@ -10080,8 +11343,11 @@
       <c r="G421">
         <v>131.0135765576024</v>
       </c>
-    </row>
-    <row r="422" spans="1:7">
+      <c r="H421">
+        <v>0.2421894872435141</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8">
       <c r="A422">
         <v>6648.7673</v>
       </c>
@@ -10103,8 +11369,11 @@
       <c r="G422">
         <v>171.3417372978098</v>
       </c>
-    </row>
-    <row r="423" spans="1:7">
+      <c r="H422">
+        <v>0.08362219184736219</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8">
       <c r="A423">
         <v>6655.6901</v>
       </c>
@@ -10126,8 +11395,11 @@
       <c r="G423">
         <v>130.6247909864805</v>
       </c>
-    </row>
-    <row r="424" spans="1:7">
+      <c r="H423">
+        <v>0.08575976002567065</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8">
       <c r="A424">
         <v>6669.2601</v>
       </c>
@@ -10149,8 +11421,11 @@
       <c r="G424">
         <v>103.3881784185375</v>
       </c>
-    </row>
-    <row r="425" spans="1:7">
+      <c r="H424">
+        <v>0.0546089487054604</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8">
       <c r="A425">
         <v>6689.3386</v>
       </c>
@@ -10172,8 +11447,11 @@
       <c r="G425">
         <v>62.74304024846773</v>
       </c>
-    </row>
-    <row r="426" spans="1:7">
+      <c r="H425">
+        <v>0.03377550352487424</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8">
       <c r="A426">
         <v>6694.1201</v>
       </c>
@@ -10195,8 +11473,11 @@
       <c r="G426">
         <v>116.4395587516074</v>
       </c>
-    </row>
-    <row r="427" spans="1:7">
+      <c r="H426">
+        <v>0.02444534726125036</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8">
       <c r="A427">
         <v>6700.9914</v>
       </c>
@@ -10218,8 +11499,11 @@
       <c r="G427">
         <v>125.2678644403852</v>
       </c>
-    </row>
-    <row r="428" spans="1:7">
+      <c r="H427">
+        <v>0.06657132924834908</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8">
       <c r="A428">
         <v>6705.4182</v>
       </c>
@@ -10241,8 +11525,11 @@
       <c r="G428">
         <v>214.6031396224027</v>
       </c>
-    </row>
-    <row r="429" spans="1:7">
+      <c r="H428">
+        <v>0.3054095168658297</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8">
       <c r="A429">
         <v>6706.3319</v>
       </c>
@@ -10264,8 +11551,11 @@
       <c r="G429">
         <v>160.9304259178272</v>
       </c>
-    </row>
-    <row r="430" spans="1:7">
+      <c r="H429">
+        <v>0.05132503013283307</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8">
       <c r="A430">
         <v>6706.9535</v>
       </c>
@@ -10287,8 +11577,11 @@
       <c r="G430">
         <v>169.8552615109571</v>
       </c>
-    </row>
-    <row r="431" spans="1:7">
+      <c r="H430">
+        <v>0.3420156184061842</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8">
       <c r="A431">
         <v>6709.2849</v>
       </c>
@@ -10310,8 +11603,11 @@
       <c r="G431">
         <v>98.30308555759244</v>
       </c>
-    </row>
-    <row r="432" spans="1:7">
+      <c r="H431">
+        <v>0.05176034880708591</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8">
       <c r="A432">
         <v>6712.1721</v>
       </c>
@@ -10333,8 +11629,11 @@
       <c r="G432">
         <v>192.0552021373099</v>
       </c>
-    </row>
-    <row r="433" spans="1:7">
+      <c r="H432">
+        <v>0.1375706557603545</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8">
       <c r="A433">
         <v>6717.2372</v>
       </c>
@@ -10356,8 +11655,11 @@
       <c r="G433">
         <v>138.3539976958022</v>
       </c>
-    </row>
-    <row r="434" spans="1:7">
+      <c r="H433">
+        <v>0.2019761403186081</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8">
       <c r="A434">
         <v>6718.0914</v>
       </c>
@@ -10379,8 +11681,11 @@
       <c r="G434">
         <v>84.78682950413669</v>
       </c>
-    </row>
-    <row r="435" spans="1:7">
+      <c r="H434">
+        <v>0.1233647310389476</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8">
       <c r="A435">
         <v>6727.2138</v>
       </c>
@@ -10402,8 +11707,11 @@
       <c r="G435">
         <v>142.605229108893</v>
       </c>
-    </row>
-    <row r="436" spans="1:7">
+      <c r="H435">
+        <v>0.1405214148431068</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8">
       <c r="A436">
         <v>6728.5238</v>
       </c>
@@ -10425,8 +11733,11 @@
       <c r="G436">
         <v>218.3217430527416</v>
       </c>
-    </row>
-    <row r="437" spans="1:7">
+      <c r="H436">
+        <v>0.3498905407073687</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8">
       <c r="A437">
         <v>6733.9233</v>
       </c>
@@ -10448,8 +11759,11 @@
       <c r="G437">
         <v>111.2993289966225</v>
       </c>
-    </row>
-    <row r="438" spans="1:7">
+      <c r="H437">
+        <v>0.06307163407218408</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8">
       <c r="A438">
         <v>6735.01</v>
       </c>
@@ -10471,8 +11785,11 @@
       <c r="G438">
         <v>137.9888997648001</v>
       </c>
-    </row>
-    <row r="439" spans="1:7">
+      <c r="H438">
+        <v>0.2106959326005928</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8">
       <c r="A439">
         <v>6739.847</v>
       </c>
@@ -10494,8 +11811,11 @@
       <c r="G439">
         <v>57.82478374146098</v>
       </c>
-    </row>
-    <row r="440" spans="1:7">
+      <c r="H439">
+        <v>0.1724555131431995</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8">
       <c r="A440">
         <v>6741.3823</v>
       </c>
@@ -10517,8 +11837,11 @@
       <c r="G440">
         <v>164.5407492506585</v>
       </c>
-    </row>
-    <row r="441" spans="1:7">
+      <c r="H440">
+        <v>0.1037072644450844</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8">
       <c r="A441">
         <v>6746.9632</v>
       </c>
@@ -10540,8 +11863,11 @@
       <c r="G441">
         <v>146.6311704918206</v>
       </c>
-    </row>
-    <row r="442" spans="1:7">
+      <c r="H441">
+        <v>0.07235118421882747</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8">
       <c r="A442">
         <v>6748.8173</v>
       </c>
@@ -10563,8 +11889,11 @@
       <c r="G442">
         <v>199.896663544362</v>
       </c>
-    </row>
-    <row r="443" spans="1:7">
+      <c r="H442">
+        <v>0.03971806807424549</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8">
       <c r="A443">
         <v>6752.0157</v>
       </c>
@@ -10586,8 +11915,11 @@
       <c r="G443">
         <v>346.3234205091492</v>
       </c>
-    </row>
-    <row r="444" spans="1:7">
+      <c r="H443">
+        <v>0.538105288154652</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8">
       <c r="A444">
         <v>6754.5711</v>
       </c>
@@ -10609,8 +11941,11 @@
       <c r="G444">
         <v>173.0961994462634</v>
       </c>
-    </row>
-    <row r="445" spans="1:7">
+      <c r="H444">
+        <v>0.2727648989030096</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8">
       <c r="A445">
         <v>6755.3281</v>
       </c>
@@ -10632,8 +11967,11 @@
       <c r="G445">
         <v>53.25440074399116</v>
       </c>
-    </row>
-    <row r="446" spans="1:7">
+      <c r="H445">
+        <v>0.05142061535740183</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8">
       <c r="A446">
         <v>6785.5762</v>
       </c>
@@ -10655,8 +11993,11 @@
       <c r="G446">
         <v>119.2882686545483</v>
       </c>
-    </row>
-    <row r="447" spans="1:7">
+      <c r="H446">
+        <v>0.1009168825000836</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8">
       <c r="A447">
         <v>6788.7335</v>
       </c>
@@ -10678,8 +12019,11 @@
       <c r="G447">
         <v>141.3129364538966</v>
       </c>
-    </row>
-    <row r="448" spans="1:7">
+      <c r="H447">
+        <v>0.1998893571384182</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8">
       <c r="A448">
         <v>6795.1341</v>
       </c>
@@ -10701,8 +12045,11 @@
       <c r="G448">
         <v>83.82552310057586</v>
       </c>
-    </row>
-    <row r="449" spans="1:7">
+      <c r="H448">
+        <v>0.1050375787682652</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8">
       <c r="A449">
         <v>6805.8786</v>
       </c>
@@ -10724,8 +12071,11 @@
       <c r="G449">
         <v>79.28828242968066</v>
       </c>
-    </row>
-    <row r="450" spans="1:7">
+      <c r="H449">
+        <v>0.1667549505328332</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8">
       <c r="A450">
         <v>6806.1492</v>
       </c>
@@ -10747,8 +12097,11 @@
       <c r="G450">
         <v>140.9513422926192</v>
       </c>
-    </row>
-    <row r="451" spans="1:7">
+      <c r="H450">
+        <v>0.1201358780903643</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8">
       <c r="A451">
         <v>6808.7234</v>
       </c>
@@ -10770,8 +12123,11 @@
       <c r="G451">
         <v>220.1532067233346</v>
       </c>
-    </row>
-    <row r="452" spans="1:7">
+      <c r="H451">
+        <v>0.2835722519701585</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8">
       <c r="A452">
         <v>6812.1422</v>
       </c>
@@ -10793,8 +12149,11 @@
       <c r="G452">
         <v>176.0341749640389</v>
       </c>
-    </row>
-    <row r="453" spans="1:7">
+      <c r="H452">
+        <v>0.3637823191304024</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8">
       <c r="A453">
         <v>6830.4756</v>
       </c>
@@ -10816,8 +12175,11 @@
       <c r="G453">
         <v>258.953491077705</v>
       </c>
-    </row>
-    <row r="454" spans="1:7">
+      <c r="H453">
+        <v>0.4005699902145838</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8">
       <c r="A454">
         <v>6838.8928</v>
       </c>
@@ -10839,8 +12201,11 @@
       <c r="G454">
         <v>96.44008569618839</v>
       </c>
-    </row>
-    <row r="455" spans="1:7">
+      <c r="H454">
+        <v>0.1407558248589048</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8">
       <c r="A455">
         <v>6841.7179</v>
       </c>
@@ -10862,8 +12227,11 @@
       <c r="G455">
         <v>232.2369982309701</v>
       </c>
-    </row>
-    <row r="456" spans="1:7">
+      <c r="H455">
+        <v>0.2473001079973423</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8">
       <c r="A456">
         <v>6844.574</v>
       </c>
@@ -10885,8 +12253,11 @@
       <c r="G456">
         <v>197.100076767616</v>
       </c>
-    </row>
-    <row r="457" spans="1:7">
+      <c r="H456">
+        <v>0.2945850244959196</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8">
       <c r="A457">
         <v>6845.5444</v>
       </c>
@@ -10908,8 +12279,11 @@
       <c r="G457">
         <v>210.2102790272025</v>
       </c>
-    </row>
-    <row r="458" spans="1:7">
+      <c r="H457">
+        <v>0.4250064637330954</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8">
       <c r="A458">
         <v>6857.0537</v>
       </c>
@@ -10931,8 +12305,11 @@
       <c r="G458">
         <v>279.8099322217222</v>
       </c>
-    </row>
-    <row r="459" spans="1:7">
+      <c r="H458">
+        <v>0.4871316954212078</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8">
       <c r="A459">
         <v>6859.1424</v>
       </c>
@@ -10954,8 +12331,11 @@
       <c r="G459">
         <v>91.78467588971206</v>
       </c>
-    </row>
-    <row r="460" spans="1:7">
+      <c r="H459">
+        <v>0.1772162304601821</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8">
       <c r="A460">
         <v>6860.0421</v>
       </c>
@@ -10977,8 +12357,11 @@
       <c r="G460">
         <v>192.2855277172897</v>
       </c>
-    </row>
-    <row r="461" spans="1:7">
+      <c r="H460">
+        <v>0.3741175952665599</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8">
       <c r="A461">
         <v>6918.5896</v>
       </c>
@@ -11000,8 +12383,11 @@
       <c r="G461">
         <v>238.3229262220435</v>
       </c>
-    </row>
-    <row r="462" spans="1:7">
+      <c r="H461">
+        <v>0.4064796294800664</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8">
       <c r="A462">
         <v>6947.121</v>
       </c>
@@ -11023,8 +12409,11 @@
       <c r="G462">
         <v>384.0659859137528</v>
       </c>
-    </row>
-    <row r="463" spans="1:7">
+      <c r="H462">
+        <v>0.5540119951306701</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8">
       <c r="A463">
         <v>6980.7765</v>
       </c>
@@ -11046,8 +12435,11 @@
       <c r="G463">
         <v>386.5088821976353</v>
       </c>
-    </row>
-    <row r="464" spans="1:7">
+      <c r="H463">
+        <v>0.5434295097569872</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8">
       <c r="A464">
         <v>7001.8146</v>
       </c>
@@ -11069,8 +12461,11 @@
       <c r="G464">
         <v>278.3065659815379</v>
       </c>
-    </row>
-    <row r="465" spans="1:7">
+      <c r="H464">
+        <v>0.3851343707663776</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8">
       <c r="A465">
         <v>7024.8907</v>
       </c>
@@ -11092,8 +12487,11 @@
       <c r="G465">
         <v>277.3923553421329</v>
       </c>
-    </row>
-    <row r="466" spans="1:7">
+      <c r="H465">
+        <v>0.4445592715273503</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8">
       <c r="A466">
         <v>7134.9526</v>
       </c>
@@ -11115,8 +12513,11 @@
       <c r="G466">
         <v>239.4994202029368</v>
       </c>
-    </row>
-    <row r="467" spans="1:7">
+      <c r="H466">
+        <v>0.322630062659623</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8">
       <c r="A467">
         <v>7209.0979</v>
       </c>
@@ -11138,8 +12539,11 @@
       <c r="G467">
         <v>303.5726486043146</v>
       </c>
-    </row>
-    <row r="468" spans="1:7">
+      <c r="H467">
+        <v>0.4600016912419423</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8">
       <c r="A468">
         <v>7209.3744</v>
       </c>
@@ -11161,8 +12565,11 @@
       <c r="G468">
         <v>478.2125432893851</v>
       </c>
-    </row>
-    <row r="469" spans="1:7">
+      <c r="H468">
+        <v>0.6114106867022824</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8">
       <c r="A469">
         <v>7290.7468</v>
       </c>
@@ -11184,8 +12591,11 @@
       <c r="G469">
         <v>234.3816151067288</v>
       </c>
-    </row>
-    <row r="470" spans="1:7">
+      <c r="H469">
+        <v>0.4274550781372191</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8">
       <c r="A470">
         <v>7403.7236</v>
       </c>
@@ -11207,8 +12617,11 @@
       <c r="G470">
         <v>166.0176884067126</v>
       </c>
-    </row>
-    <row r="471" spans="1:7">
+      <c r="H470">
+        <v>0.300143544460435</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8">
       <c r="A471">
         <v>7413.1957</v>
       </c>
@@ -11230,8 +12643,11 @@
       <c r="G471">
         <v>477.1964949355628</v>
       </c>
-    </row>
-    <row r="472" spans="1:7">
+      <c r="H471">
+        <v>0.5576926651967486</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8">
       <c r="A472">
         <v>7420.7108</v>
       </c>
@@ -11253,8 +12669,11 @@
       <c r="G472">
         <v>242.3965569497223</v>
       </c>
-    </row>
-    <row r="473" spans="1:7">
+      <c r="H472">
+        <v>0.3479217512543927</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8">
       <c r="A473">
         <v>7442.9616</v>
       </c>
@@ -11276,8 +12695,11 @@
       <c r="G473">
         <v>225.5604496260253</v>
       </c>
-    </row>
-    <row r="474" spans="1:7">
+      <c r="H473">
+        <v>0.3586531288473556</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8">
       <c r="A474">
         <v>7445.0723</v>
       </c>
@@ -11299,8 +12721,11 @@
       <c r="G474">
         <v>181.2025467098823</v>
       </c>
-    </row>
-    <row r="475" spans="1:7">
+      <c r="H474">
+        <v>0.2588618000565855</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8">
       <c r="A475">
         <v>7449.4449</v>
       </c>
@@ -11322,8 +12747,11 @@
       <c r="G475">
         <v>233.4128622855234</v>
       </c>
-    </row>
-    <row r="476" spans="1:7">
+      <c r="H475">
+        <v>0.2337393950502998</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8">
       <c r="A476">
         <v>7463.5755</v>
       </c>
@@ -11345,8 +12773,11 @@
       <c r="G476">
         <v>224.9374666546087</v>
       </c>
-    </row>
-    <row r="477" spans="1:7">
+      <c r="H476">
+        <v>0.2078682417587498</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8">
       <c r="A477">
         <v>7475.6121</v>
       </c>
@@ -11368,8 +12799,11 @@
       <c r="G477">
         <v>172.4417415259499</v>
       </c>
-    </row>
-    <row r="478" spans="1:7">
+      <c r="H477">
+        <v>0.1239477585321097</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8">
       <c r="A478">
         <v>7478.4348</v>
       </c>
@@ -11391,8 +12825,11 @@
       <c r="G478">
         <v>76.1664285974651</v>
       </c>
-    </row>
-    <row r="479" spans="1:7">
+      <c r="H478">
+        <v>0.1268394122210396</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8">
       <c r="A479">
         <v>7483.993</v>
       </c>
@@ -11414,8 +12851,11 @@
       <c r="G479">
         <v>224.3238021063881</v>
       </c>
-    </row>
-    <row r="480" spans="1:7">
+      <c r="H479">
+        <v>0.098082596511332</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8">
       <c r="A480">
         <v>7493.7117</v>
       </c>
@@ -11437,8 +12877,11 @@
       <c r="G480">
         <v>280.0410918233773</v>
       </c>
-    </row>
-    <row r="481" spans="1:7">
+      <c r="H480">
+        <v>0.4187848253322292</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8">
       <c r="A481">
         <v>7497.1314</v>
       </c>
@@ -11460,8 +12903,11 @@
       <c r="G481">
         <v>499.8452774835266</v>
       </c>
-    </row>
-    <row r="482" spans="1:7">
+      <c r="H481">
+        <v>0.6103134022692648</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8">
       <c r="A482">
         <v>7500.5954</v>
       </c>
@@ -11483,8 +12929,11 @@
       <c r="G482">
         <v>155.879703350401</v>
       </c>
-    </row>
-    <row r="483" spans="1:7">
+      <c r="H482">
+        <v>0.13955492132463</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8">
       <c r="A483">
         <v>7508.0813</v>
       </c>
@@ -11506,8 +12955,11 @@
       <c r="G483">
         <v>239.5758218871549</v>
       </c>
-    </row>
-    <row r="484" spans="1:7">
+      <c r="H483">
+        <v>0.1355097568818949</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8">
       <c r="A484">
         <v>7509.3335</v>
       </c>
@@ -11529,8 +12981,11 @@
       <c r="G484">
         <v>239.5358719892937</v>
       </c>
-    </row>
-    <row r="485" spans="1:7">
+      <c r="H484">
+        <v>0.3778454456418435</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8">
       <c r="A485">
         <v>7513.0887</v>
       </c>
@@ -11552,8 +13007,11 @@
       <c r="G485">
         <v>530.705792314264</v>
       </c>
-    </row>
-    <row r="486" spans="1:7">
+      <c r="H485">
+        <v>0.6432256015192734</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8">
       <c r="A486">
         <v>7533.2189</v>
       </c>
@@ -11575,8 +13033,11 @@
       <c r="G486">
         <v>366.1237845858022</v>
       </c>
-    </row>
-    <row r="487" spans="1:7">
+      <c r="H486">
+        <v>0.4982887545182485</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8">
       <c r="A487">
         <v>7543.9894</v>
       </c>
@@ -11598,8 +13059,11 @@
       <c r="G487">
         <v>198.6962348921064</v>
       </c>
-    </row>
-    <row r="488" spans="1:7">
+      <c r="H487">
+        <v>0.07887099157278865</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8">
       <c r="A488">
         <v>7549.975</v>
       </c>
@@ -11621,8 +13085,11 @@
       <c r="G488">
         <v>206.4802574413901</v>
       </c>
-    </row>
-    <row r="489" spans="1:7">
+      <c r="H488">
+        <v>0.1478311837878952</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8">
       <c r="A489">
         <v>7565.0931</v>
       </c>
@@ -11644,8 +13111,11 @@
       <c r="G489">
         <v>130.7736862554245</v>
       </c>
-    </row>
-    <row r="490" spans="1:7">
+      <c r="H489">
+        <v>0.1161422548276181</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8">
       <c r="A490">
         <v>7570.9838</v>
       </c>
@@ -11667,8 +13137,11 @@
       <c r="G490">
         <v>308.8609399394046</v>
       </c>
-    </row>
-    <row r="491" spans="1:7">
+      <c r="H490">
+        <v>0.4536206416825418</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8">
       <c r="A491">
         <v>7588.1072</v>
       </c>
@@ -11690,8 +13163,11 @@
       <c r="G491">
         <v>470.1475817136757</v>
       </c>
-    </row>
-    <row r="492" spans="1:7">
+      <c r="H491">
+        <v>0.5680218108679146</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8">
       <c r="A492">
         <v>7590.3944</v>
       </c>
@@ -11713,8 +13189,11 @@
       <c r="G492">
         <v>177.7333284748242</v>
       </c>
-    </row>
-    <row r="493" spans="1:7">
+      <c r="H492">
+        <v>0.18404149978141</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8">
       <c r="A493">
         <v>7620.0869</v>
       </c>
@@ -11736,8 +13215,11 @@
       <c r="G493">
         <v>184.909249837809</v>
       </c>
-    </row>
-    <row r="494" spans="1:7">
+      <c r="H493">
+        <v>0.1566774243193592</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8">
       <c r="A494">
         <v>7712.4865</v>
       </c>
@@ -11759,8 +13241,11 @@
       <c r="G494">
         <v>287.6457792763024</v>
       </c>
-    </row>
-    <row r="495" spans="1:7">
+      <c r="H494">
+        <v>0.4075769650093504</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8">
       <c r="A495">
         <v>7721.173</v>
       </c>
@@ -11782,8 +13267,11 @@
       <c r="G495">
         <v>194.1366020472757</v>
       </c>
-    </row>
-    <row r="496" spans="1:7">
+      <c r="H495">
+        <v>0.1881763520772868</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8">
       <c r="A496">
         <v>7725.3335</v>
       </c>
@@ -11805,8 +13293,11 @@
       <c r="G496">
         <v>236.7191000773739</v>
       </c>
-    </row>
-    <row r="497" spans="1:7">
+      <c r="H496">
+        <v>0.2999356900994559</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8">
       <c r="A497">
         <v>7739.7955</v>
       </c>
@@ -11828,8 +13319,11 @@
       <c r="G497">
         <v>108.4549174772413</v>
       </c>
-    </row>
-    <row r="498" spans="1:7">
+      <c r="H497">
+        <v>0.02126083399450307</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8">
       <c r="A498">
         <v>7747.6455</v>
       </c>
@@ -11851,8 +13345,11 @@
       <c r="G498">
         <v>201.2121981714189</v>
       </c>
-    </row>
-    <row r="499" spans="1:7">
+      <c r="H498">
+        <v>0.145765086625505</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8">
       <c r="A499">
         <v>7748.7262</v>
       </c>
@@ -11874,8 +13371,11 @@
       <c r="G499">
         <v>205.0530611646599</v>
       </c>
-    </row>
-    <row r="500" spans="1:7">
+      <c r="H499">
+        <v>0.125610001317886</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8">
       <c r="A500">
         <v>7753.2422</v>
       </c>
@@ -11897,8 +13397,11 @@
       <c r="G500">
         <v>266.8003793837181</v>
       </c>
-    </row>
-    <row r="501" spans="1:7">
+      <c r="H500">
+        <v>0.2896452945161466</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8">
       <c r="A501">
         <v>7782.6983</v>
       </c>
@@ -11920,8 +13423,11 @@
       <c r="G501">
         <v>454.5404264637098</v>
       </c>
-    </row>
-    <row r="502" spans="1:7">
+      <c r="H501">
+        <v>0.5528753832371543</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8">
       <c r="A502">
         <v>7804.6198</v>
       </c>
@@ -11943,8 +13449,11 @@
       <c r="G502">
         <v>161.3311545941339</v>
       </c>
-    </row>
-    <row r="503" spans="1:7">
+      <c r="H502">
+        <v>0.1070853846026373</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8">
       <c r="A503">
         <v>7810.0575</v>
       </c>
@@ -11966,8 +13475,11 @@
       <c r="G503">
         <v>230.3126126701382</v>
       </c>
-    </row>
-    <row r="504" spans="1:7">
+      <c r="H503">
+        <v>0.3579061465406463</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8">
       <c r="A504">
         <v>7812.9639</v>
       </c>
@@ -11989,8 +13501,11 @@
       <c r="G504">
         <v>203.3671277195349</v>
       </c>
-    </row>
-    <row r="505" spans="1:7">
+      <c r="H504">
+        <v>0.1472715012033748</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8">
       <c r="A505">
         <v>7822.9553</v>
       </c>
@@ -12012,8 +13527,11 @@
       <c r="G505">
         <v>176.2818850598353</v>
       </c>
-    </row>
-    <row r="506" spans="1:7">
+      <c r="H505">
+        <v>0.0404351584549052</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8">
       <c r="A506">
         <v>7834.3517</v>
       </c>
@@ -12035,8 +13553,11 @@
       <c r="G506">
         <v>474.5033949449048</v>
       </c>
-    </row>
-    <row r="507" spans="1:7">
+      <c r="H506">
+        <v>0.5650336630237762</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8">
       <c r="A507">
         <v>7846.7172</v>
       </c>
@@ -12058,8 +13579,11 @@
       <c r="G507">
         <v>99.33585867874183</v>
       </c>
-    </row>
-    <row r="508" spans="1:7">
+      <c r="H507">
+        <v>0.08741255061021302</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8">
       <c r="A508">
         <v>7857.56</v>
       </c>
@@ -12081,8 +13605,11 @@
       <c r="G508">
         <v>156.4288504075296</v>
       </c>
-    </row>
-    <row r="509" spans="1:7">
+      <c r="H508">
+        <v>0.1834309695513954</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8">
       <c r="A509">
         <v>7915.0437</v>
       </c>
@@ -12104,8 +13631,11 @@
       <c r="G509">
         <v>193.1690580216328</v>
       </c>
-    </row>
-    <row r="510" spans="1:7">
+      <c r="H509">
+        <v>0.3373298740566121</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8">
       <c r="A510">
         <v>7939.3239</v>
       </c>
@@ -12127,8 +13657,11 @@
       <c r="G510">
         <v>502.2140098760443</v>
       </c>
-    </row>
-    <row r="511" spans="1:7">
+      <c r="H510">
+        <v>0.587678926336022</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8">
       <c r="A511">
         <v>7943.2736</v>
       </c>
@@ -12150,8 +13683,11 @@
       <c r="G511">
         <v>241.546725873968</v>
       </c>
-    </row>
-    <row r="512" spans="1:7">
+      <c r="H511">
+        <v>0.2954916237079047</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8">
       <c r="A512">
         <v>7948.0326</v>
       </c>
@@ -12173,8 +13709,11 @@
       <c r="G512">
         <v>501.6637314411207</v>
       </c>
-    </row>
-    <row r="513" spans="1:7">
+      <c r="H512">
+        <v>0.5801117194187611</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8">
       <c r="A513">
         <v>7957.1226</v>
       </c>
@@ -12196,8 +13735,11 @@
       <c r="G513">
         <v>267.4995170081102</v>
       </c>
-    </row>
-    <row r="514" spans="1:7">
+      <c r="H513">
+        <v>0.054255538543305</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8">
       <c r="A514">
         <v>7957.8805</v>
       </c>
@@ -12219,8 +13761,11 @@
       <c r="G514">
         <v>199.6637204050944</v>
       </c>
-    </row>
-    <row r="515" spans="1:7">
+      <c r="H514">
+        <v>0.1587057674243796</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8">
       <c r="A515">
         <v>8001.1458</v>
       </c>
@@ -12242,8 +13787,11 @@
       <c r="G515">
         <v>460.8648967691788</v>
       </c>
-    </row>
-    <row r="516" spans="1:7">
+      <c r="H515">
+        <v>0.5816499661917581</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8">
       <c r="A516">
         <v>8030.5224</v>
       </c>
@@ -12265,8 +13813,11 @@
       <c r="G516">
         <v>343.4509582626749</v>
       </c>
-    </row>
-    <row r="517" spans="1:7">
+      <c r="H516">
+        <v>0.4206845148720093</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8">
       <c r="A517">
         <v>8048.2606</v>
       </c>
@@ -12288,8 +13839,11 @@
       <c r="G517">
         <v>473.0667166225604</v>
       </c>
-    </row>
-    <row r="518" spans="1:7">
+      <c r="H517">
+        <v>0.5593567574820386</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8">
       <c r="A518">
         <v>8074.3845</v>
       </c>
@@ -12311,8 +13865,11 @@
       <c r="G518">
         <v>59.40612971022731</v>
       </c>
-    </row>
-    <row r="519" spans="1:7">
+      <c r="H518">
+        <v>0.08545314523045333</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8">
       <c r="A519">
         <v>8077.3715</v>
       </c>
@@ -12334,8 +13891,11 @@
       <c r="G519">
         <v>204.1330547768963</v>
       </c>
-    </row>
-    <row r="520" spans="1:7">
+      <c r="H519">
+        <v>0.254856337174696</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8">
       <c r="A520">
         <v>8099.1019</v>
       </c>
@@ -12357,8 +13917,11 @@
       <c r="G520">
         <v>88.83724495324149</v>
       </c>
-    </row>
-    <row r="521" spans="1:7">
+      <c r="H520">
+        <v>0.2398689216542147</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8">
       <c r="A521">
         <v>8206.358399999999</v>
       </c>
@@ -12380,8 +13943,11 @@
       <c r="G521">
         <v>208.2308531614801</v>
       </c>
-    </row>
-    <row r="522" spans="1:7">
+      <c r="H521">
+        <v>0.04777908385720575</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8">
       <c r="A522">
         <v>8209.999299999999</v>
       </c>
@@ -12403,8 +13969,11 @@
       <c r="G522">
         <v>299.4273282917338</v>
       </c>
-    </row>
-    <row r="523" spans="1:7">
+      <c r="H522">
+        <v>0.385837723552521</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8">
       <c r="A523">
         <v>8218.063399999999</v>
       </c>
@@ -12426,8 +13995,11 @@
       <c r="G523">
         <v>40.12766609656833</v>
       </c>
-    </row>
-    <row r="524" spans="1:7">
+      <c r="H523">
+        <v>0.0728333346280714</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8">
       <c r="A524">
         <v>8222.638800000001</v>
       </c>
@@ -12449,8 +14021,11 @@
       <c r="G524">
         <v>539.5990856589589</v>
       </c>
-    </row>
-    <row r="525" spans="1:7">
+      <c r="H524">
+        <v>0.6255594432616794</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8">
       <c r="A525">
         <v>8241.393</v>
       </c>
@@ -12472,8 +14047,11 @@
       <c r="G525">
         <v>250.9973690310747</v>
       </c>
-    </row>
-    <row r="526" spans="1:7">
+      <c r="H525">
+        <v>0.314153485378849</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8">
       <c r="A526">
         <v>8250.398300000001</v>
       </c>
@@ -12495,8 +14073,11 @@
       <c r="G526">
         <v>272.525440993782</v>
       </c>
-    </row>
-    <row r="527" spans="1:7">
+      <c r="H526">
+        <v>0.3641380931570966</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8">
       <c r="A527">
         <v>8266.5506</v>
       </c>
@@ -12518,8 +14099,11 @@
       <c r="G527">
         <v>61.65173396973989</v>
       </c>
-    </row>
-    <row r="528" spans="1:7">
+      <c r="H527">
+        <v>0.1333043185992766</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8">
       <c r="A528">
         <v>8271.921899999999</v>
       </c>
@@ -12541,8 +14125,11 @@
       <c r="G528">
         <v>152.2171436604011</v>
       </c>
-    </row>
-    <row r="529" spans="1:7">
+      <c r="H528">
+        <v>0.1051838609787994</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8">
       <c r="A529">
         <v>8278.1669</v>
       </c>
@@ -12564,8 +14151,11 @@
       <c r="G529">
         <v>202.8030825017334</v>
       </c>
-    </row>
-    <row r="530" spans="1:7">
+      <c r="H529">
+        <v>0.2264763841678062</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8">
       <c r="A530">
         <v>8295.7942</v>
       </c>
@@ -12587,8 +14177,11 @@
       <c r="G530">
         <v>303.5582352532722</v>
       </c>
-    </row>
-    <row r="531" spans="1:7">
+      <c r="H530">
+        <v>0.3827497207603291</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8">
       <c r="A531">
         <v>8334.205599999999</v>
       </c>
@@ -12610,8 +14203,11 @@
       <c r="G531">
         <v>449.6416221193597</v>
       </c>
-    </row>
-    <row r="532" spans="1:7">
+      <c r="H531">
+        <v>0.5409228437993285</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8">
       <c r="A532">
         <v>8363.0934</v>
       </c>
@@ -12633,8 +14229,11 @@
       <c r="G532">
         <v>233.0060042921284</v>
       </c>
-    </row>
-    <row r="533" spans="1:7">
+      <c r="H532">
+        <v>0.3317848868687616</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8">
       <c r="A533">
         <v>8367.9326</v>
       </c>
@@ -12656,8 +14255,11 @@
       <c r="G533">
         <v>365.4287406505287</v>
       </c>
-    </row>
-    <row r="534" spans="1:7">
+      <c r="H533">
+        <v>0.4095087392693443</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8">
       <c r="A534">
         <v>8403.7088</v>
       </c>
@@ -12679,8 +14281,11 @@
       <c r="G534">
         <v>263.9863234175524</v>
       </c>
-    </row>
-    <row r="535" spans="1:7">
+      <c r="H534">
+        <v>0.2054713745810873</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8">
       <c r="A535">
         <v>8426.4555</v>
       </c>
@@ -12702,8 +14307,11 @@
       <c r="G535">
         <v>149.4256183281506</v>
       </c>
-    </row>
-    <row r="536" spans="1:7">
+      <c r="H535">
+        <v>0.2063335982684467</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8">
       <c r="A536">
         <v>8441.891100000001</v>
       </c>
@@ -12725,8 +14333,11 @@
       <c r="G536">
         <v>330.2660300174602</v>
       </c>
-    </row>
-    <row r="537" spans="1:7">
+      <c r="H536">
+        <v>0.3973819243906761</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8">
       <c r="A537">
         <v>8470.7343</v>
       </c>
@@ -12748,8 +14359,11 @@
       <c r="G537">
         <v>499.0209240425326</v>
       </c>
-    </row>
-    <row r="538" spans="1:7">
+      <c r="H537">
+        <v>0.5826453156182305</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8">
       <c r="A538">
         <v>8474.072099999999</v>
       </c>
@@ -12771,8 +14385,11 @@
       <c r="G538">
         <v>99.05732126728971</v>
       </c>
-    </row>
-    <row r="539" spans="1:7">
+      <c r="H538">
+        <v>0.2165710363633191</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8">
       <c r="A539">
         <v>8516.4113</v>
       </c>
@@ -12794,8 +14411,11 @@
       <c r="G539">
         <v>468.1830821665931</v>
       </c>
-    </row>
-    <row r="540" spans="1:7">
+      <c r="H539">
+        <v>0.5640880997104001</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8">
       <c r="A540">
         <v>8529.0116</v>
       </c>
@@ -12817,8 +14437,11 @@
       <c r="G540">
         <v>256.5930316024024</v>
       </c>
-    </row>
-    <row r="541" spans="1:7">
+      <c r="H540">
+        <v>0.3456221017095604</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8">
       <c r="A541">
         <v>8574.160099999999</v>
       </c>
@@ -12840,8 +14463,11 @@
       <c r="G541">
         <v>94.40453960430163</v>
       </c>
-    </row>
-    <row r="542" spans="1:7">
+      <c r="H541">
+        <v>0.1867342291227548</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8">
       <c r="A542">
         <v>8601.1924</v>
       </c>
@@ -12863,8 +14489,11 @@
       <c r="G542">
         <v>247.4687639794099</v>
       </c>
-    </row>
-    <row r="543" spans="1:7">
+      <c r="H542">
+        <v>0.3173379146644116</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8">
       <c r="A543">
         <v>8612.9773</v>
       </c>
@@ -12886,8 +14515,11 @@
       <c r="G543">
         <v>160.1124975524262</v>
       </c>
-    </row>
-    <row r="544" spans="1:7">
+      <c r="H543">
+        <v>0.1583176152081024</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8">
       <c r="A544">
         <v>8614.169599999999</v>
       </c>
@@ -12909,8 +14541,11 @@
       <c r="G544">
         <v>407.1862897951532</v>
       </c>
-    </row>
-    <row r="545" spans="1:7">
+      <c r="H544">
+        <v>0.5138262764934249</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8">
       <c r="A545">
         <v>8616.307199999999</v>
       </c>
@@ -12932,8 +14567,11 @@
       <c r="G545">
         <v>100.9014776574091</v>
       </c>
-    </row>
-    <row r="546" spans="1:7">
+      <c r="H545">
+        <v>0.1888566104108731</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8">
       <c r="A546">
         <v>8618.6464</v>
       </c>
@@ -12955,8 +14593,11 @@
       <c r="G546">
         <v>215.6618514234176</v>
       </c>
-    </row>
-    <row r="547" spans="1:7">
+      <c r="H546">
+        <v>0.2590331091747723</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8">
       <c r="A547">
         <v>8623.968999999999</v>
       </c>
@@ -12978,8 +14619,11 @@
       <c r="G547">
         <v>399.7710644547503</v>
       </c>
-    </row>
-    <row r="548" spans="1:7">
+      <c r="H547">
+        <v>0.4146356310945962</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8">
       <c r="A548">
         <v>8677.1291</v>
       </c>
@@ -13001,8 +14645,11 @@
       <c r="G548">
         <v>445.6915027526201</v>
       </c>
-    </row>
-    <row r="549" spans="1:7">
+      <c r="H548">
+        <v>0.5355782734602178</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8">
       <c r="A549">
         <v>8691.0119</v>
       </c>
@@ -13024,8 +14671,11 @@
       <c r="G549">
         <v>603.654450725946</v>
       </c>
-    </row>
-    <row r="550" spans="1:7">
+      <c r="H549">
+        <v>0.6738923056137915</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8">
       <c r="A550">
         <v>8701.8433</v>
       </c>
@@ -13047,8 +14697,11 @@
       <c r="G550">
         <v>275.6128306725886</v>
       </c>
-    </row>
-    <row r="551" spans="1:7">
+      <c r="H550">
+        <v>0.3583773260213926</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8">
       <c r="A551">
         <v>8712.783799999999</v>
       </c>
@@ -13070,8 +14723,11 @@
       <c r="G551">
         <v>316.5567604195722</v>
       </c>
-    </row>
-    <row r="552" spans="1:7">
+      <c r="H551">
+        <v>0.3883036342655228</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8">
       <c r="A552">
         <v>8759.5926</v>
       </c>
@@ -13093,8 +14749,11 @@
       <c r="G552">
         <v>393.5814625569145</v>
       </c>
-    </row>
-    <row r="553" spans="1:7">
+      <c r="H552">
+        <v>0.4946812584825201</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8">
       <c r="A553">
         <v>8766.3732</v>
       </c>
@@ -13116,8 +14775,11 @@
       <c r="G553">
         <v>396.6968361292472</v>
       </c>
-    </row>
-    <row r="554" spans="1:7">
+      <c r="H553">
+        <v>0.4684776556645982</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8">
       <c r="A554">
         <v>8786.852800000001</v>
       </c>
@@ -13139,8 +14801,11 @@
       <c r="G554">
         <v>136.4731900171342</v>
       </c>
-    </row>
-    <row r="555" spans="1:7">
+      <c r="H554">
+        <v>0.1743348250900019</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8">
       <c r="A555">
         <v>8795.758599999999</v>
       </c>
@@ -13162,8 +14827,11 @@
       <c r="G555">
         <v>415.8217789121333</v>
       </c>
-    </row>
-    <row r="556" spans="1:7">
+      <c r="H555">
+        <v>0.4866063377800564</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8">
       <c r="A556">
         <v>8798.8992</v>
       </c>
@@ -13185,8 +14853,11 @@
       <c r="G556">
         <v>173.7650928179621</v>
       </c>
-    </row>
-    <row r="557" spans="1:7">
+      <c r="H556">
+        <v>0.1589127537691571</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8">
       <c r="A557">
         <v>8807.0437</v>
       </c>
@@ -13208,8 +14879,11 @@
       <c r="G557">
         <v>296.1486820457557</v>
       </c>
-    </row>
-    <row r="558" spans="1:7">
+      <c r="H557">
+        <v>0.3671327418732555</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8">
       <c r="A558">
         <v>8810.5898</v>
       </c>
@@ -13231,8 +14905,11 @@
       <c r="G558">
         <v>88.46858254313892</v>
       </c>
-    </row>
-    <row r="559" spans="1:7">
+      <c r="H558">
+        <v>0.2177667796783332</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8">
       <c r="A559">
         <v>8826.644200000001</v>
       </c>
@@ -13254,8 +14931,11 @@
       <c r="G559">
         <v>557.0176161666278</v>
       </c>
-    </row>
-    <row r="560" spans="1:7">
+      <c r="H559">
+        <v>0.6269864395020003</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8">
       <c r="A560">
         <v>8849.169900000001</v>
       </c>
@@ -13277,8 +14957,11 @@
       <c r="G560">
         <v>189.7169772045815</v>
       </c>
-    </row>
-    <row r="561" spans="1:7">
+      <c r="H560">
+        <v>0.2758049979564267</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8">
       <c r="A561">
         <v>8869.3676</v>
       </c>
@@ -13300,8 +14983,11 @@
       <c r="G561">
         <v>466.4521877039886</v>
       </c>
-    </row>
-    <row r="562" spans="1:7">
+      <c r="H561">
+        <v>0.5216439597695983</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8">
       <c r="A562">
         <v>8878.4612</v>
       </c>
@@ -13323,8 +15009,11 @@
       <c r="G562">
         <v>148.571558231961</v>
       </c>
-    </row>
-    <row r="563" spans="1:7">
+      <c r="H562">
+        <v>0.2036865284337862</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8">
       <c r="A563">
         <v>8945.519200000001</v>
       </c>
@@ -13346,8 +15035,11 @@
       <c r="G563">
         <v>244.6459388368232</v>
       </c>
-    </row>
-    <row r="564" spans="1:7">
+      <c r="H563">
+        <v>0.2639122901365216</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8">
       <c r="A564">
         <v>8947.6459</v>
       </c>
@@ -13369,8 +15061,11 @@
       <c r="G564">
         <v>321.6496975043341</v>
       </c>
-    </row>
-    <row r="565" spans="1:7">
+      <c r="H564">
+        <v>0.383657307757446</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8">
       <c r="A565">
         <v>8952.6461</v>
       </c>
@@ -13392,8 +15087,11 @@
       <c r="G565">
         <v>167.432318108946</v>
       </c>
-    </row>
-    <row r="566" spans="1:7">
+      <c r="H565">
+        <v>0.0864934948844871</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8">
       <c r="A566">
         <v>8977.8647</v>
       </c>
@@ -13415,8 +15113,11 @@
       <c r="G566">
         <v>394.0303315714157</v>
       </c>
-    </row>
-    <row r="567" spans="1:7">
+      <c r="H566">
+        <v>0.447689692348883</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8">
       <c r="A567">
         <v>9013.0681</v>
       </c>
@@ -13438,8 +15139,11 @@
       <c r="G567">
         <v>266.0958107997598</v>
       </c>
-    </row>
-    <row r="568" spans="1:7">
+      <c r="H567">
+        <v>0.3143104403460448</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8">
       <c r="A568">
         <v>9016.451999999999</v>
       </c>
@@ -13461,8 +15165,11 @@
       <c r="G568">
         <v>242.7212991886152</v>
       </c>
-    </row>
-    <row r="569" spans="1:7">
+      <c r="H568">
+        <v>0.2383807153314577</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8">
       <c r="A569">
         <v>9022.222900000001</v>
       </c>
@@ -13484,8 +15191,11 @@
       <c r="G569">
         <v>172.786773144405</v>
       </c>
-    </row>
-    <row r="570" spans="1:7">
+      <c r="H569">
+        <v>0.1700542499363775</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8">
       <c r="A570">
         <v>9039.2359</v>
       </c>
@@ -13507,8 +15217,11 @@
       <c r="G570">
         <v>119.3964690044329</v>
       </c>
-    </row>
-    <row r="571" spans="1:7">
+      <c r="H570">
+        <v>0.03667924689890456</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8">
       <c r="A571">
         <v>9086.6788</v>
       </c>
@@ -13530,8 +15243,11 @@
       <c r="G571">
         <v>234.2469123185328</v>
       </c>
-    </row>
-    <row r="572" spans="1:7">
+      <c r="H571">
+        <v>0.0785819113776266</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8">
       <c r="A572">
         <v>9106.136200000001</v>
       </c>
@@ -13553,8 +15269,11 @@
       <c r="G572">
         <v>55.96744516247381</v>
       </c>
-    </row>
-    <row r="573" spans="1:7">
+      <c r="H572">
+        <v>0.1724782754818444</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8">
       <c r="A573">
         <v>9212.5533</v>
       </c>
@@ -13576,8 +15295,11 @@
       <c r="G573">
         <v>263.5880446175102</v>
       </c>
-    </row>
-    <row r="574" spans="1:7">
+      <c r="H573">
+        <v>0.3791112135199783</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8">
       <c r="A574">
         <v>9786.674000000001</v>
       </c>
@@ -13599,8 +15321,11 @@
       <c r="G574">
         <v>143.9737905132135</v>
       </c>
-    </row>
-    <row r="575" spans="1:7">
+      <c r="H574">
+        <v>0.1668891368658811</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8">
       <c r="A575">
         <v>9802.9961</v>
       </c>
@@ -13622,8 +15347,11 @@
       <c r="G575">
         <v>192.6648205920298</v>
       </c>
-    </row>
-    <row r="576" spans="1:7">
+      <c r="H575">
+        <v>0.3117348580193462</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8">
       <c r="A576">
         <v>9803.4871</v>
       </c>
@@ -13645,8 +15373,11 @@
       <c r="G576">
         <v>192.6551711296614</v>
       </c>
-    </row>
-    <row r="577" spans="1:7">
+      <c r="H576">
+        <v>0.1696938642265924</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8">
       <c r="A577">
         <v>9836.8809</v>
       </c>
@@ -13668,8 +15399,11 @@
       <c r="G577">
         <v>195.0487914372474</v>
       </c>
-    </row>
-    <row r="578" spans="1:7">
+      <c r="H577">
+        <v>0.164214586173251</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8">
       <c r="A578">
         <v>9864.4409</v>
       </c>
@@ -13691,8 +15425,11 @@
       <c r="G578">
         <v>173.2299911944204</v>
       </c>
-    </row>
-    <row r="579" spans="1:7">
+      <c r="H578">
+        <v>0.3437509025972875</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8">
       <c r="A579">
         <v>9891.7477</v>
       </c>
@@ -13714,8 +15451,11 @@
       <c r="G579">
         <v>342.4728246447154</v>
       </c>
-    </row>
-    <row r="580" spans="1:7">
+      <c r="H579">
+        <v>0.3597477234781277</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8">
       <c r="A580">
         <v>9946.9321</v>
       </c>
@@ -13737,8 +15477,11 @@
       <c r="G580">
         <v>201.9325605790433</v>
       </c>
-    </row>
-    <row r="581" spans="1:7">
+      <c r="H580">
+        <v>0.1576507383336906</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8">
       <c r="A581">
         <v>9956.2017</v>
       </c>
@@ -13760,8 +15503,11 @@
       <c r="G581">
         <v>150.5556371518064</v>
       </c>
-    </row>
-    <row r="582" spans="1:7">
+      <c r="H581">
+        <v>0.04373144959787745</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8">
       <c r="A582">
         <v>9972.9673</v>
       </c>
@@ -13783,8 +15529,11 @@
       <c r="G582">
         <v>276.5566686855374</v>
       </c>
-    </row>
-    <row r="583" spans="1:7">
+      <c r="H582">
+        <v>0.02503975374773815</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8">
       <c r="A583">
         <v>9980.3766</v>
       </c>
@@ -13806,8 +15555,11 @@
       <c r="G583">
         <v>147.1871356378689</v>
       </c>
-    </row>
-    <row r="584" spans="1:7">
+      <c r="H583">
+        <v>0.05895582662234078</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8">
       <c r="A584">
         <v>9983.2003</v>
       </c>
@@ -13829,8 +15581,11 @@
       <c r="G584">
         <v>141.1395654545929</v>
       </c>
-    </row>
-    <row r="585" spans="1:7">
+      <c r="H584">
+        <v>0.1083277729822012</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8">
       <c r="A585">
         <v>9998.803099999999</v>
       </c>
@@ -13852,8 +15607,11 @@
       <c r="G585">
         <v>176.8987232039831</v>
       </c>
-    </row>
-    <row r="586" spans="1:7">
+      <c r="H585">
+        <v>0.02226607195862484</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8">
       <c r="A586">
         <v>10022.539</v>
       </c>
@@ -13875,8 +15633,11 @@
       <c r="G586">
         <v>218.356340939852</v>
       </c>
-    </row>
-    <row r="587" spans="1:7">
+      <c r="H586">
+        <v>0.05447884558367033</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8">
       <c r="A587">
         <v>10035.609</v>
       </c>
@@ -13898,8 +15659,11 @@
       <c r="G587">
         <v>271.8431305837885</v>
       </c>
-    </row>
-    <row r="588" spans="1:7">
+      <c r="H587">
+        <v>0.06112226312582691</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8">
       <c r="A588">
         <v>10067.804</v>
       </c>
@@ -13921,8 +15685,11 @@
       <c r="G588">
         <v>348.3949189329567</v>
       </c>
-    </row>
-    <row r="589" spans="1:7">
+      <c r="H588">
+        <v>0.3900597658016467</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8">
       <c r="A589">
         <v>10073.28</v>
       </c>
@@ -13944,8 +15711,11 @@
       <c r="G589">
         <v>261.8981731841762</v>
       </c>
-    </row>
-    <row r="590" spans="1:7">
+      <c r="H589">
+        <v>0.04093770869232938</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8">
       <c r="A590">
         <v>10084.158</v>
       </c>
@@ -13967,8 +15737,11 @@
       <c r="G590">
         <v>338.9111933598435</v>
       </c>
-    </row>
-    <row r="591" spans="1:7">
+      <c r="H590">
+        <v>0.04593897832445493</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8">
       <c r="A591">
         <v>10089.006</v>
       </c>
@@ -13990,8 +15763,11 @@
       <c r="G591">
         <v>145.6023560613098</v>
       </c>
-    </row>
-    <row r="592" spans="1:7">
+      <c r="H591">
+        <v>0.04166471701513108</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8">
       <c r="A592">
         <v>10116.789</v>
       </c>
@@ -14013,8 +15789,11 @@
       <c r="G592">
         <v>213.358773957411</v>
       </c>
-    </row>
-    <row r="593" spans="1:7">
+      <c r="H592">
+        <v>0.1061104844731254</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8">
       <c r="A593">
         <v>10139.88</v>
       </c>
@@ -14036,8 +15815,11 @@
       <c r="G593">
         <v>79.82733888295766</v>
       </c>
-    </row>
-    <row r="594" spans="1:7">
+      <c r="H593">
+        <v>0.05131320505743098</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8">
       <c r="A594">
         <v>10148.344</v>
       </c>
@@ -14059,8 +15841,11 @@
       <c r="G594">
         <v>363.3545762064405</v>
       </c>
-    </row>
-    <row r="595" spans="1:7">
+      <c r="H594">
+        <v>0.4223933736672468</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8">
       <c r="A595">
         <v>10157.949</v>
       </c>
@@ -14082,8 +15867,11 @@
       <c r="G595">
         <v>236.1047160032303</v>
       </c>
-    </row>
-    <row r="596" spans="1:7">
+      <c r="H595">
+        <v>0.1059398352439861</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8">
       <c r="A596">
         <v>10159.29</v>
       </c>
@@ -14105,8 +15893,11 @@
       <c r="G596">
         <v>318.6992936057722</v>
       </c>
-    </row>
-    <row r="597" spans="1:7">
+      <c r="H596">
+        <v>0.06210036521439655</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8">
       <c r="A597">
         <v>10170.256</v>
       </c>
@@ -14128,8 +15919,11 @@
       <c r="G597">
         <v>215.1848432804517</v>
       </c>
-    </row>
-    <row r="598" spans="1:7">
+      <c r="H597">
+        <v>0.1251880144447447</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8">
       <c r="A598">
         <v>10197.902</v>
       </c>
@@ -14151,8 +15945,11 @@
       <c r="G598">
         <v>220.4809807698102</v>
       </c>
-    </row>
-    <row r="599" spans="1:7">
+      <c r="H598">
+        <v>0.1382769974722584</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8">
       <c r="A599">
         <v>10219.114</v>
       </c>
@@ -14174,8 +15971,11 @@
       <c r="G599">
         <v>428.3120715458798</v>
       </c>
-    </row>
-    <row r="600" spans="1:7">
+      <c r="H599">
+        <v>0.448957778345526</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8">
       <c r="A600">
         <v>10221.211</v>
       </c>
@@ -14197,8 +15997,11 @@
       <c r="G600">
         <v>211.1790567445773</v>
       </c>
-    </row>
-    <row r="601" spans="1:7">
+      <c r="H600">
+        <v>0.2279032932245578</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8">
       <c r="A601">
         <v>10255.364</v>
       </c>
@@ -14220,8 +16023,11 @@
       <c r="G601">
         <v>61.38876804717894</v>
       </c>
-    </row>
-    <row r="602" spans="1:7">
+      <c r="H601">
+        <v>0.05188812615028782</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8">
       <c r="A602">
         <v>10268.033</v>
       </c>
@@ -14243,8 +16049,11 @@
       <c r="G602">
         <v>131.3850531002236</v>
       </c>
-    </row>
-    <row r="603" spans="1:7">
+      <c r="H602">
+        <v>0.04941182835037927</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8">
       <c r="A603">
         <v>10286.596</v>
       </c>
@@ -14266,8 +16075,11 @@
       <c r="G603">
         <v>-81.6031739268814</v>
       </c>
-    </row>
-    <row r="604" spans="1:7">
+      <c r="H603">
+        <v>0.0360837356497381</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8">
       <c r="A604">
         <v>10310.279</v>
       </c>
@@ -14289,8 +16101,11 @@
       <c r="G604">
         <v>101.7696614037606</v>
       </c>
-    </row>
-    <row r="605" spans="1:7">
+      <c r="H604">
+        <v>0.03575505084425246</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8">
       <c r="A605">
         <v>10335.161</v>
       </c>
@@ -14312,8 +16127,11 @@
       <c r="G605">
         <v>269.7654985160183</v>
       </c>
-    </row>
-    <row r="606" spans="1:7">
+      <c r="H605">
+        <v>0.06470172431325261</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8">
       <c r="A606">
         <v>10343.72</v>
       </c>
@@ -14335,8 +16153,11 @@
       <c r="G606">
         <v>240.5592380196063</v>
       </c>
-    </row>
-    <row r="607" spans="1:7">
+      <c r="H606">
+        <v>0.2657169955213449</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8">
       <c r="A607">
         <v>10348.019</v>
       </c>
@@ -14358,8 +16179,11 @@
       <c r="G607">
         <v>89.81009985104512</v>
       </c>
-    </row>
-    <row r="608" spans="1:7">
+      <c r="H607">
+        <v>0.04005396258834226</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8">
       <c r="A608">
         <v>10350.802</v>
       </c>
@@ -14381,8 +16205,11 @@
       <c r="G608">
         <v>185.3645477222391</v>
       </c>
-    </row>
-    <row r="609" spans="1:7">
+      <c r="H608">
+        <v>0.1765885524753319</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8">
       <c r="A609">
         <v>10356.644</v>
       </c>
@@ -14404,8 +16231,11 @@
       <c r="G609">
         <v>222.8909216480906</v>
       </c>
-    </row>
-    <row r="610" spans="1:7">
+      <c r="H609">
+        <v>0.1193162834796203</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8">
       <c r="A610">
         <v>10365.544</v>
       </c>
@@ -14427,8 +16257,11 @@
       <c r="G610">
         <v>133.0412862806136</v>
       </c>
-    </row>
-    <row r="611" spans="1:7">
+      <c r="H610">
+        <v>0.06302711185714871</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8">
       <c r="A611">
         <v>10366.902</v>
       </c>
@@ -14450,8 +16283,11 @@
       <c r="G611">
         <v>150.3747967691405</v>
       </c>
-    </row>
-    <row r="612" spans="1:7">
+      <c r="H611">
+        <v>0.08881901191235453</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8">
       <c r="A612">
         <v>10381.846</v>
       </c>
@@ -14473,8 +16309,11 @@
       <c r="G612">
         <v>103.9557752013837</v>
       </c>
-    </row>
-    <row r="613" spans="1:7">
+      <c r="H612">
+        <v>0.1132435682908552</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8">
       <c r="A613">
         <v>10391.591</v>
       </c>
@@ -14496,8 +16335,11 @@
       <c r="G613">
         <v>161.5573366260888</v>
       </c>
-    </row>
-    <row r="614" spans="1:7">
+      <c r="H613">
+        <v>0.04249469897171765</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8">
       <c r="A614">
         <v>10398.646</v>
       </c>
@@ -14519,8 +16361,11 @@
       <c r="G614">
         <v>247.9375813492061</v>
       </c>
-    </row>
-    <row r="615" spans="1:7">
+      <c r="H614">
+        <v>0.3257730047668924</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8">
       <c r="A615">
         <v>10425.887</v>
       </c>
@@ -14542,8 +16387,11 @@
       <c r="G615">
         <v>238.6633771450285</v>
       </c>
-    </row>
-    <row r="616" spans="1:7">
+      <c r="H615">
+        <v>0.1341141618553138</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8">
       <c r="A616">
         <v>10426.602</v>
       </c>
@@ -14565,8 +16413,11 @@
       <c r="G616">
         <v>178.2664418663123</v>
       </c>
-    </row>
-    <row r="617" spans="1:7">
+      <c r="H616">
+        <v>0.1715619510509055</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8">
       <c r="A617">
         <v>10535.122</v>
       </c>
@@ -14588,8 +16439,11 @@
       <c r="G617">
         <v>304.4843050564993</v>
       </c>
-    </row>
-    <row r="618" spans="1:7">
+      <c r="H617">
+        <v>0.3062644605820145</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8">
       <c r="A618">
         <v>10580.039</v>
       </c>
@@ -14611,8 +16465,11 @@
       <c r="G618">
         <v>277.6895329283418</v>
       </c>
-    </row>
-    <row r="619" spans="1:7">
+      <c r="H618">
+        <v>0.09817086584759116</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8">
       <c r="A619">
         <v>10619.632</v>
       </c>
@@ -14633,6 +16490,9 @@
       </c>
       <c r="G619">
         <v>183.4951509432091</v>
+      </c>
+      <c r="H619">
+        <v>0.0890472003001116</v>
       </c>
     </row>
   </sheetData>
